--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WATER_AI_PROJECT\SET PROJECT\MANUS\SBT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF90E5-B701-4DFF-844B-D13A3304953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081E597-FF21-431F-871A-771D6EFCCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="687" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="18" r:id="rId1"/>
@@ -170,8 +170,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -199,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
   <si>
     <t>NEW PROJECT</t>
   </si>
@@ -381,57 +379,15 @@
     <t xml:space="preserve">fh_Contact </t>
   </si>
   <si>
-    <t>f_PIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Decision Maker </t>
-  </si>
-  <si>
-    <t>f_Influencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_#1 Engineering Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_#2 Enginering Contact </t>
-  </si>
-  <si>
-    <t>f_#3 Commercial Contact</t>
-  </si>
-  <si>
-    <t>f_#4 Commercial Contact</t>
-  </si>
-  <si>
-    <t>f_Company Correspondence (Admin)</t>
-  </si>
-  <si>
     <t xml:space="preserve">f_Type Of Industry </t>
   </si>
   <si>
     <t>f_Project Owner</t>
   </si>
   <si>
-    <t>f/b_Correspondence Address</t>
-  </si>
-  <si>
     <t>f_Postal Code</t>
   </si>
   <si>
-    <t>f_Company Email</t>
-  </si>
-  <si>
-    <t>f_#3 Commercial Person</t>
-  </si>
-  <si>
-    <t>f_#4 Commercial Person</t>
-  </si>
-  <si>
-    <t>f_#2 Enginering Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_#1 Engineering Person </t>
-  </si>
-  <si>
     <t>fh_Contact Person</t>
   </si>
   <si>
@@ -486,15 +442,9 @@
     <t>30 days</t>
   </si>
   <si>
-    <t xml:space="preserve">f_Project Type </t>
-  </si>
-  <si>
     <t xml:space="preserve">f_Project Name (Project Code) </t>
   </si>
   <si>
-    <t xml:space="preserve">f_Project Agreement Type </t>
-  </si>
-  <si>
     <t xml:space="preserve">f_Max. Rainfall (mm/day) </t>
   </si>
   <si>
@@ -507,12 +457,6 @@
     <t>f_Ambient Moisture</t>
   </si>
   <si>
-    <t xml:space="preserve">f_Seismic Hazard Zone </t>
-  </si>
-  <si>
-    <t>f_Wind Speed Zone</t>
-  </si>
-  <si>
     <t>f_Available Space Area (m2)</t>
   </si>
   <si>
@@ -522,27 +466,6 @@
     <t>f_Max. Building Depth (m)</t>
   </si>
   <si>
-    <t xml:space="preserve">f_Construction Difficulty Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Construction Grade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Noise Generation Constraint </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Client Safety Awareness </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Brand Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Hazop Review </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Client OPEX Awareness </t>
-  </si>
-  <si>
     <t>f_Total OPEX (USD)</t>
   </si>
   <si>
@@ -576,9 +499,6 @@
     <t>f_Acceptance Test Timeline (week)</t>
   </si>
   <si>
-    <t>f_Baby Sitting Scheme</t>
-  </si>
-  <si>
     <t>f_CAPEX (USD)</t>
   </si>
   <si>
@@ -588,9 +508,6 @@
     <t>f_Proposed Technology</t>
   </si>
   <si>
-    <t>f_Country of Origin</t>
-  </si>
-  <si>
     <t>f_Competitor Grade</t>
   </si>
   <si>
@@ -606,55 +523,16 @@
     <t xml:space="preserve">f_Awarding Schedule </t>
   </si>
   <si>
-    <t>f_Payment-1 Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_Invoicing Term (days) </t>
-  </si>
-  <si>
-    <t>f_Chemical Supply During Startup</t>
-  </si>
-  <si>
     <t>f_Client Estimated CAPEX (USD)</t>
   </si>
   <si>
     <t>f_Tender Bond (%)</t>
   </si>
   <si>
-    <t>f_Sludge</t>
-  </si>
-  <si>
-    <t>f_Biogas</t>
-  </si>
-  <si>
-    <t>f_Salt from ZLD Process</t>
-  </si>
-  <si>
-    <t>f_Webinar Participation</t>
-  </si>
-  <si>
-    <t>f_Expo Participation</t>
-  </si>
-  <si>
-    <t>f_Gathering Participation</t>
-  </si>
-  <si>
-    <t>f_Project References Visit</t>
-  </si>
-  <si>
     <t xml:space="preserve">fh_Contact Person </t>
   </si>
   <si>
     <t>fh_Company Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bh_Name </t>
-  </si>
-  <si>
-    <t>bh_Phone No/Email</t>
-  </si>
-  <si>
-    <t>bh_Main Contractor Information</t>
   </si>
   <si>
     <r>
@@ -688,12 +566,6 @@
     <t>sub_Project Information</t>
   </si>
   <si>
-    <t>f_Project Status</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>NAMIGN CONVENTION</t>
   </si>
   <si>
@@ -707,6 +579,132 @@
   </si>
   <si>
     <t>sub_</t>
+  </si>
+  <si>
+    <t>fh_Main Contractor Information</t>
+  </si>
+  <si>
+    <t>fm_PIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_Decision Maker </t>
+  </si>
+  <si>
+    <t>fm_Influencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_#1 Engineering Contact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_#2 Enginering Contact </t>
+  </si>
+  <si>
+    <t>fm_#3 Commercial Contact</t>
+  </si>
+  <si>
+    <t>fm_#4 Commercial Contact</t>
+  </si>
+  <si>
+    <t>fm_Company Correspondence (Admin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_#1 Engineering Person </t>
+  </si>
+  <si>
+    <t>fm_#2 Enginering Person</t>
+  </si>
+  <si>
+    <t>fm_#3 Commercial Person</t>
+  </si>
+  <si>
+    <t>fm_#4 Commercial Person</t>
+  </si>
+  <si>
+    <t>fm_Company Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_Name </t>
+  </si>
+  <si>
+    <t>ch_Phone No/Email</t>
+  </si>
+  <si>
+    <t>fd_Project Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Project Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Project Agreement Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Seismic Hazard Zone </t>
+  </si>
+  <si>
+    <t>fd_Wind Speed Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Construction Difficulty Level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Construction Grade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Noise Generation Constraint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Brand Level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Client Safety Awareness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Hazop Review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Client OPEX Awareness </t>
+  </si>
+  <si>
+    <t>fd_Baby Sitting Scheme</t>
+  </si>
+  <si>
+    <t>fd_Country of Origin</t>
+  </si>
+  <si>
+    <t>fd_Payment-1 Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd_Invoicing Term (days) </t>
+  </si>
+  <si>
+    <t>fd_Chemical Supply During Startup</t>
+  </si>
+  <si>
+    <t>fd_Sludge</t>
+  </si>
+  <si>
+    <t>fd_Biogas</t>
+  </si>
+  <si>
+    <t>fd_Salt from ZLD Process</t>
+  </si>
+  <si>
+    <t>fd_Webinar Participation</t>
+  </si>
+  <si>
+    <t>fd_Expo Participation</t>
+  </si>
+  <si>
+    <t>fd_Gathering Participation</t>
+  </si>
+  <si>
+    <t>fd_Project References Visit</t>
+  </si>
+  <si>
+    <t>fd_Country</t>
   </si>
 </sst>
 </file>
@@ -714,8 +712,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0\ &quot;m2&quot;"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
@@ -1239,19 +1237,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1268,6 +1253,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1319,9 +1317,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1351,12 +1349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -1377,23 +1369,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,10 +1387,10 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -1413,37 +1399,43 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,38 +2449,38 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="92.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.26953125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="19.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" style="1" customWidth="1"/>
-    <col min="15" max="28" width="8.453125" style="1"/>
-    <col min="29" max="29" width="8.453125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.453125" style="1"/>
+    <col min="1" max="1" width="37.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.21875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" style="1" customWidth="1"/>
+    <col min="15" max="28" width="8.44140625" style="1"/>
+    <col min="29" max="29" width="8.44140625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2497,15 +2489,15 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2514,12 +2506,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -2531,12 +2523,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2548,12 +2540,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2565,12 +2557,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2582,14 +2574,14 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="32"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2598,12 +2590,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2612,12 +2604,12 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2626,12 +2618,12 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2643,14 +2635,12 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2662,12 +2652,12 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2676,12 +2666,12 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="13"/>
+    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2690,19 +2680,19 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2711,15 +2701,15 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2728,12 +2718,12 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
+    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2742,12 +2732,12 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2756,12 +2746,12 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2773,12 +2763,12 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2790,12 +2780,12 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2807,12 +2797,12 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
+    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2821,12 +2811,12 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
+    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2835,15 +2825,15 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2852,12 +2842,12 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
+    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2869,12 +2859,12 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="15"/>
+    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2886,12 +2876,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2903,12 +2893,12 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2917,12 +2907,12 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2931,12 +2921,12 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2945,12 +2935,12 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2962,12 +2952,12 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+    <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2979,12 +2969,12 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+    <row r="33" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2993,19 +2983,19 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="13" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+    <row r="34" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3014,12 +3004,12 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+    <row r="35" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3028,12 +3018,12 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+    <row r="36" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3042,12 +3032,12 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -3059,12 +3049,12 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+    <row r="38" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -3076,12 +3066,12 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+    <row r="39" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -3093,12 +3083,12 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+    <row r="40" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3107,12 +3097,12 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+    <row r="41" spans="1:21" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3121,135 +3111,135 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="25" x14ac:dyDescent="0.35">
-      <c r="A42" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+    <row r="42" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
       <c r="O42" s="5"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="4"/>
       <c r="T42" s="6"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="33"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="C49" s="32"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="15"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="25" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="25"/>
-    </row>
-    <row r="58" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
+      <c r="B56" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="11"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3258,12 +3248,12 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
+    <row r="59" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="11"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3272,12 +3262,12 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+    <row r="60" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3286,12 +3276,12 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+    <row r="61" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3300,12 +3290,12 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+    <row r="62" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3314,12 +3304,12 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
+    <row r="63" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="11"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3328,12 +3318,12 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="13"/>
+    <row r="64" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="11"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3342,7 +3332,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3351,7 +3341,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3360,7 +3350,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3369,7 +3359,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3378,7 +3368,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3387,7 +3377,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3396,7 +3386,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3405,7 +3395,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3414,7 +3404,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3423,8 +3413,8 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.35">
-      <c r="A74" s="29" t="s">
+    <row r="74" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="1"/>
@@ -3435,7 +3425,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3437,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3449,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="12.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3470,17 +3460,50 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="5">
+  <mergeCells count="38">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B49" xr:uid="{17E46E10-02F7-4283-B20D-8C99C80083FE}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8 B49:C49" xr:uid="{20C8A5D9-C306-4B43-8824-8467065218C5}">
+      <formula1>"United States,Indonesia"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,101 +3515,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319C94A-0482-4D1D-89B3-0D63378135A5}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="48.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="X1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>92</v>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="X3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="21"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="20" t="s">
-        <v>128</v>
+      <c r="C5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="X6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>98</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="20" t="s">
-        <v>129</v>
+      <c r="C7" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -3595,82 +3618,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>99</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="15"/>
+      <c r="C8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="X8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>100</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
-        <v>91</v>
+      <c r="C9" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="X9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>101</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="21"/>
+      <c r="C10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="18"/>
       <c r="X10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="23"/>
+      <c r="C11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="20"/>
       <c r="X11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>128</v>
+      <c r="C12" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D12" s="2"/>
       <c r="X12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>129</v>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -3679,82 +3702,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="15"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="X14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
       <c r="X15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="21"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="X16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="C17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="20"/>
       <c r="X17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>128</v>
+      <c r="C18" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="2"/>
       <c r="X18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="20" t="s">
-        <v>129</v>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -3763,184 +3786,184 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="15"/>
+      <c r="C20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="X20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="15"/>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="X21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="32"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="27"/>
       <c r="X22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="32"/>
+      <c r="C23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="X23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="32"/>
+      <c r="C24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="27"/>
       <c r="X24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="32"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="27"/>
       <c r="X25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="D26" s="10"/>
       <c r="X26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="22" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
       <c r="X27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>94</v>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="X28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="22" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="X29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="28"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="24"/>
       <c r="X30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13" t="s">
-        <v>139</v>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D31" s="2"/>
       <c r="X31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="13" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="2"/>
@@ -3948,107 +3971,107 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13" t="s">
-        <v>140</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13" t="s">
-        <v>141</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13" t="s">
-        <v>142</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13" t="s">
-        <v>143</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13" t="s">
-        <v>144</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13" t="s">
-        <v>145</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>146</v>
+      <c r="C41" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>1</v>
@@ -4136,7 +4159,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4150,7 +4173,7 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4160,11 +4183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4174,35 +4197,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
   <dimension ref="H7:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7482AC3-D844-4F1A-A4CA-BEDFA30C9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954448D-E85A-4A00-B8E1-93BA2CAD2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="3" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" state="hidden" r:id="rId1"/>
@@ -2234,55 +2234,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
@@ -2296,6 +2251,51 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4468,8 +4468,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="A2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4529,8 +4529,8 @@
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4546,10 +4546,10 @@
       <c r="A5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4565,10 +4565,10 @@
       <c r="A6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4601,8 +4601,8 @@
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4615,8 +4615,8 @@
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4629,8 +4629,8 @@
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4643,8 +4643,8 @@
       <c r="A11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4660,8 +4660,8 @@
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4677,8 +4677,8 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4850,8 +4850,8 @@
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -5266,7 +5266,8 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A25:C25"/>
@@ -5327,12 +5328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="X1" t="s">
         <v>11</v>
       </c>
@@ -5952,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D0212-0F7E-4B31-B4FD-59C950AC3207}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -5965,10 +5966,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="74"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6339,10 +6340,10 @@
       <c r="C3" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="85"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="56" t="s">
@@ -6363,12 +6364,12 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="56"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="57"/>
@@ -6426,20 +6427,20 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="57"/>
@@ -6993,12 +6994,12 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="59"/>
@@ -7017,10 +7018,10 @@
       <c r="B71" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="D71" s="74"/>
+      <c r="D71" s="78"/>
       <c r="E71" s="55" t="s">
         <v>167</v>
       </c>
@@ -7032,13 +7033,13 @@
       <c r="K71" s="54"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="74"/>
+      <c r="D72" s="78"/>
       <c r="E72" s="54" t="s">
         <v>165</v>
       </c>
@@ -7050,11 +7051,11 @@
       <c r="K72" s="54"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="77"/>
-      <c r="C73" s="74" t="s">
+      <c r="B73" s="79"/>
+      <c r="C73" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="D73" s="74"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="54" t="s">
         <v>165</v>
       </c>
@@ -7066,11 +7067,11 @@
       <c r="K73" s="54"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="77"/>
-      <c r="C74" s="74" t="s">
+      <c r="B74" s="79"/>
+      <c r="C74" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="74"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="54" t="s">
         <v>165</v>
       </c>
@@ -7082,11 +7083,11 @@
       <c r="K74" s="54"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="77"/>
-      <c r="C75" s="74" t="s">
+      <c r="B75" s="79"/>
+      <c r="C75" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="74"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="54" t="s">
         <v>165</v>
       </c>
@@ -7101,10 +7102,10 @@
       <c r="B76" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="74"/>
+      <c r="D76" s="78"/>
       <c r="E76" s="55" t="s">
         <v>166</v>
       </c>
@@ -7119,147 +7120,147 @@
       <c r="B77" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="D77" s="69"/>
+      <c r="D77" s="84"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="D78" s="69"/>
+      <c r="D78" s="84"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="81" t="s">
         <v>307</v>
       </c>
-      <c r="D79" s="71"/>
+      <c r="D79" s="81"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="75"/>
-      <c r="C80" s="73" t="s">
+      <c r="B80" s="80"/>
+      <c r="C80" s="82" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="71"/>
+      <c r="D80" s="81"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="75"/>
-      <c r="C81" s="73" t="s">
+      <c r="B81" s="80"/>
+      <c r="C81" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="D81" s="71"/>
+      <c r="D81" s="81"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="75"/>
-      <c r="C82" s="73" t="s">
+      <c r="B82" s="80"/>
+      <c r="C82" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="D82" s="71"/>
+      <c r="D82" s="81"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="75"/>
-      <c r="C83" s="73" t="s">
+      <c r="B83" s="80"/>
+      <c r="C83" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="71"/>
+      <c r="D83" s="81"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="75"/>
-      <c r="C84" s="71" t="s">
+      <c r="B84" s="80"/>
+      <c r="C84" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="D84" s="71"/>
+      <c r="D84" s="81"/>
     </row>
     <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="75"/>
-      <c r="C85" s="72" t="s">
+      <c r="B85" s="80"/>
+      <c r="C85" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="D85" s="72"/>
+      <c r="D85" s="86"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="75"/>
-      <c r="C86" s="71" t="s">
+      <c r="B86" s="80"/>
+      <c r="C86" s="81" t="s">
         <v>320</v>
       </c>
-      <c r="D86" s="71"/>
+      <c r="D86" s="81"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="75"/>
-      <c r="C87" s="73" t="s">
+      <c r="B87" s="80"/>
+      <c r="C87" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="D87" s="71"/>
+      <c r="D87" s="81"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="75"/>
-      <c r="C88" s="73" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="D88" s="71"/>
+      <c r="D88" s="81"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="75"/>
-      <c r="C89" s="73" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="D89" s="71"/>
+      <c r="D89" s="81"/>
     </row>
     <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="75"/>
-      <c r="C90" s="73" t="s">
+      <c r="B90" s="80"/>
+      <c r="C90" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="D90" s="71"/>
+      <c r="D90" s="81"/>
     </row>
     <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="75"/>
-      <c r="C91" s="71" t="s">
+      <c r="B91" s="80"/>
+      <c r="C91" s="81" t="s">
         <v>325</v>
       </c>
-      <c r="D91" s="71"/>
+      <c r="D91" s="81"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="75"/>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="80"/>
+      <c r="C92" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="D92" s="71"/>
+      <c r="D92" s="81"/>
     </row>
     <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="C93" s="71" t="s">
+      <c r="C93" s="81" t="s">
         <v>327</v>
       </c>
-      <c r="D93" s="71"/>
+      <c r="D93" s="81"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="75"/>
-      <c r="C94" s="71" t="s">
+      <c r="B94" s="80"/>
+      <c r="C94" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="D94" s="71"/>
+      <c r="D94" s="81"/>
     </row>
     <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="D95" s="69"/>
+      <c r="D95" s="84"/>
     </row>
     <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="76"/>
+      <c r="B96" s="83"/>
       <c r="C96" s="51" t="s">
         <v>330</v>
       </c>
@@ -7268,7 +7269,7 @@
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="76"/>
+      <c r="B97" s="83"/>
       <c r="C97" s="51" t="s">
         <v>331</v>
       </c>
@@ -7277,7 +7278,7 @@
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="76"/>
+      <c r="B98" s="83"/>
       <c r="C98" s="51" t="s">
         <v>332</v>
       </c>
@@ -7286,7 +7287,7 @@
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="76"/>
+      <c r="B99" s="83"/>
       <c r="C99" s="51" t="s">
         <v>333</v>
       </c>
@@ -7295,7 +7296,7 @@
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="76"/>
+      <c r="B100" s="83"/>
       <c r="C100" s="51" t="s">
         <v>334</v>
       </c>
@@ -7304,7 +7305,7 @@
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="76"/>
+      <c r="B101" s="83"/>
       <c r="C101" s="51" t="s">
         <v>335</v>
       </c>
@@ -7316,65 +7317,40 @@
       <c r="B102" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="C102" s="69" t="s">
+      <c r="C102" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="D102" s="69"/>
+      <c r="D102" s="84"/>
     </row>
     <row r="103" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B103" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C103" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="69"/>
+      <c r="D103" s="84"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="D104" s="69"/>
+      <c r="D104" s="84"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="69" t="s">
+      <c r="C105" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="D105" s="69"/>
+      <c r="D105" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B79:B92"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D95"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
@@ -7391,6 +7367,31 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B79:B92"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954448D-E85A-4A00-B8E1-93BA2CAD2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881959B-19D3-4678-89E0-7F52164AEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="3" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
@@ -213,8 +213,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -340,9 +338,6 @@
     <t>DED CHARGE</t>
   </si>
   <si>
-    <t>Performance Bond (%)</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -886,66 +881,6 @@
   </si>
   <si>
     <t>fd_Effluent Consideration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_mg/L </t>
-  </si>
-  <si>
-    <t>fm_Max. TDS</t>
-  </si>
-  <si>
-    <t>fm_Operation Time Day</t>
-  </si>
-  <si>
-    <t>fm_COD</t>
-  </si>
-  <si>
-    <t>fm_BOD</t>
-  </si>
-  <si>
-    <t>fm_TSS</t>
-  </si>
-  <si>
-    <t>fm_FOG</t>
-  </si>
-  <si>
-    <t>fm_Max. NH3</t>
-  </si>
-  <si>
-    <t>fm_Max. Sulfur</t>
-  </si>
-  <si>
-    <t>fm_TKN</t>
-  </si>
-  <si>
-    <t>fm_TP</t>
-  </si>
-  <si>
-    <t>fm_Max. Color Index</t>
-  </si>
-  <si>
-    <t>fm_Max. Turbidity</t>
-  </si>
-  <si>
-    <t>fm_Flow</t>
-  </si>
-  <si>
-    <t>ch_h/day</t>
-  </si>
-  <si>
-    <t>ch_PtCo</t>
-  </si>
-  <si>
-    <t>ch_NTU</t>
-  </si>
-  <si>
-    <t>ch_CMD</t>
-  </si>
-  <si>
-    <t>ch_w/w</t>
-  </si>
-  <si>
-    <t>fdfm_Expected Discharge Cake MC</t>
   </si>
   <si>
     <t>ch_Client</t>
@@ -1309,6 +1244,69 @@
   </si>
   <si>
     <t>fh_VI. TERMS AND CONDITIONS</t>
+  </si>
+  <si>
+    <t>f_Max. TDS</t>
+  </si>
+  <si>
+    <t>f_Operation Time Day</t>
+  </si>
+  <si>
+    <t>f_COD</t>
+  </si>
+  <si>
+    <t>f_BOD</t>
+  </si>
+  <si>
+    <t>f_TSS</t>
+  </si>
+  <si>
+    <t>f_FOG</t>
+  </si>
+  <si>
+    <t>f_Max. NH3</t>
+  </si>
+  <si>
+    <t>f_Max. Sulfur</t>
+  </si>
+  <si>
+    <t>f_TKN</t>
+  </si>
+  <si>
+    <t>f_TP</t>
+  </si>
+  <si>
+    <t>f_Max. Color Index</t>
+  </si>
+  <si>
+    <t>f_Max. Turbidity</t>
+  </si>
+  <si>
+    <t>f_Flow</t>
+  </si>
+  <si>
+    <t>fd_Expected Discharge Cake MC</t>
+  </si>
+  <si>
+    <t>f_Performance Bond (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fu_mg/L </t>
+  </si>
+  <si>
+    <t>fu_h/day</t>
+  </si>
+  <si>
+    <t>fu_PtCo</t>
+  </si>
+  <si>
+    <t>fu_NTU</t>
+  </si>
+  <si>
+    <t>fu_CMD</t>
+  </si>
+  <si>
+    <t>fu_w/w</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2059,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2107,9 +2105,6 @@
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,6 +2208,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2240,11 +2241,11 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2255,6 +2256,33 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2264,38 +2292,41 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4175,275 +4206,275 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.109375" style="25" customWidth="1"/>
-    <col min="4" max="5" width="28.5546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="8.44140625" style="25"/>
+    <col min="1" max="3" width="30.109375" style="24" customWidth="1"/>
+    <col min="4" max="5" width="28.5546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="8.44140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="24" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="31" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="C22" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="C24" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="31" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4468,8 +4499,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="A2:C24"/>
+    <sheetView topLeftCell="A4" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4485,21 +4516,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="A1" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4509,14 +4540,14 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4527,10 +4558,10 @@
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4544,12 +4575,12 @@
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="88"/>
+        <v>169</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="72"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4563,12 +4594,12 @@
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="88"/>
+        <v>170</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="72"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4581,11 +4612,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4599,10 +4630,10 @@
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
+        <v>44</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4613,10 +4644,10 @@
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4627,10 +4658,10 @@
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
+        <v>43</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4641,10 +4672,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+        <v>145</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4658,10 +4689,10 @@
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+        <v>46</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4675,10 +4706,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4688,11 +4719,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4703,17 +4734,17 @@
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4724,13 +4755,13 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4741,7 +4772,7 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6"/>
@@ -4755,7 +4786,7 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
@@ -4769,7 +4800,7 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4786,7 +4817,7 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4803,7 +4834,7 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4820,7 +4851,7 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
@@ -4834,7 +4865,7 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
@@ -4848,10 +4879,10 @@
     </row>
     <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
+        <v>50</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4861,14 +4892,14 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4879,10 +4910,10 @@
     </row>
     <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4895,11 +4926,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
+      <c r="A27" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4913,10 +4944,10 @@
     </row>
     <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4927,10 +4958,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4941,10 +4972,10 @@
     </row>
     <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4955,10 +4986,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -4972,10 +5003,10 @@
     </row>
     <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -4989,10 +5020,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5001,36 +5032,29 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:14" s="89" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -5041,7 +5065,7 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5055,7 +5079,7 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5069,7 +5093,7 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5086,7 +5110,7 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5103,7 +5127,7 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5120,7 +5144,7 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5134,10 +5158,10 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5228,7 +5252,7 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -5266,7 +5290,16 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
@@ -5283,7 +5316,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5313,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1819EE-D6ED-4D4B-AE5F-26864AB818A8}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A12" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5328,53 +5360,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="A1" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="X1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D2" s="16"/>
       <c r="X2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2"/>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="4"/>
@@ -5384,13 +5416,13 @@
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>41</v>
+        <v>184</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="15"/>
       <c r="X5" t="s">
@@ -5399,11 +5431,11 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="X6" t="s">
@@ -5412,26 +5444,26 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="8"/>
       <c r="X8" t="s">
@@ -5440,11 +5472,11 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2"/>
       <c r="X9" t="s">
@@ -5453,11 +5485,11 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="13"/>
       <c r="X10" t="s">
@@ -5466,69 +5498,69 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="15"/>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2"/>
       <c r="X12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>2</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8"/>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
       <c r="X15" t="s">
@@ -5537,11 +5569,11 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="13"/>
       <c r="X16" t="s">
@@ -5550,43 +5582,43 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15"/>
       <c r="X17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2"/>
       <c r="X18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>2</v>
       </c>
       <c r="X19" t="s">
@@ -5595,13 +5627,13 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8"/>
       <c r="X20" t="s">
@@ -5610,13 +5642,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="X21" t="s">
@@ -5625,84 +5657,84 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="D22" s="20"/>
       <c r="X22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="C23" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="20"/>
       <c r="X23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="C24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="20"/>
       <c r="X24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="C25" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="20"/>
       <c r="X25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="D26" s="16"/>
       <c r="X26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>31</v>
       </c>
       <c r="X27" t="s">
@@ -5711,14 +5743,14 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>69</v>
+      <c r="C28" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="X28" t="s">
         <v>28</v>
@@ -5726,13 +5758,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>8</v>
       </c>
       <c r="X29" t="s">
@@ -5741,137 +5773,137 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="40" t="s">
-        <v>96</v>
+      <c r="C30" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="39" t="s">
-        <v>97</v>
+      <c r="C31" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="39" t="s">
-        <v>32</v>
+      <c r="C32" s="38" t="s">
+        <v>341</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="42" t="s">
+      <c r="C36" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="42" t="s">
+      <c r="C38" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5953,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D0212-0F7E-4B31-B4FD-59C950AC3207}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5966,325 +5998,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="60" t="s">
-        <v>211</v>
+      <c r="C3" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="34" t="s">
-        <v>225</v>
+      <c r="C4" s="33" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="91"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="91"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="93"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="35"/>
+        <v>151</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="35" t="s">
-        <v>211</v>
+      <c r="C10" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="35" t="s">
-        <v>211</v>
+      <c r="C11" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="35" t="s">
-        <v>211</v>
+      <c r="C12" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="35" t="s">
-        <v>211</v>
+      <c r="C13" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="35" t="s">
-        <v>211</v>
+      <c r="C14" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="35" t="s">
-        <v>211</v>
+      <c r="C15" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="35" t="s">
-        <v>211</v>
+      <c r="C16" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="35" t="s">
-        <v>211</v>
+      <c r="C17" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="35" t="s">
-        <v>226</v>
+      <c r="C18" s="34" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="35" t="s">
-        <v>227</v>
+      <c r="C19" s="34" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="35" t="s">
-        <v>228</v>
+      <c r="C21" s="34" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="91"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="35"/>
+        <v>151</v>
+      </c>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="35" t="s">
-        <v>211</v>
+        <v>329</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="35" t="s">
-        <v>211</v>
+        <v>330</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="35" t="s">
-        <v>211</v>
+        <v>331</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="35" t="s">
-        <v>211</v>
+        <v>332</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35" t="s">
-        <v>211</v>
+        <v>333</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="35" t="s">
-        <v>211</v>
+        <v>334</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="35" t="s">
-        <v>211</v>
+        <v>335</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="35" t="s">
-        <v>211</v>
+        <v>336</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="59" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="35" t="s">
-        <v>226</v>
+        <v>337</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="34" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="35" t="s">
-        <v>227</v>
+        <v>338</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="34" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>229</v>
+        <v>340</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="13">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
@@ -6330,1027 +6374,1052 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>346</v>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="85" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="55"/>
+      <c r="C5" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="56"/>
+      <c r="C6" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="56"/>
+      <c r="C7" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="56"/>
+      <c r="C8" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="56"/>
+      <c r="C9" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="56"/>
+      <c r="C10" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="87"/>
+      <c r="C11" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="87"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="56"/>
+      <c r="C13" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="56"/>
+      <c r="C14" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="56"/>
+      <c r="C15" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="56"/>
+      <c r="C16" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="56"/>
+      <c r="C17" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="56"/>
+      <c r="C18" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="56"/>
+      <c r="C19" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="56"/>
+      <c r="C20" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="56"/>
+      <c r="C21" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="56"/>
+      <c r="C22" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="55"/>
+      <c r="C23" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
+      <c r="C25" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="56"/>
+      <c r="C26" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="56"/>
+      <c r="C27" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="56"/>
+      <c r="C28" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="56"/>
+      <c r="C30" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="56"/>
+      <c r="C31" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="55"/>
+      <c r="C33" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="56"/>
+      <c r="C34" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="56"/>
+      <c r="C35" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="56"/>
+      <c r="C36" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="56"/>
+      <c r="C38" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="56"/>
+      <c r="C39" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="56"/>
+      <c r="C40" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="55"/>
+      <c r="C41" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="56"/>
+      <c r="C42" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="55"/>
+      <c r="C43" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="56"/>
+      <c r="C44" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="56"/>
+      <c r="C45" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="56"/>
+      <c r="C46" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="56"/>
+      <c r="C47" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="56"/>
+      <c r="C48" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="45"/>
+    </row>
+    <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="56"/>
+      <c r="C49" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="55"/>
+      <c r="C50" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="56"/>
+      <c r="C51" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="56"/>
+      <c r="C52" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="45"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="56"/>
+      <c r="C53" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="56"/>
+      <c r="C54" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="57"/>
+      <c r="C55" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="56"/>
+      <c r="C56" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="56"/>
+      <c r="C57" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="56"/>
+      <c r="C58" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="56"/>
+      <c r="C59" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="56"/>
+      <c r="C60" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="56"/>
+      <c r="C61" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="46"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="56"/>
+      <c r="C62" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="46"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="56"/>
+      <c r="C63" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="81"/>
+      <c r="E71" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="81"/>
+      <c r="E72" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
-      <c r="C11" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="77"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="46"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
-      <c r="C43" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="47" t="s">
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="84"/>
+      <c r="C73" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="46"/>
-    </row>
-    <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="47" t="s">
+      <c r="D73" s="81"/>
+      <c r="E73" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="84"/>
+      <c r="C74" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="45" t="s">
+      <c r="D74" s="81"/>
+      <c r="E74" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="84"/>
+      <c r="C75" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="57"/>
-      <c r="C51" s="47" t="s">
+      <c r="D75" s="81"/>
+      <c r="E75" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="47"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="57"/>
-      <c r="C52" s="47" t="s">
+      <c r="D76" s="81"/>
+      <c r="E76" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="46"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="47" t="s">
+      <c r="D77" s="76"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="47"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
-      <c r="C54" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="58"/>
-      <c r="C55" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="45"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="47" t="s">
+      <c r="D78" s="76"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="47"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="47" t="s">
+      <c r="C79" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="D58" s="46"/>
-      <c r="E58" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" s="47"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="57"/>
-      <c r="C59" s="47" t="s">
+      <c r="D79" s="78"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="82"/>
+      <c r="C80" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="78"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="82"/>
+      <c r="C81" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" s="78"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="82"/>
+      <c r="C82" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="78"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="82"/>
+      <c r="C83" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="78"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="82"/>
+      <c r="C84" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="78"/>
+    </row>
+    <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="82"/>
+      <c r="C85" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="79"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="82"/>
+      <c r="C86" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="78"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="82"/>
+      <c r="C87" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="78"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="82"/>
+      <c r="C88" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D88" s="78"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="82"/>
+      <c r="C89" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="78"/>
+    </row>
+    <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="82"/>
+      <c r="C90" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="78"/>
+    </row>
+    <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="82"/>
+      <c r="C91" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="78"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="82"/>
+      <c r="C92" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" s="78"/>
+    </row>
+    <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="47"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="57"/>
-      <c r="C60" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="47"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="57"/>
-      <c r="C61" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="47"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
-      <c r="C62" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="47"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="57"/>
-      <c r="C63" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="79"/>
-      <c r="C73" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="79"/>
-      <c r="C74" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="79"/>
-      <c r="C75" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>301</v>
-      </c>
-      <c r="D77" s="84"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="C78" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="84"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="80" t="s">
+      <c r="C93" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="D93" s="78"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="82"/>
+      <c r="C94" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="D79" s="81"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="80"/>
-      <c r="C80" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="81"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="80"/>
-      <c r="C81" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="D81" s="81"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="80"/>
-      <c r="C82" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="D82" s="81"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="80"/>
-      <c r="C83" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="D83" s="81"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="80"/>
-      <c r="C84" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="81"/>
-    </row>
-    <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="80"/>
-      <c r="C85" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="D85" s="86"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="80"/>
-      <c r="C86" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" s="81"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="80"/>
-      <c r="C87" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="D87" s="81"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="80"/>
-      <c r="C88" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="D88" s="81"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="80"/>
-      <c r="C89" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" s="81"/>
-    </row>
-    <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="80"/>
-      <c r="C90" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="81"/>
-    </row>
-    <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="80"/>
-      <c r="C91" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="D91" s="81"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="80"/>
-      <c r="C92" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="D92" s="81"/>
-    </row>
-    <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="C93" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" s="81"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="80"/>
-      <c r="C94" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" s="81"/>
+      <c r="D94" s="78"/>
     </row>
     <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="D95" s="84"/>
+        <v>288</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" s="76"/>
     </row>
     <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B96" s="83"/>
-      <c r="C96" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>336</v>
+      <c r="C96" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="83"/>
-      <c r="C97" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="D97" s="52" t="s">
-        <v>337</v>
+      <c r="C97" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="83"/>
-      <c r="C98" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="D98" s="52" t="s">
-        <v>338</v>
+      <c r="C98" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="83"/>
-      <c r="C99" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>339</v>
+      <c r="C99" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="51" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="83"/>
-      <c r="C100" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="D100" s="52" t="s">
-        <v>340</v>
+      <c r="C100" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="83"/>
-      <c r="C101" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="D101" s="52" t="s">
-        <v>341</v>
+      <c r="C101" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" s="51" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="D102" s="84"/>
+      <c r="B102" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="D102" s="76"/>
     </row>
     <row r="103" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B103" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="C103" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="D103" s="84"/>
+      <c r="B103" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="76"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="D104" s="84"/>
+      <c r="B104" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" s="76"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="D105" s="84"/>
+      <c r="B105" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C105" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B79:B92"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
@@ -7367,31 +7436,6 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B79:B92"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7460,27 +7504,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881959B-19D3-4678-89E0-7F52164AEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77009D10-9C18-45E6-8E46-73B5B78F9A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="3" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
-    <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" state="hidden" r:id="rId1"/>
+    <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" r:id="rId1"/>
     <sheet name="DIP_Customer Information" sheetId="18" r:id="rId2"/>
     <sheet name="DIP_Project Information" sheetId="30" r:id="rId3"/>
     <sheet name="DIP_Technical Information" sheetId="29" r:id="rId4"/>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
   <si>
     <t>NEW PROJECT</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>ZONE-4</t>
   </si>
   <si>
@@ -275,91 +272,10 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>SUPERVISION ONLY</t>
   </si>
   <si>
     <t>DED CHARGE</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Hungary</t>
   </si>
   <si>
     <t>TURNKEY</t>
@@ -2208,12 +2124,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2235,12 +2163,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2256,6 +2178,63 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2263,70 +2242,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="35" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4201,7 +4117,7 @@
   <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4215,266 +4131,266 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4499,8 +4415,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4516,18 +4432,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4540,11 +4456,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4558,10 +4474,10 @@
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4575,12 +4491,12 @@
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="72"/>
+        <v>141</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="74"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4594,12 +4510,12 @@
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="72"/>
+        <v>142</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="74"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4612,11 +4528,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4630,10 +4546,10 @@
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4644,10 +4560,10 @@
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4658,10 +4574,10 @@
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4672,10 +4588,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+        <v>117</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4689,10 +4605,10 @@
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4706,10 +4622,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4719,11 +4635,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4734,13 +4650,13 @@
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4755,7 +4671,7 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
@@ -4772,7 +4688,7 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6"/>
@@ -4786,7 +4702,7 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
@@ -4800,7 +4716,7 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4817,7 +4733,7 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4834,7 +4750,7 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4851,7 +4767,7 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
@@ -4865,7 +4781,7 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
@@ -4879,10 +4795,10 @@
     </row>
     <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4892,11 +4808,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -4910,10 +4826,10 @@
     </row>
     <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4926,11 +4842,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+      <c r="A27" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4944,10 +4860,10 @@
     </row>
     <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4958,10 +4874,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4972,10 +4888,10 @@
     </row>
     <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4986,10 +4902,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
+        <v>117</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -5003,10 +4919,10 @@
     </row>
     <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5020,10 +4936,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5032,23 +4948,23 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="89" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="61" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+        <v>152</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="16"/>
@@ -5065,7 +4981,7 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5079,7 +4995,7 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5093,7 +5009,7 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5110,7 +5026,7 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5127,7 +5043,7 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5144,7 +5060,7 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5158,10 +5074,10 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5291,17 +5207,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
@@ -5316,6 +5221,17 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5345,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1819EE-D6ED-4D4B-AE5F-26864AB818A8}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A2" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5360,488 +5276,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A1" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D2" s="16"/>
-      <c r="X2" t="s">
-        <v>12</v>
-      </c>
+      <c r="X2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="4"/>
-      <c r="X4" t="s">
-        <v>13</v>
-      </c>
+      <c r="X4"/>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="X5" t="s">
-        <v>14</v>
-      </c>
+      <c r="X5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="X6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="X7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="X8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="X9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="12" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="X10" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="X11" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="X12" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="X13" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="X14" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="X15" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="12" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="X16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="X17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>7</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="X18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="X19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="X20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="X21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="X22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="X23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="X24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="38" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="X25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="X26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="38" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="X27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="38" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="X28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="38" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="39" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="38" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="38" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="38" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="38" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="38" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>1</v>
@@ -5849,33 +5681,33 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="38" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>1</v>
@@ -5883,11 +5715,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>1</v>
@@ -5895,13 +5727,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>1</v>
@@ -5970,11 +5802,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B25 B27:B29" xr:uid="{58031CE2-32D5-4156-932C-D252F13C025A}">
       <formula1>"INTERNAL,THIRD PARTY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D19 D7" xr:uid="{3B9AFCD8-90F0-454A-9190-716908343BF8}">
-      <formula1>$X$1:$X$65</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{59722A48-F9E7-40B7-8329-D6F5ED908645}">
       <formula1>"WWTP,WRP,STP,CLOSING LOOP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D13 D19" xr:uid="{06D1A2E9-8C97-4FB3-894D-097F57C265AA}">
+      <formula1>"Argentina,Australia,Austria,Belgium,Brazil,Brunei,Bulgaria,Cambodia,Canada,China,Croatia,Czech Republic,Denmark,Finland,France,Germany,Greece,Hungary,India,Indonesia,Ireland,Israel,Italy,Japan,Laos,Malaysia,Mexico,Myanmar,Netherlands"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5985,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D0212-0F7E-4B31-B4FD-59C950AC3207}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5998,324 +5830,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="A1" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="33" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="85"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="91"/>
+        <v>179</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="85"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
+        <v>122</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
+        <v>123</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="34" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="34" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
+        <v>124</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="34" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+      <c r="A22" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="91"/>
+        <v>181</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="85"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
+        <v>123</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="59" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="34" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="34" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
+        <v>124</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:C36"/>
@@ -6324,11 +6161,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
@@ -6361,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D4C2C-F209-4F26-B576-A5571F993B41}">
   <dimension ref="B2:K105"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6376,52 +6208,52 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="49"/>
       <c r="C2" s="49" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="77"/>
+        <v>139</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="55"/>
-      <c r="C5" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="C5" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="56"/>
       <c r="C6" s="46" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="46"/>
@@ -6429,10 +6261,10 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
       <c r="C7" s="46" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
@@ -6440,10 +6272,10 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="56"/>
       <c r="C8" s="46" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
@@ -6451,10 +6283,10 @@
     <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="56"/>
       <c r="C9" s="46" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
@@ -6462,37 +6294,37 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="56"/>
       <c r="C10" s="46" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="56"/>
       <c r="C13" s="46" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -6500,10 +6332,10 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="56"/>
       <c r="C14" s="46" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
@@ -6511,10 +6343,10 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="56"/>
       <c r="C15" s="46" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -6522,21 +6354,21 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="56"/>
       <c r="C16" s="46" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F16" s="46"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="56"/>
       <c r="C17" s="46" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
@@ -6544,51 +6376,51 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="56"/>
       <c r="C18" s="46" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="56"/>
       <c r="C19" s="46" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="56"/>
       <c r="C20" s="46" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="56"/>
       <c r="C21" s="46" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F21" s="45"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="56"/>
       <c r="C22" s="47" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -6597,7 +6429,7 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="55"/>
       <c r="C23" s="44" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -6606,32 +6438,32 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="56"/>
       <c r="C24" s="46" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F24" s="45"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="56"/>
       <c r="C25" s="46" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F25" s="45"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="56"/>
       <c r="C26" s="46" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
@@ -6639,10 +6471,10 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="56"/>
       <c r="C27" s="46" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -6650,10 +6482,10 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="56"/>
       <c r="C28" s="46" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -6661,32 +6493,32 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="56"/>
       <c r="C29" s="46" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="56"/>
       <c r="C30" s="46" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F30" s="45"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="56"/>
       <c r="C31" s="46" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
@@ -6694,10 +6526,10 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="56"/>
       <c r="C32" s="46" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
@@ -6705,7 +6537,7 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
       <c r="C33" s="44" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
@@ -6714,43 +6546,43 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="56"/>
       <c r="C34" s="46" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="56"/>
       <c r="C35" s="46" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F35" s="45"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="56"/>
       <c r="C36" s="46" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="56"/>
       <c r="C37" s="46" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
@@ -6758,40 +6590,40 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="56"/>
       <c r="C38" s="46" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="56"/>
       <c r="C39" s="46" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F39" s="45"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="56"/>
       <c r="C40" s="46" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F40" s="45"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="55"/>
       <c r="C41" s="44" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -6800,18 +6632,18 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="56"/>
       <c r="C42" s="46" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="55"/>
       <c r="C43" s="44" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -6820,23 +6652,23 @@
     <row r="44" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="56"/>
       <c r="C44" s="46" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F44" s="45"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="56"/>
       <c r="C45" s="46" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46"/>
@@ -6844,21 +6676,21 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="56"/>
       <c r="C46" s="46" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="56"/>
       <c r="C47" s="46" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
@@ -6866,21 +6698,21 @@
     <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="56"/>
       <c r="C48" s="46" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F48" s="45"/>
     </row>
     <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="56"/>
       <c r="C49" s="46" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
@@ -6888,7 +6720,7 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="55"/>
       <c r="C50" s="44" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
@@ -6897,51 +6729,51 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="56"/>
       <c r="C51" s="46" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="56"/>
       <c r="C52" s="46" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F52" s="45"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="56"/>
       <c r="C53" s="46" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="56"/>
       <c r="C54" s="46" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="57"/>
       <c r="C55" s="44" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -6950,100 +6782,100 @@
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="56"/>
       <c r="C56" s="46" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F56" s="46"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="56"/>
       <c r="C57" s="46" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="56"/>
       <c r="C58" s="46" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="56"/>
       <c r="C59" s="46" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="56"/>
       <c r="C60" s="46" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="56"/>
       <c r="C61" s="46" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="56"/>
       <c r="C62" s="46" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="56"/>
       <c r="C63" s="46" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="42" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
+      <c r="C64" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="58"/>
@@ -7055,19 +6887,19 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="49"/>
       <c r="C69" s="49" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="D71" s="81"/>
+        <v>244</v>
+      </c>
+      <c r="C71" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="91"/>
       <c r="E71" s="54" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
@@ -7077,15 +6909,15 @@
       <c r="K71" s="53"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="D72" s="81"/>
+      <c r="B72" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="91"/>
       <c r="E72" s="53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F72" s="53"/>
       <c r="G72" s="53"/>
@@ -7095,13 +6927,13 @@
       <c r="K72" s="53"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="84"/>
-      <c r="C73" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" s="81"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="91"/>
       <c r="E73" s="53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F73" s="53"/>
       <c r="G73" s="53"/>
@@ -7111,13 +6943,13 @@
       <c r="K73" s="53"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="84"/>
-      <c r="C74" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="D74" s="81"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="91"/>
       <c r="E74" s="53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
@@ -7127,13 +6959,13 @@
       <c r="K74" s="53"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" s="81"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="91"/>
       <c r="E75" s="53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
@@ -7144,14 +6976,14 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="D76" s="81"/>
+        <v>254</v>
+      </c>
+      <c r="C76" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="91"/>
       <c r="E76" s="54" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
@@ -7162,264 +6994,239 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="76"/>
+        <v>255</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="97"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="97"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="94"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="93"/>
+      <c r="C80" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="94"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="93"/>
+      <c r="C81" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="94"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="93"/>
+      <c r="C82" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="94"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="93"/>
+      <c r="C83" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="94"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="93"/>
+      <c r="C84" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="94"/>
+    </row>
+    <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="93"/>
+      <c r="C85" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="99"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="93"/>
+      <c r="C86" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="94"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="93"/>
+      <c r="C87" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="94"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="93"/>
+      <c r="C88" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="94"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="93"/>
+      <c r="C89" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" s="94"/>
+    </row>
+    <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="93"/>
+      <c r="C90" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="94"/>
+    </row>
+    <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="93"/>
+      <c r="C91" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="94"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="93"/>
+      <c r="C92" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="94"/>
+    </row>
+    <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="94"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="93"/>
+      <c r="C94" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="94"/>
+    </row>
+    <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="97"/>
+    </row>
+    <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B96" s="96"/>
+      <c r="C96" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="96"/>
+      <c r="C97" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="96"/>
+      <c r="C98" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="96"/>
+      <c r="C99" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="D78" s="76"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="82" t="s">
+      <c r="D99" s="51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="96"/>
+      <c r="C100" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="D100" s="51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="96"/>
+      <c r="C101" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="78"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="82"/>
-      <c r="C80" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="D80" s="78"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="82"/>
-      <c r="C81" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="D81" s="78"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="82"/>
-      <c r="C82" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" s="78"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="82"/>
-      <c r="C83" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D83" s="78"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="82"/>
-      <c r="C84" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" s="78"/>
-    </row>
-    <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="82"/>
-      <c r="C85" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="D85" s="79"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="82"/>
-      <c r="C86" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="78"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="82"/>
-      <c r="C87" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="D87" s="78"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="82"/>
-      <c r="C88" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D88" s="78"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="82"/>
-      <c r="C89" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="D89" s="78"/>
-    </row>
-    <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="82"/>
-      <c r="C90" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D90" s="78"/>
-    </row>
-    <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="82"/>
-      <c r="C91" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="78"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="82"/>
-      <c r="C92" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="D92" s="78"/>
-    </row>
-    <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D93" s="78"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="82"/>
-      <c r="C94" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D94" s="78"/>
-    </row>
-    <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="D95" s="76"/>
-    </row>
-    <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="83"/>
-      <c r="C96" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="83"/>
-      <c r="C97" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="83"/>
-      <c r="C98" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="83"/>
-      <c r="C99" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="83"/>
-      <c r="C100" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="D100" s="51" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="83"/>
-      <c r="C101" s="50" t="s">
-        <v>314</v>
-      </c>
       <c r="D101" s="51" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" s="76"/>
+        <v>261</v>
+      </c>
+      <c r="C102" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="97"/>
     </row>
     <row r="103" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B103" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="D103" s="76"/>
+        <v>262</v>
+      </c>
+      <c r="C103" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="97"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="C104" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="76"/>
+        <v>263</v>
+      </c>
+      <c r="C104" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="97"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="C105" s="76" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" s="76"/>
+        <v>264</v>
+      </c>
+      <c r="C105" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="D105" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B79:B92"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D95"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
@@ -7436,6 +7243,31 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B79:B92"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7504,27 +7336,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77009D10-9C18-45E6-8E46-73B5B78F9A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E5C40-B3AF-4E6A-8323-5B8CB38C74D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="1" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="4" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
-    <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" r:id="rId1"/>
+    <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" state="hidden" r:id="rId1"/>
     <sheet name="DIP_Customer Information" sheetId="18" r:id="rId2"/>
     <sheet name="DIP_Project Information" sheetId="30" r:id="rId3"/>
     <sheet name="DIP_Technical Information" sheetId="29" r:id="rId4"/>
     <sheet name="DIP_Data Input" sheetId="28" r:id="rId5"/>
-    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId6"/>
-    <sheet name="DATA_OPEX" sheetId="24" r:id="rId7"/>
-    <sheet name="DATA_BOQ" sheetId="25" r:id="rId8"/>
-    <sheet name="DATA_ELI" sheetId="26" r:id="rId9"/>
+    <sheet name="DIP_Data Input (2)" sheetId="31" r:id="rId6"/>
+    <sheet name="DIP_Data Input (3)" sheetId="33" r:id="rId7"/>
+    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId8"/>
+    <sheet name="DATA_OPEX" sheetId="24" r:id="rId9"/>
+    <sheet name="DATA_BOQ" sheetId="25" r:id="rId10"/>
+    <sheet name="DATA_ELI" sheetId="26" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN" localSheetId="0">#REF!</definedName>
@@ -203,7 +205,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId16"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -240,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="315">
   <si>
     <t>NEW PROJECT</t>
   </si>
@@ -360,9 +362,6 @@
   </si>
   <si>
     <t>fh_Competitor Information</t>
-  </si>
-  <si>
-    <t>30 days</t>
   </si>
   <si>
     <t xml:space="preserve">f_Project Name (Project Code) </t>
@@ -670,9 +669,6 @@
     <t>Simalungun, Sumatera Utara, Indonesia (City, Province, Country in DIP_Customer Information)</t>
   </si>
   <si>
-    <t>default: WWTP, but user can change based on Project Type in DIP_Project Information</t>
-  </si>
-  <si>
     <t>WWTP</t>
   </si>
   <si>
@@ -811,357 +807,6 @@
     <t>fh_Work scope</t>
   </si>
   <si>
-    <t>fh_Authority Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Permits - Persetujuan Teknis (PERTEK) </t>
-  </si>
-  <si>
-    <t>fm_Expenses associated with the land acquisition (such as “Izin Pembebasan Lahan”)</t>
-  </si>
-  <si>
-    <t>fm_To obtain license to operate WWTP such as SLF (Sertifikat Laik Fungsi)</t>
-  </si>
-  <si>
-    <t>fm_License for secondary waste, where needed (such as “Upaya Pengelolaan Lingkungan Hidup (UKL) - Upaya Pemantauan Lingkungan Hidup (UPL)”)</t>
-  </si>
-  <si>
-    <t>fm_Others local Authority, where needed (such as “Izin Mendirikan Bangunan (IMB))</t>
-  </si>
-  <si>
-    <t>fh_Civil and Structural Works – WWTP System</t>
-  </si>
-  <si>
-    <t>fm_Land and ground clearance, compaction, and development works</t>
-  </si>
-  <si>
-    <t>fm_Warehouse / Workshop, Site Office, Construction Power Supply, Project Site Location Security</t>
-  </si>
-  <si>
-    <t>fm_Water and electrical during the construction</t>
-  </si>
-  <si>
-    <t>fm_Piling work and RC foundation</t>
-  </si>
-  <si>
-    <t>fm_Loading and unloading all material to laydown area</t>
-  </si>
-  <si>
-    <t>fm_GA drawing, loading information, and installation requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Design and drawing for WWTP concrete tank, pump/blower room, control room, chemical room </t>
-  </si>
-  <si>
-    <t>fm_Foundation for WWTP containerized tank, pump/blower room, control room, chemical room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Maintenance platform and safety handrails for non-RC items </t>
-  </si>
-  <si>
-    <t>fh_Note: RC – reinforced concrete</t>
-  </si>
-  <si>
-    <t>fh_Mechanical and Piping – WWTP System</t>
-  </si>
-  <si>
-    <t>fm_Supply and installation of all mechanical material for WWTP system</t>
-  </si>
-  <si>
-    <t>fm_Design, testing and commissioning of WWTP system</t>
-  </si>
-  <si>
-    <t>fm_Piping and Pipe rack outside battery limit (OSBL)</t>
-  </si>
-  <si>
-    <t>fm_Inlet wastewater transfer piping to WWTP System</t>
-  </si>
-  <si>
-    <t>fm_Piping &amp; final system for effluent WWTP to discharge</t>
-  </si>
-  <si>
-    <t>fm_Piping and Pipe rack inside battery limit (ISBL)</t>
-  </si>
-  <si>
-    <t>fm_Mechanical Installation &amp; Erection Manpower &amp; Labor</t>
-  </si>
-  <si>
-    <t>fm_All General Access (Roads, Sidewalks, Pathways &amp; Entrances)</t>
-  </si>
-  <si>
-    <t>fh_Electrical and Instrumentation</t>
-  </si>
-  <si>
-    <t>fm_Electrical feeder to main power control panel (MCC)</t>
-  </si>
-  <si>
-    <t>fm_Electricity during the installation and commissioning of the system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Purchase, installation, cable laying, testing </t>
-  </si>
-  <si>
-    <t>fm_Lightening protector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Lighting on WWTP system </t>
-  </si>
-  <si>
-    <t>fm_Panel control including their outgoing cables, termination, complete installation, testing &amp; commissioning</t>
-  </si>
-  <si>
-    <t>fm_Instrument supply, installation, calibration, loop check and commissioning</t>
-  </si>
-  <si>
-    <t>fh_Monitoring and Control System</t>
-  </si>
-  <si>
-    <t>fm_Local panel control system</t>
-  </si>
-  <si>
-    <t>fh_Testing and Commissioning</t>
-  </si>
-  <si>
-    <t>fm_Continuous 24-hours performance test of the waste water treatment system AT DESIGN CAPACITY with design influent quality and effluent discharged comply to contract</t>
-  </si>
-  <si>
-    <t>fm_Chemical during commissioning</t>
-  </si>
-  <si>
-    <t>fm_Commissioning spare parts</t>
-  </si>
-  <si>
-    <t>fm_Sufficient water and electricity during the commissioning</t>
-  </si>
-  <si>
-    <t>fm_Analyze the parameters (for WWTP system) as per regulation during the commissioning by the internal laboratory (the contractor)</t>
-  </si>
-  <si>
-    <t>fm_Analyze the parameters (for WWTP system) as per regulation at the end of the commissioning by the external laboratory</t>
-  </si>
-  <si>
-    <t>fh_Others</t>
-  </si>
-  <si>
-    <t>fm_HIRAC for the site installation works</t>
-  </si>
-  <si>
-    <t>fm_Classroom/ Virtual training for WWTP operation</t>
-  </si>
-  <si>
-    <t>fm_Operation manuals and as-built drawings</t>
-  </si>
-  <si>
-    <t>fm_Workmen Compensation</t>
-  </si>
-  <si>
-    <t>fh_Documentation</t>
-  </si>
-  <si>
-    <t>fm_Project schedule</t>
-  </si>
-  <si>
-    <t>fm_Piping &amp; instruments diagram</t>
-  </si>
-  <si>
-    <t>fm_Single-line diagram</t>
-  </si>
-  <si>
-    <t>fm_Major equipment list</t>
-  </si>
-  <si>
-    <t>fm_All equipment list (tagged items)</t>
-  </si>
-  <si>
-    <t>fm_Detail engineering design drawing</t>
-  </si>
-  <si>
-    <t>fm_Material approval document</t>
-  </si>
-  <si>
-    <t>fm_Operations and maintenance manual (O&amp;M)</t>
-  </si>
-  <si>
-    <t>fh_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Terms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_Cost And Freight (CFR) Simalungun, Sumatera Utara, Indonesia </t>
-  </si>
-  <si>
-    <t>fm_Payments</t>
-  </si>
-  <si>
-    <t>ch_-        30% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
-  </si>
-  <si>
-    <t>ch_-        50% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
-  </si>
-  <si>
-    <t>ch_-        15% Balance Payment immediately after commissioning</t>
-  </si>
-  <si>
-    <t>ch_-        5% Balance Payment immediately after retention time or 90 days after commissioning</t>
-  </si>
-  <si>
-    <t>ch_All invoices are due and payable at the specified payment date or fourteen (14) days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller’s confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
-  </si>
-  <si>
-    <t>ch_All items suitably packed for overland transport by trucking</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ch_To be determined </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>after confirmation by PO/SPK and down payment</t>
-    </r>
-  </si>
-  <si>
-    <t>fm_Due Dates</t>
-  </si>
-  <si>
-    <t>fm_Packing</t>
-  </si>
-  <si>
-    <t>fm_Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_System Warranty </t>
-  </si>
-  <si>
-    <t>ch_1.     The system will produce the effluent as refers to the Government’s permit, but the warranty has given with conditions below:</t>
-  </si>
-  <si>
-    <t>fm_Equipment Warranty</t>
-  </si>
-  <si>
-    <t>fm_Termination for Convenience</t>
-  </si>
-  <si>
-    <t>fm_Remarks</t>
-  </si>
-  <si>
-    <t>fm_Exchange Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Validity </t>
-  </si>
-  <si>
-    <t>fm_Taxes</t>
-  </si>
-  <si>
-    <t>ch_- The system operated as the basic design and follows the limit of the inlet flow</t>
-  </si>
-  <si>
-    <t>ch_-  The system operated as its SOP</t>
-  </si>
-  <si>
-    <t>ch_-  The raw water temperature is within the operational value of the basic design</t>
-  </si>
-  <si>
-    <t>ch_-  All equipment/system equipment works properly and is operated properly</t>
-  </si>
-  <si>
-    <t>ch_2.     The warranty is valid if all the system installed by GRINVIRO.</t>
-  </si>
-  <si>
-    <t>ch_3.     The default warranty is valid for 365 calendar days since the system has been commissioned or after the system has reach the parameters quality as standard parameters. If the installed product/equipment/material is defective during fabrication (manufacturing defect)/delivery/installation or during commissioning, GRINVIRO will immediately repair or replace the product/equipment/material.</t>
-  </si>
-  <si>
-    <t>ch_4.     If there is damage to the system which is an operational negligence during the warranty period:</t>
-  </si>
-  <si>
-    <t>ch_-  GRINVIRO will provide support in the form of free repair services</t>
-  </si>
-  <si>
-    <t>ch_-  If there is a replacement of material/equipment parts, it will be entirely the burden of the buyer</t>
-  </si>
-  <si>
-    <t>ch_-  In this case, all accommodation costs (transportation, food and housing costs) are borne by the buyer</t>
-  </si>
-  <si>
-    <t>ch_-  When the warranty period has been over, the buyer will be charged for repairs and or replacement costs for equipment parts/materials (if any)</t>
-  </si>
-  <si>
-    <t>ch_5.     In this case, the buyer is fully aware of the responsibility for the correct operation and according to the SOP and masters the basics of Waste Water Treatment system science for good system operation and maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_6.     GRINVIRO will provide the certificate of warranty  </t>
-  </si>
-  <si>
-    <t>ch_1.     Equipment outside the manufacture of Grinviro will be given a warranty following a supplier warranty. </t>
-  </si>
-  <si>
-    <t>ch_2.     GRINVIRO will provide the certificate of warranty for equipment by principle.</t>
-  </si>
-  <si>
-    <t>ch_In case the Buyer seeks Termination for convenience of this Contract, such termination shall be effective upon Seller’s receipt of Buyer’s written notice of termination and payment of termination charges in accordance with the Termination Schedule. If Buyer terminates this Contract for convenience, title to the Equipment shall remain with the Seller. Seller may suspend performance upon receipt of Buyer’s termination notice, without incurring any liability to</t>
-  </si>
-  <si>
-    <t>ch_Receipt of Termination Notice by Seller</t>
-  </si>
-  <si>
-    <t>ch_1 – 30 days (after DP received)</t>
-  </si>
-  <si>
-    <t>ch_31 – 60 days</t>
-  </si>
-  <si>
-    <t>ch_61 – 90 days</t>
-  </si>
-  <si>
-    <t>ch_91 days – Date of RTS</t>
-  </si>
-  <si>
-    <t>ch_After Date of RTS</t>
-  </si>
-  <si>
-    <t>ch_Total Termination Charges, Percent of Total Contract Price</t>
-  </si>
-  <si>
-    <t>ch_20%</t>
-  </si>
-  <si>
-    <t>ch_40%</t>
-  </si>
-  <si>
-    <t>ch_60%</t>
-  </si>
-  <si>
-    <t>ch_80%</t>
-  </si>
-  <si>
-    <t>ch_100%</t>
-  </si>
-  <si>
-    <t>ch_The technical specifications may vary between equivalent suppliers and/ or technical details</t>
-  </si>
-  <si>
-    <t>ch_This proposal is based on an exchange rate of IDR 16,500 to USD. If the rate exceeds this value, it will impact the project/equipment cost</t>
-  </si>
-  <si>
-    <t>ch_1 month from date of quotation issuance</t>
-  </si>
-  <si>
-    <t>ch_Exclude PPN 11 % and other taxes</t>
-  </si>
-  <si>
-    <t>fh_V. SPLIT OF RESPONSIBILITY</t>
-  </si>
-  <si>
-    <t>fh_VI. TERMS AND CONDITIONS</t>
-  </si>
-  <si>
     <t>f_Max. TDS</t>
   </si>
   <si>
@@ -1223,6 +868,336 @@
   </si>
   <si>
     <t>fu_w/w</t>
+  </si>
+  <si>
+    <t>sub_V. SPLIT OF RESPONSIBILITY</t>
+  </si>
+  <si>
+    <t>ftg_Authority Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_Permits - Persetujuan Teknis (PERTEK) </t>
+  </si>
+  <si>
+    <t>ft_Expenses associated with the land acquisition (such as “Izin Pembebasan Lahan”)</t>
+  </si>
+  <si>
+    <t>ft_To obtain license to operate WWTP such as SLF (Sertifikat Laik Fungsi)</t>
+  </si>
+  <si>
+    <t>ft_License for secondary waste, where needed (such as “Upaya Pengelolaan Lingkungan Hidup (UKL) - Upaya Pemantauan Lingkungan Hidup (UPL)”)</t>
+  </si>
+  <si>
+    <t>ft_Others local Authority, where needed (such as “Izin Mendirikan Bangunan (IMB))</t>
+  </si>
+  <si>
+    <t>ft_Land and ground clearance, compaction, and development works</t>
+  </si>
+  <si>
+    <t>ft_Warehouse / Workshop, Site Office, Construction Power Supply, Project Site Location Security</t>
+  </si>
+  <si>
+    <t>ft_Water and electrical during the construction</t>
+  </si>
+  <si>
+    <t>ft_Piling work and RC foundation</t>
+  </si>
+  <si>
+    <t>ft_Loading and unloading all material to laydown area</t>
+  </si>
+  <si>
+    <t>ft_GA drawing, loading information, and installation requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_Design and drawing for WWTP concrete tank, pump/blower room, control room, chemical room </t>
+  </si>
+  <si>
+    <t>ft_Foundation for WWTP containerized tank, pump/blower room, control room, chemical room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_Maintenance platform and safety handrails for non-RC items </t>
+  </si>
+  <si>
+    <t>ft_Supply and installation of all mechanical material for WWTP system</t>
+  </si>
+  <si>
+    <t>ft_Design, testing and commissioning of WWTP system</t>
+  </si>
+  <si>
+    <t>ft_Piping and Pipe rack outside battery limit (OSBL)</t>
+  </si>
+  <si>
+    <t>ft_Inlet wastewater transfer piping to WWTP System</t>
+  </si>
+  <si>
+    <t>ft_Piping &amp; final system for effluent WWTP to discharge</t>
+  </si>
+  <si>
+    <t>ft_Piping and Pipe rack inside battery limit (ISBL)</t>
+  </si>
+  <si>
+    <t>ft_Mechanical Installation &amp; Erection Manpower &amp; Labor</t>
+  </si>
+  <si>
+    <t>ft_All General Access (Roads, Sidewalks, Pathways &amp; Entrances)</t>
+  </si>
+  <si>
+    <t>ft_Electrical feeder to main power control panel (MCC)</t>
+  </si>
+  <si>
+    <t>ft_Electricity during the installation and commissioning of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_Purchase, installation, cable laying, testing </t>
+  </si>
+  <si>
+    <t>ft_Lightening protector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_Lighting on WWTP system </t>
+  </si>
+  <si>
+    <t>ft_Panel control including their outgoing cables, termination, complete installation, testing &amp; commissioning</t>
+  </si>
+  <si>
+    <t>ft_Instrument supply, installation, calibration, loop check and commissioning</t>
+  </si>
+  <si>
+    <t>ft_Local panel control system</t>
+  </si>
+  <si>
+    <t>ft_Continuous 24-hours performance test of the waste water treatment system AT DESIGN CAPACITY with design influent quality and effluent discharged comply to contract</t>
+  </si>
+  <si>
+    <t>ft_Chemical during commissioning</t>
+  </si>
+  <si>
+    <t>ft_Commissioning spare parts</t>
+  </si>
+  <si>
+    <t>ft_Sufficient water and electricity during the commissioning</t>
+  </si>
+  <si>
+    <t>ft_Analyze the parameters (for WWTP system) as per regulation during the commissioning by the internal laboratory (the contractor)</t>
+  </si>
+  <si>
+    <t>ft_Analyze the parameters (for WWTP system) as per regulation at the end of the commissioning by the external laboratory</t>
+  </si>
+  <si>
+    <t>ft_HIRAC for the site installation works</t>
+  </si>
+  <si>
+    <t>ft_Classroom/ Virtual training for WWTP operation</t>
+  </si>
+  <si>
+    <t>ft_Operation manuals and as-built drawings</t>
+  </si>
+  <si>
+    <t>ft_Workmen Compensation</t>
+  </si>
+  <si>
+    <t>ft_Project schedule</t>
+  </si>
+  <si>
+    <t>ft_Piping &amp; instruments diagram</t>
+  </si>
+  <si>
+    <t>ft_Single-line diagram</t>
+  </si>
+  <si>
+    <t>ft_Major equipment list</t>
+  </si>
+  <si>
+    <t>ft_All equipment list (tagged items)</t>
+  </si>
+  <si>
+    <t>ft_Detail engineering design drawing</t>
+  </si>
+  <si>
+    <t>ft_Material approval document</t>
+  </si>
+  <si>
+    <t>ft_Operations and maintenance manual (O&amp;M)</t>
+  </si>
+  <si>
+    <t>ftg_Civil and Structural Works – WWTP System</t>
+  </si>
+  <si>
+    <t>ftg_Mechanical and Piping – WWTP System</t>
+  </si>
+  <si>
+    <t>ftg_Electrical and Instrumentation</t>
+  </si>
+  <si>
+    <t>ftg_Monitoring and Control System</t>
+  </si>
+  <si>
+    <t>ftg_Testing and Commissioning</t>
+  </si>
+  <si>
+    <t>ftg_Others</t>
+  </si>
+  <si>
+    <t>ftg_Documentation</t>
+  </si>
+  <si>
+    <t>ftn_Note: RC – reinforced concrete</t>
+  </si>
+  <si>
+    <t>ftn_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
+  </si>
+  <si>
+    <t>ftn_default: WWTP, but user can change based on Project Type in DIP_Project Information</t>
+  </si>
+  <si>
+    <t>All items suitably packed for overland transport by trucking</t>
+  </si>
+  <si>
+    <t>To be determined after confirmation by PO/SPK and down payment</t>
+  </si>
+  <si>
+    <t>1.     The system will produce the effluent as refers to the Government’s permit, but the warranty has given with conditions below:</t>
+  </si>
+  <si>
+    <t>- The system operated as the basic design and follows the limit of the inlet flow</t>
+  </si>
+  <si>
+    <t>-  The system operated as its SOP</t>
+  </si>
+  <si>
+    <t>-  The raw water temperature is within the operational value of the basic design</t>
+  </si>
+  <si>
+    <t>-  All equipment/system equipment works properly and is operated properly</t>
+  </si>
+  <si>
+    <t>2.     The warranty is valid if all the system installed by GRINVIRO.</t>
+  </si>
+  <si>
+    <t>3.     The default warranty is valid for 365 calendar days since the system has been commissioned or after the system has reach the parameters quality as standard parameters. If the installed product/equipment/material is defective during fabrication (manufacturing defect)/delivery/installation or during commissioning, GRINVIRO will immediately repair or replace the product/equipment/material.</t>
+  </si>
+  <si>
+    <t>4.     If there is damage to the system which is an operational negligence during the warranty period:</t>
+  </si>
+  <si>
+    <t>-  GRINVIRO will provide support in the form of free repair services</t>
+  </si>
+  <si>
+    <t>-  If there is a replacement of material/equipment parts, it will be entirely the burden of the buyer</t>
+  </si>
+  <si>
+    <t>-  In this case, all accommodation costs (transportation, food and housing costs) are borne by the buyer</t>
+  </si>
+  <si>
+    <t>-  When the warranty period has been over, the buyer will be charged for repairs and or replacement costs for equipment parts/materials (if any)</t>
+  </si>
+  <si>
+    <t>5.     In this case, the buyer is fully aware of the responsibility for the correct operation and according to the SOP and masters the basics of Waste Water Treatment system science for good system operation and maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.     GRINVIRO will provide the certificate of warranty  </t>
+  </si>
+  <si>
+    <t>1.     Equipment outside the manufacture of Grinviro will be given a warranty following a supplier warranty. </t>
+  </si>
+  <si>
+    <t>2.     GRINVIRO will provide the certificate of warranty for equipment by principle.</t>
+  </si>
+  <si>
+    <t>In case the Buyer seeks Termination for convenience of this Contract, such termination shall be effective upon Seller’s receipt of Buyer’s written notice of termination and payment of termination charges in accordance with the Termination Schedule. If Buyer terminates this Contract for convenience, title to the Equipment shall remain with the Seller. Seller may suspend performance upon receipt of Buyer’s termination notice, without incurring any liability to</t>
+  </si>
+  <si>
+    <t>Receipt of Termination Notice by Seller</t>
+  </si>
+  <si>
+    <t>Total Termination Charges, Percent of Total Contract Price</t>
+  </si>
+  <si>
+    <t>1 – 30 days (after DP received)</t>
+  </si>
+  <si>
+    <t>31 – 60 days</t>
+  </si>
+  <si>
+    <t>61 – 90 days</t>
+  </si>
+  <si>
+    <t>91 days – Date of RTS</t>
+  </si>
+  <si>
+    <t>After Date of RTS</t>
+  </si>
+  <si>
+    <t>The technical specifications may vary between equivalent suppliers and/ or technical details</t>
+  </si>
+  <si>
+    <t>This proposal is based on an exchange rate of IDR 16,500 to USD. If the rate exceeds this value, it will impact the project/equipment cost</t>
+  </si>
+  <si>
+    <t>1 month from date of quotation issuance</t>
+  </si>
+  <si>
+    <t>Exclude PPN 11 % and other taxes</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>sub_VI. TERMS AND CONDITIONS</t>
+  </si>
+  <si>
+    <t>Cost And Freight (CFR) $LOCATION$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftb_Terms </t>
+  </si>
+  <si>
+    <t>fts_Payments</t>
+  </si>
+  <si>
+    <t>-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
+  </si>
+  <si>
+    <t>-        $P2$%% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
+  </si>
+  <si>
+    <t>-        $P3$% Balance Payment immediately after commissioning</t>
+  </si>
+  <si>
+    <t>-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
+  </si>
+  <si>
+    <t>ftb_Due Dates</t>
+  </si>
+  <si>
+    <t>All invoices are due and payable at the specified payment date or $DAYS$  days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller’s confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
+  </si>
+  <si>
+    <t>ftb_Packing</t>
+  </si>
+  <si>
+    <t>ftb_Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fts_System Warranty </t>
+  </si>
+  <si>
+    <t>ftb_Equipment Warranty</t>
+  </si>
+  <si>
+    <t>fts_Termination for Convenience</t>
+  </si>
+  <si>
+    <t>ftb_Remarks</t>
+  </si>
+  <si>
+    <t>ftb_exchange Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftb_Validity </t>
+  </si>
+  <si>
+    <t>ftb_Taxes</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1927,6 +1902,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1975,7 +1983,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2092,9 +2100,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2190,12 +2195,6 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2214,8 +2213,26 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2223,26 +2240,38 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4116,7 +4145,7 @@
   </sheetPr>
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -4131,266 +4160,266 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4410,13 +4439,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064A824E-56CC-4807-BE57-7CD799BC0894}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
+      <selection activeCell="B10" sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4432,18 +4518,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="A1" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
+      <c r="A2" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4456,11 +4542,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4476,8 +4562,8 @@
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4491,12 +4577,12 @@
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="74"/>
+        <v>139</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="73"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4510,12 +4596,12 @@
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="73"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4528,11 +4614,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4548,8 +4634,8 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4562,8 +4648,8 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4576,8 +4662,8 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4588,10 +4674,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
+        <v>116</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4607,8 +4693,8 @@
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4624,8 +4710,8 @@
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4635,11 +4721,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4653,10 +4739,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4671,7 +4757,7 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
@@ -4688,7 +4774,7 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="6"/>
@@ -4702,7 +4788,7 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
@@ -4716,7 +4802,7 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4733,7 +4819,7 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4750,7 +4836,7 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4767,7 +4853,7 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
@@ -4781,7 +4867,7 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
@@ -4797,8 +4883,8 @@
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4808,11 +4894,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -4828,8 +4914,8 @@
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4842,11 +4928,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4862,8 +4948,8 @@
       <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4876,8 +4962,8 @@
       <c r="A29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4890,8 +4976,8 @@
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4902,10 +4988,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
+        <v>116</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -4921,8 +5007,8 @@
       <c r="A32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -4938,8 +5024,8 @@
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -4948,23 +5034,23 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="61" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="60" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+        <v>150</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="16"/>
@@ -4981,7 +5067,7 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4995,7 +5081,7 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5009,7 +5095,7 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5026,7 +5112,7 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5043,7 +5129,7 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5060,7 +5146,7 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5076,8 +5162,8 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5261,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1819EE-D6ED-4D4B-AE5F-26864AB818A8}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A5" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5276,16 +5362,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="A1" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>0</v>
@@ -5298,10 +5384,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>38</v>
@@ -5310,11 +5396,11 @@
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="4"/>
@@ -5322,13 +5408,13 @@
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="15"/>
       <c r="X5"/>
@@ -5339,17 +5425,17 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>2</v>
@@ -5357,17 +5443,17 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
@@ -5377,35 +5463,35 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -5415,7 +5501,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>2</v>
@@ -5423,17 +5509,17 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
@@ -5443,35 +5529,35 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -5481,7 +5567,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>2</v>
@@ -5489,19 +5575,19 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>6</v>
@@ -5517,31 +5603,31 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="20"/>
     </row>
@@ -5551,13 +5637,13 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>6</v>
@@ -5573,7 +5659,7 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>11</v>
@@ -5581,23 +5667,23 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>7</v>
@@ -5605,31 +5691,31 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="38" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -5645,11 +5731,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>9</v>
@@ -5657,11 +5743,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>9</v>
@@ -5669,11 +5755,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>1</v>
@@ -5691,11 +5777,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>9</v>
@@ -5703,11 +5789,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>1</v>
@@ -5715,11 +5801,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>1</v>
@@ -5727,13 +5813,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>1</v>
@@ -5817,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D0212-0F7E-4B31-B4FD-59C950AC3207}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5830,320 +5916,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="59" t="s">
-        <v>314</v>
+      <c r="C3" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="33" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="85"/>
+        <v>176</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="82"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="85"/>
+        <v>177</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
+        <v>121</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="84"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
+        <v>122</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="59" t="s">
-        <v>314</v>
+      <c r="C10" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="59" t="s">
-        <v>314</v>
+      <c r="C11" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="59" t="s">
-        <v>314</v>
+      <c r="C12" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="59" t="s">
-        <v>314</v>
+      <c r="C13" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="59" t="s">
-        <v>314</v>
+      <c r="C14" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="59" t="s">
-        <v>314</v>
+      <c r="C15" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="59" t="s">
-        <v>314</v>
+      <c r="C16" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="59" t="s">
-        <v>314</v>
+      <c r="C17" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="34" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="34" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+        <v>123</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="34" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
+      <c r="A22" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="85"/>
+        <v>179</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
+        <v>122</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="B25" s="36"/>
-      <c r="C25" s="59" t="s">
-        <v>314</v>
+      <c r="C25" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="59" t="s">
-        <v>314</v>
+      <c r="C26" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="B27" s="36"/>
-      <c r="C27" s="59" t="s">
-        <v>314</v>
+      <c r="C27" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="59" t="s">
-        <v>314</v>
+      <c r="C28" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="B29" s="36"/>
-      <c r="C29" s="59" t="s">
-        <v>314</v>
+      <c r="C29" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="59" t="s">
-        <v>314</v>
+      <c r="C30" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="B31" s="36"/>
-      <c r="C31" s="59" t="s">
-        <v>314</v>
+      <c r="C31" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="59" t="s">
-        <v>314</v>
+      <c r="C32" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="34" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="34" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
+        <v>123</v>
+      </c>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6163,10 +6249,10 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
       <formula1>"INTERNAL,THIRD PARTY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{A9292191-26A5-480B-B291-A33F2893941D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{A9292191-26A5-480B-B291-A33F2893941D}">
       <formula1>"BY VALUE,BY GRADE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{9F7189EA-DA87-490E-A5F5-47324D4418A5}">
@@ -6191,10 +6277,1053 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D4C2C-F209-4F26-B576-A5571F993B41}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.109375" customWidth="1"/>
+    <col min="2" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="45"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="45"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="45"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="46"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="46"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="45"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="46"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="46"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="46"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="46"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="46"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="46"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="46"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="46"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="45"/>
+      <c r="C62" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03231F2C-8FFB-41F1-8814-A5AC8D2AF03F}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="98.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="102"/>
+      <c r="B5" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="102"/>
+      <c r="B6" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="88"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="88"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="100"/>
+      <c r="B12" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="89"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="89"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
+      <c r="B14" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="100"/>
+      <c r="B15" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="89"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="100"/>
+      <c r="B16" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="89"/>
+    </row>
+    <row r="17" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100"/>
+      <c r="B17" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="92"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="100"/>
+      <c r="B18" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="89"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="100"/>
+      <c r="B19" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="89"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="100"/>
+      <c r="B20" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="89"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="100"/>
+      <c r="B21" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="89"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="100"/>
+      <c r="B22" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="89"/>
+    </row>
+    <row r="23" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="100"/>
+      <c r="B23" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="89"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="101"/>
+      <c r="B24" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="89"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="89"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="89"/>
+    </row>
+    <row r="27" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="88"/>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="91"/>
+      <c r="B28" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="91"/>
+      <c r="B29" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="91"/>
+      <c r="B30" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="91"/>
+      <c r="B31" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="91"/>
+      <c r="B32" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="91"/>
+      <c r="B33" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="88"/>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="88"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="88"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CD6C03-D229-4FF5-A957-B2C9090C939C}">
   <dimension ref="B2:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6206,1034 +7335,1042 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49" t="s">
-        <v>297</v>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="98"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>131</v>
+      <c r="B4" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="46" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="46"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="46" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="46" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
     </row>
     <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="46" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="46" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="90"/>
-      <c r="C11" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="46" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="46" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="46" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="46" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="46"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="46" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="46" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="46" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="46" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="46" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" s="45"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="44" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="46" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="45"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="46" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="45"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="46" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="46" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="46" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="46" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="46" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="45"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="46" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="46" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="55"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="44" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="44"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="46" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="46" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="45"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="46" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="46" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="46" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="46" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="45"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="46" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40" s="45"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="55"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="44" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="46" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="44" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="44"/>
     </row>
     <row r="44" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="56"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>133</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D44" s="47"/>
       <c r="E44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="45"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="56"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="46" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" s="48"/>
+        <v>239</v>
+      </c>
+      <c r="D46" s="47"/>
       <c r="E46" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="46" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
     </row>
     <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="48"/>
+        <v>241</v>
+      </c>
+      <c r="D48" s="47"/>
       <c r="E48" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" s="45"/>
     </row>
     <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="56"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="46" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="55"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="44" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="44"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="56"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="46" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="46" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F52" s="45"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="56"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="46" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="56"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="46" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="44" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="44"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="46" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F56" s="46"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="56"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="46" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="46" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="46" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="46" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="46" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="46" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="56"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="46" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
+      <c r="C64" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49" t="s">
+      <c r="B69" s="48"/>
+      <c r="C69" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="51" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C71" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="91"/>
-      <c r="E72" s="53" t="s">
+      <c r="C71" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="94"/>
+      <c r="E71" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+    </row>
+    <row r="72" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="94"/>
+      <c r="E72" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+    </row>
+    <row r="73" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="102"/>
+      <c r="C73" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="94"/>
+      <c r="E73" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="102"/>
+      <c r="C74" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="94"/>
+      <c r="E74" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="103"/>
+      <c r="C75" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+    </row>
+    <row r="76" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="94"/>
+      <c r="E76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="92"/>
-      <c r="C73" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="92"/>
-      <c r="C74" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="92"/>
-      <c r="C75" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="C76" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" s="97"/>
+      <c r="B77" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="88"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C78" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" s="97"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="93" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="D79" s="94"/>
+      <c r="B78" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="88"/>
+    </row>
+    <row r="79" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="89"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="93"/>
-      <c r="C80" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="D80" s="94"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="89"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="93"/>
-      <c r="C81" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="94"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="89"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="93"/>
-      <c r="C82" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="D82" s="94"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="89"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="93"/>
-      <c r="C83" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="D83" s="94"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="89"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="93"/>
-      <c r="C84" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="D84" s="94"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" s="89"/>
     </row>
     <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="93"/>
-      <c r="C85" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" s="99"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="92"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="93"/>
-      <c r="C86" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="D86" s="94"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="89"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="93"/>
-      <c r="C87" s="95" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="94"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="89"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="93"/>
-      <c r="C88" s="95" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="94"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="89"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="93"/>
-      <c r="C89" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="D89" s="94"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="89"/>
     </row>
     <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="93"/>
-      <c r="C90" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90" s="94"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" s="89"/>
     </row>
     <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="93"/>
-      <c r="C91" s="94" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="94"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="89"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="93"/>
-      <c r="C92" s="94" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="94"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="89"/>
     </row>
     <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="93" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="94" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="94"/>
+      <c r="B93" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="89"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="93"/>
-      <c r="C94" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" s="94"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="89"/>
     </row>
     <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C95" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="97"/>
+      <c r="B95" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="88"/>
     </row>
     <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="96"/>
-      <c r="C96" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="50" t="s">
+      <c r="B96" s="91"/>
+      <c r="C96" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="91"/>
+      <c r="C97" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="91"/>
+      <c r="C98" s="49" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="96"/>
-      <c r="C97" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" s="51" t="s">
+      <c r="D98" s="50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="91"/>
+      <c r="C99" s="49" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="96"/>
-      <c r="C98" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="51" t="s">
+      <c r="D99" s="50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="91"/>
+      <c r="C100" s="49" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="96"/>
-      <c r="C99" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" s="51" t="s">
+      <c r="D100" s="50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="91"/>
+      <c r="C101" s="49" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="96"/>
-      <c r="C100" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="51" t="s">
+      <c r="D101" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="88" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="96"/>
-      <c r="C101" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" s="51" t="s">
+      <c r="D102" s="88"/>
+    </row>
+    <row r="103" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" s="88" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="97" t="s">
+      <c r="D103" s="88"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="97"/>
-    </row>
-    <row r="103" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B103" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="97" t="s">
+      <c r="D104" s="88"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="D103" s="97"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="D104" s="97"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C105" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="D105" s="97"/>
+      <c r="D105" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C69:E69"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
@@ -7243,11 +8380,6 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D95"/>
     <mergeCell ref="B79:B92"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
@@ -7255,14 +8387,15 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C64:F64"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C64:F64"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -7273,7 +8406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1305BB-68D9-4D6E-9874-0A1B1E944B39}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7290,7 +8423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9172C-440A-42C4-9985-52EF90EECB70}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7305,61 +8438,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E5C40-B3AF-4E6A-8323-5B8CB38C74D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB6306-F196-41F5-BE23-AD5847BEAABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="4" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="3" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" state="hidden" r:id="rId1"/>
     <sheet name="DIP_Customer Information" sheetId="18" r:id="rId2"/>
     <sheet name="DIP_Project Information" sheetId="30" r:id="rId3"/>
     <sheet name="DIP_Technical Information" sheetId="29" r:id="rId4"/>
-    <sheet name="DIP_Data Input" sheetId="28" r:id="rId5"/>
-    <sheet name="DIP_Data Input (2)" sheetId="31" r:id="rId6"/>
-    <sheet name="DIP_Data Input (3)" sheetId="33" r:id="rId7"/>
-    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId8"/>
-    <sheet name="DATA_OPEX" sheetId="24" r:id="rId9"/>
-    <sheet name="DATA_BOQ" sheetId="25" r:id="rId10"/>
-    <sheet name="DATA_ELI" sheetId="26" r:id="rId11"/>
+    <sheet name="DIP_Data Input (2)" sheetId="34" r:id="rId5"/>
+    <sheet name="DIP_Data Input" sheetId="33" r:id="rId6"/>
+    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId7"/>
+    <sheet name="DATA_OPEX" sheetId="24" r:id="rId8"/>
+    <sheet name="DATA_BOQ" sheetId="25" r:id="rId9"/>
+    <sheet name="DATA_ELI" sheetId="26" r:id="rId10"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN" localSheetId="0">#REF!</definedName>
@@ -205,7 +204,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId15"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -242,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="355">
   <si>
     <t>NEW PROJECT</t>
   </si>
@@ -254,9 +253,6 @@
   </si>
   <si>
     <t>ZONE-4</t>
-  </si>
-  <si>
-    <t>LEVEL-5</t>
   </si>
   <si>
     <t>NORMAL</t>
@@ -645,9 +641,6 @@
     <t>RICH FOG&amp;TSS</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>ü</t>
   </si>
   <si>
@@ -669,9 +662,6 @@
     <t>Simalungun, Sumatera Utara, Indonesia (City, Province, Country in DIP_Customer Information)</t>
   </si>
   <si>
-    <t>WWTP</t>
-  </si>
-  <si>
     <t>fd_Industry Classification</t>
   </si>
   <si>
@@ -882,9 +872,6 @@
     <t>ft_Expenses associated with the land acquisition (such as “Izin Pembebasan Lahan”)</t>
   </si>
   <si>
-    <t>ft_To obtain license to operate WWTP such as SLF (Sertifikat Laik Fungsi)</t>
-  </si>
-  <si>
     <t>ft_License for secondary waste, where needed (such as “Upaya Pengelolaan Lingkungan Hidup (UKL) - Upaya Pemantauan Lingkungan Hidup (UPL)”)</t>
   </si>
   <si>
@@ -909,30 +896,12 @@
     <t>ft_GA drawing, loading information, and installation requirement</t>
   </si>
   <si>
-    <t xml:space="preserve">ft_Design and drawing for WWTP concrete tank, pump/blower room, control room, chemical room </t>
-  </si>
-  <si>
-    <t>ft_Foundation for WWTP containerized tank, pump/blower room, control room, chemical room</t>
-  </si>
-  <si>
     <t xml:space="preserve">ft_Maintenance platform and safety handrails for non-RC items </t>
   </si>
   <si>
-    <t>ft_Supply and installation of all mechanical material for WWTP system</t>
-  </si>
-  <si>
-    <t>ft_Design, testing and commissioning of WWTP system</t>
-  </si>
-  <si>
     <t>ft_Piping and Pipe rack outside battery limit (OSBL)</t>
   </si>
   <si>
-    <t>ft_Inlet wastewater transfer piping to WWTP System</t>
-  </si>
-  <si>
-    <t>ft_Piping &amp; final system for effluent WWTP to discharge</t>
-  </si>
-  <si>
     <t>ft_Piping and Pipe rack inside battery limit (ISBL)</t>
   </si>
   <si>
@@ -978,18 +947,9 @@
     <t>ft_Sufficient water and electricity during the commissioning</t>
   </si>
   <si>
-    <t>ft_Analyze the parameters (for WWTP system) as per regulation during the commissioning by the internal laboratory (the contractor)</t>
-  </si>
-  <si>
-    <t>ft_Analyze the parameters (for WWTP system) as per regulation at the end of the commissioning by the external laboratory</t>
-  </si>
-  <si>
     <t>ft_HIRAC for the site installation works</t>
   </si>
   <si>
-    <t>ft_Classroom/ Virtual training for WWTP operation</t>
-  </si>
-  <si>
     <t>ft_Operation manuals and as-built drawings</t>
   </si>
   <si>
@@ -1020,12 +980,6 @@
     <t>ft_Operations and maintenance manual (O&amp;M)</t>
   </si>
   <si>
-    <t>ftg_Civil and Structural Works – WWTP System</t>
-  </si>
-  <si>
-    <t>ftg_Mechanical and Piping – WWTP System</t>
-  </si>
-  <si>
     <t>ftg_Electrical and Instrumentation</t>
   </si>
   <si>
@@ -1047,9 +1001,6 @@
     <t>ftn_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
   </si>
   <si>
-    <t>ftn_default: WWTP, but user can change based on Project Type in DIP_Project Information</t>
-  </si>
-  <si>
     <t>All items suitably packed for overland transport by trucking</t>
   </si>
   <si>
@@ -1146,58 +1097,226 @@
     <t>sub_VI. TERMS AND CONDITIONS</t>
   </si>
   <si>
-    <t>Cost And Freight (CFR) $LOCATION$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ftb_Terms </t>
-  </si>
-  <si>
-    <t>fts_Payments</t>
-  </si>
-  <si>
     <t>-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
   </si>
   <si>
-    <t>-        $P2$%% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
-  </si>
-  <si>
     <t>-        $P3$% Balance Payment immediately after commissioning</t>
   </si>
   <si>
     <t>-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
   </si>
   <si>
-    <t>ftb_Due Dates</t>
-  </si>
-  <si>
-    <t>All invoices are due and payable at the specified payment date or $DAYS$  days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller’s confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
-  </si>
-  <si>
-    <t>ftb_Packing</t>
-  </si>
-  <si>
-    <t>ftb_Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fts_System Warranty </t>
-  </si>
-  <si>
-    <t>ftb_Equipment Warranty</t>
-  </si>
-  <si>
-    <t>fts_Termination for Convenience</t>
-  </si>
-  <si>
-    <t>ftb_Remarks</t>
-  </si>
-  <si>
-    <t>ftb_exchange Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ftb_Validity </t>
-  </si>
-  <si>
-    <t>ftb_Taxes</t>
+    <t xml:space="preserve">All invoices are due and payable at the specified payment date or </t>
+  </si>
+  <si>
+    <t>days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
+  </si>
+  <si>
+    <t>Helper:</t>
+  </si>
+  <si>
+    <t>-        $P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms </t>
+  </si>
+  <si>
+    <t>Due Dates</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Equipment Warranty</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>exchange Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validity </t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Warranty </t>
+  </si>
+  <si>
+    <t>Termination for Convenience</t>
+  </si>
+  <si>
+    <t>WRP</t>
+  </si>
+  <si>
+    <t>default: WWTP, but user can change based on Project Type in DIP_Project Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th_Terms </t>
+  </si>
+  <si>
+    <t>tdi_-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
+  </si>
+  <si>
+    <t>tdi_-        $P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
+  </si>
+  <si>
+    <t>tdi_-        $P3$% Balance Payment immediately after commissioning</t>
+  </si>
+  <si>
+    <t>tdi_'-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
+  </si>
+  <si>
+    <t>thr_Payments</t>
+  </si>
+  <si>
+    <t>th_Due Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td_All invoices are due and payable at the specified payment date or </t>
+  </si>
+  <si>
+    <t>th_Packing</t>
+  </si>
+  <si>
+    <t>th_Delivery</t>
+  </si>
+  <si>
+    <t>td_All items suitably packed for overland transport by trucking</t>
+  </si>
+  <si>
+    <t>td_To be determined after confirmation by PO/SPK and down payment</t>
+  </si>
+  <si>
+    <t>td_1.     The system will produce the effluent as refers to the Government’s permit, but the warranty has given with conditions below:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thr_System Warranty </t>
+  </si>
+  <si>
+    <t>td_- The system operated as the basic design and follows the limit of the inlet flow</t>
+  </si>
+  <si>
+    <t>td_-  The system operated as its SOP</t>
+  </si>
+  <si>
+    <t>td_-  The raw water temperature is within the operational value of the basic design</t>
+  </si>
+  <si>
+    <t>td_-  All equipment/system equipment works properly and is operated properly</t>
+  </si>
+  <si>
+    <t>td_2.     The warranty is valid if all the system installed by GRINVIRO.</t>
+  </si>
+  <si>
+    <t>td_3.     The default warranty is valid for 365 calendar days since the system has been commissioned or after the system has reach the parameters quality as standard parameters. If the installed product/equipment/material is defective during fabrication (manufacturing defect)/delivery/installation or during commissioning, GRINVIRO will immediately repair or replace the product/equipment/material.</t>
+  </si>
+  <si>
+    <t>td_4.     If there is damage to the system which is an operational negligence during the warranty period:</t>
+  </si>
+  <si>
+    <t>td_-  GRINVIRO will provide support in the form of free repair services</t>
+  </si>
+  <si>
+    <t>td_-  If there is a replacement of material/equipment parts, it will be entirely the burden of the buyer</t>
+  </si>
+  <si>
+    <t>td_-  In this case, all accommodation costs (transportation, food and housing costs) are borne by the buyer</t>
+  </si>
+  <si>
+    <t>td_-  When the warranty period has been over, the buyer will be charged for repairs and or replacement costs for equipment parts/materials (if any)</t>
+  </si>
+  <si>
+    <t>td_5.     In this case, the buyer is fully aware of the responsibility for the correct operation and according to the SOP and masters the basics of Waste Water Treatment system science for good system operation and maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">td_6.     GRINVIRO will provide the certificate of warranty  </t>
+  </si>
+  <si>
+    <t>td_1.     Equipment outside the manufacture of Grinviro will be given a warranty following a supplier warranty. </t>
+  </si>
+  <si>
+    <t>td_2.     GRINVIRO will provide the certificate of warranty for equipment by principle.</t>
+  </si>
+  <si>
+    <t>thr_Equipment Warranty</t>
+  </si>
+  <si>
+    <t>thr_Termination for Convenience</t>
+  </si>
+  <si>
+    <t>td_In case the Buyer seeks Termination for convenience of this Contract, such termination shall be effective upon Seller’s receipt of Buyer’s written notice of termination and payment of termination charges in accordance with the Termination Schedule. If Buyer terminates this Contract for convenience, title to the Equipment shall remain with the Seller. Seller may suspend performance upon receipt of Buyer’s termination notice, without incurring any liability to</t>
+  </si>
+  <si>
+    <t>td_The technical specifications may vary between equivalent suppliers and/ or technical details</t>
+  </si>
+  <si>
+    <t>th_Remarks</t>
+  </si>
+  <si>
+    <t>th_exchange Rate</t>
+  </si>
+  <si>
+    <t>td_This proposal is based on an exchange rate of IDR 16,500 to USD. If the rate exceeds this value, it will impact the project/equipment cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th_Validity </t>
+  </si>
+  <si>
+    <t>td_1 month from date of quotation issuance</t>
+  </si>
+  <si>
+    <t>th_Taxes</t>
+  </si>
+  <si>
+    <t>td_Exclude PPN 11 % and other taxes</t>
+  </si>
+  <si>
+    <t>tdm_Receipt of Termination Notice by Seller</t>
+  </si>
+  <si>
+    <t>tdm_Total Termination Charges, Percent of Total Contract Price</t>
+  </si>
+  <si>
+    <t>tdm_1 – 30 days (after DP received)</t>
+  </si>
+  <si>
+    <t>tdm_31 – 60 days</t>
+  </si>
+  <si>
+    <t>tdm_61 – 90 days</t>
+  </si>
+  <si>
+    <t>tdm_91 days – Date of RTS</t>
+  </si>
+  <si>
+    <t>tdm_After Date of RTS</t>
+  </si>
+  <si>
+    <t>tdm_20%</t>
+  </si>
+  <si>
+    <t>tdm_40%</t>
+  </si>
+  <si>
+    <t>tdm_60%</t>
+  </si>
+  <si>
+    <t>tdm_80%</t>
+  </si>
+  <si>
+    <t>tdm_100%</t>
+  </si>
+  <si>
+    <t>LEVEL-1</t>
   </si>
 </sst>
 </file>
@@ -1400,13 +1519,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1416,6 +1528,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1632,7 +1750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1902,39 +2020,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1983,7 +2068,7 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2114,15 +2199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2135,10 +2211,46 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2147,27 +2259,6 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2175,102 +2266,87 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="35" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4160,266 +4236,266 @@
   <sheetData>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4440,23 +4516,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
   <dimension ref="B2:B6"/>
   <sheetViews>
@@ -4468,27 +4527,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4502,7 +4561,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:C42"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4519,17 +4578,17 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="A2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4542,11 +4601,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4560,10 +4619,10 @@
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4577,12 +4636,12 @@
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="73"/>
+        <v>136</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="75"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4596,12 +4655,12 @@
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="73"/>
+        <v>137</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="75"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4614,11 +4673,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4632,10 +4691,10 @@
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4646,10 +4705,10 @@
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4660,10 +4719,10 @@
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4674,10 +4733,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+        <v>115</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4691,10 +4750,10 @@
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4708,10 +4767,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4721,11 +4780,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4736,13 +4795,13 @@
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4757,10 +4816,10 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -4774,10 +4833,10 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -4788,10 +4847,10 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4802,10 +4861,10 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -4819,10 +4878,10 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4836,10 +4895,10 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4853,10 +4912,10 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -4867,10 +4926,10 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -4881,10 +4940,10 @@
     </row>
     <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4894,11 +4953,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
+      <c r="A25" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -4912,10 +4971,10 @@
     </row>
     <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4928,11 +4987,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
+      <c r="A27" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4946,10 +5005,10 @@
     </row>
     <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4960,10 +5019,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4974,10 +5033,10 @@
     </row>
     <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4988,10 +5047,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
+        <v>115</v>
+      </c>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -5005,10 +5064,10 @@
     </row>
     <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5022,10 +5081,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5034,26 +5093,26 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="60" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="57" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+        <v>147</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -5067,10 +5126,10 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -5081,10 +5140,10 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -5095,10 +5154,10 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -5112,10 +5171,10 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5129,10 +5188,10 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -5146,10 +5205,10 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -5160,10 +5219,10 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5293,6 +5352,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
@@ -5307,17 +5377,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5347,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1819EE-D6ED-4D4B-AE5F-26864AB818A8}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5362,45 +5421,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="16"/>
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="4"/>
@@ -5408,34 +5467,34 @@
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="15"/>
       <c r="X5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>2</v>
@@ -5443,65 +5502,65 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>2</v>
@@ -5509,65 +5568,65 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>2</v>
@@ -5575,191 +5634,191 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>1</v>
@@ -5767,33 +5826,33 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>1</v>
@@ -5801,11 +5860,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>1</v>
@@ -5813,13 +5872,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>1</v>
@@ -5864,7 +5923,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{FC4642AD-5BCE-4079-8C0A-C8352F93C120}">
       <formula1>"TURNKEY,DBB,BOO,BOT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{8CAC2A28-BA35-4E11-8AA7-6BD3F533C491}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B20 B21 B23" xr:uid="{8CAC2A28-BA35-4E11-8AA7-6BD3F533C491}">
       <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{CD0A02A6-1365-423F-B7A5-D9C17828AE16}">
@@ -5874,13 +5933,13 @@
       <formula1>"ZONE-1,ZONE-2,ZONE-3,ZONE-4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{465A5E9D-97D2-43B1-954B-AA409F596CAD}">
-      <formula1>"LEVEL-4,LEVEL-5,LEVEL-6,LEVEL-7,LEVEL-8"</formula1>
+      <formula1>"LEVEL-1,LEVEL-2,LEVEL-3,LEVEL-4,LEVEL-5,LEVEL-6"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{C8081261-9B16-4DBC-AC0D-D9172317541C}">
       <formula1>"NO CHALLENGE,NORMAL,DIFFICULT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B21 B23 B26" xr:uid="{B54A9DAA-3985-4EB0-B11F-B60CA49B6AD1}">
-      <formula1>"GRADE-A,GRADE-B,GRADE-E"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{B54A9DAA-3985-4EB0-B11F-B60CA49B6AD1}">
+      <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B29" xr:uid="{B15FEE10-11C2-4F68-A603-95731D9C520C}">
       <formula1>"BY VALUE,BY GRADE"</formula1>
@@ -5903,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D0212-0F7E-4B31-B4FD-59C950AC3207}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5916,329 +5975,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="58" t="s">
-        <v>199</v>
+      <c r="C3" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="82"/>
+        <v>173</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="84"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="82"/>
+        <v>174</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="84"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
+        <v>120</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="86"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
+        <v>121</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="58" t="s">
-        <v>199</v>
+      <c r="C10" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="58" t="s">
-        <v>199</v>
+      <c r="C11" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="58" t="s">
-        <v>199</v>
+      <c r="C12" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="58" t="s">
-        <v>199</v>
+      <c r="C13" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="58" t="s">
-        <v>199</v>
+      <c r="C14" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="58" t="s">
-        <v>199</v>
+      <c r="C15" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="58" t="s">
-        <v>199</v>
+      <c r="C16" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="58" t="s">
-        <v>199</v>
+      <c r="C17" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
+        <v>122</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="A22" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="82"/>
+        <v>176</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="84"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
+        <v>121</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="36"/>
-      <c r="C25" s="58" t="s">
-        <v>199</v>
+      <c r="C25" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="58" t="s">
-        <v>199</v>
+      <c r="C26" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" s="36"/>
-      <c r="C27" s="58" t="s">
-        <v>199</v>
+      <c r="C27" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="58" t="s">
-        <v>199</v>
+      <c r="C28" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B29" s="36"/>
-      <c r="C29" s="58" t="s">
-        <v>199</v>
+      <c r="C29" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="58" t="s">
-        <v>199</v>
+      <c r="C30" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B31" s="36"/>
-      <c r="C31" s="58" t="s">
-        <v>199</v>
+      <c r="C31" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="58" t="s">
-        <v>199</v>
+      <c r="C32" s="55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
+        <v>122</v>
+      </c>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
+      <c r="A36" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:C36"/>
@@ -6247,6 +6301,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
@@ -6276,2144 +6335,2067 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D4C2C-F209-4F26-B576-A5571F993B41}">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAC1C9E-F228-4693-A589-4056EE764A51}">
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="66" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.109375" customWidth="1"/>
-    <col min="2" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="2" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>205</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="87"/>
+        <v>301</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>209</v>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="str">
+        <f>"ft_To obtain license to operate " &amp; 'DIP_Project Information'!B3 &amp; " such as SLF (Sertifikat Laik Fungsi)"</f>
+        <v>ft_To obtain license to operate WRP such as SLF (Sertifikat Laik Fungsi)</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="str">
+        <f>"ftg_Civil and Structural Works – " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
+        <v>ftg_Civil and Structural Works – WRP System</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="45"/>
+        <v>211</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="45"/>
+        <v>213</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>217</v>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="str">
+        <f>"ft_Design and drawing for " &amp; 'DIP_Project Information'!B3 &amp; " concrete tank, pump/blower room, control room, chemical room "</f>
+        <v xml:space="preserve">ft_Design and drawing for WRP concrete tank, pump/blower room, control room, chemical room </v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>218</v>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="str">
+        <f>"ft_Foundation for " &amp; 'DIP_Project Information'!B3 &amp; " containerized tank, pump/blower room, control room, chemical room"</f>
+        <v>ft_Foundation for WRP containerized tank, pump/blower room, control room, chemical room</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="45"/>
+      <c r="A20" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="A21" s="44" t="str">
+        <f>"ftg_Mechanical and Piping – "&amp;'DIP_Project Information'!B3&amp; " System"</f>
+        <v>ftg_Mechanical and Piping – WRP System</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="str">
+        <f>"ft_Supply and installation of all mechanical material for " &amp; 'DIP_Project Information'!B3 &amp; " system"</f>
+        <v>ft_Supply and installation of all mechanical material for WRP system</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>221</v>
+      <c r="A23" s="46" t="str">
+        <f>"ft_Design, testing and commissioning of "&amp;'DIP_Project Information'!B3&amp;"  system"</f>
+        <v>ft_Design, testing and commissioning of WRP  system</v>
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="42" t="s">
-        <v>131</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="45"/>
       <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>223</v>
+      <c r="A25" s="46" t="str">
+        <f>"ft_Inlet wastewater transfer piping to " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
+        <v>ft_Inlet wastewater transfer piping to WRP System</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>224</v>
+      <c r="A26" s="46" t="str">
+        <f>"ft_Piping &amp; final system for effluent "&amp;'DIP_Project Information'!B3&amp;" to discharge"</f>
+        <v>ft_Piping &amp; final system for effluent WRP to discharge</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+        <v>216</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B28" s="45"/>
       <c r="C28" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="46"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D28" s="45"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42" t="s">
-        <v>131</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="45"/>
       <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="45"/>
+        <v>129</v>
+      </c>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42" t="s">
-        <v>131</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="45"/>
       <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="45"/>
+        <v>223</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="D36" s="46"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="46"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="45"/>
+      <c r="A39" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="46"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>132</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="45"/>
+        <v>229</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="D44" s="46"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="46"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="45"/>
+        <v>230</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="str">
+        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation during the commissioning by the internal laboratory (the contractor)"</f>
+        <v>ft_Analyze the parameters (for WRP system) as per regulation during the commissioning by the internal laboratory (the contractor)</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="42" t="s">
+        <v>129</v>
+      </c>
       <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="42" t="s">
-        <v>131</v>
-      </c>
+      <c r="A47" s="46" t="str">
+        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation at the end of the commissioning by the external laboratory"</f>
+        <v>ft_Analyze the parameters (for WRP system) as per regulation at the end of the commissioning by the external laboratory</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="45"/>
       <c r="D47" s="45"/>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
-        <v>243</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="str">
+        <f>"ft_Classroom/ Virtual training for " &amp; 'DIP_Project Information'!B3 &amp; " operation"</f>
+        <v>ft_Classroom/ Virtual training for WRP operation</v>
       </c>
       <c r="B50" s="45"/>
       <c r="C50" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D50" s="45"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="45"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" s="46"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="46"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B55" s="45"/>
       <c r="C55" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="46"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B56" s="45"/>
       <c r="C56" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" s="46"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B57" s="45"/>
       <c r="C57" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="46"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="46" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B58" s="45"/>
       <c r="C58" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="46"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="46" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B59" s="45"/>
       <c r="C59" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="46"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="46" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B60" s="45"/>
       <c r="C60" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" s="46"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B61" s="45"/>
       <c r="C61" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="46"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="46" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="100" t="str">
+        <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
+        <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
+      </c>
+      <c r="C68" s="100"/>
+      <c r="D68" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+    </row>
+    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="52" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+    </row>
+    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="101"/>
+      <c r="B70" s="103" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="103"/>
+      <c r="D70" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+    </row>
+    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="101"/>
+      <c r="B71" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="103"/>
+      <c r="D71" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+    </row>
+    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="101"/>
+      <c r="B72" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="103"/>
+      <c r="D72" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="B73" s="98" t="str">
+        <f>J73&amp;K73&amp;L73</f>
+        <v>td_All invoices are due and payable at the specified payment date or fourteen (14) daysdays after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
+      </c>
+      <c r="C73" s="99"/>
+      <c r="D73" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="J73" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="K73" s="64" t="str">
+        <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
+        <v>fourteen (14) days</v>
+      </c>
+      <c r="L73" s="64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="91"/>
+    </row>
+    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="91"/>
+    </row>
+    <row r="76" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="93"/>
+    </row>
+    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="94"/>
+      <c r="B77" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="C77" s="97"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="94"/>
+      <c r="B78" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="97"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="94"/>
+      <c r="B79" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="97"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="94"/>
+      <c r="B80" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="97"/>
+    </row>
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="94"/>
+      <c r="B81" s="93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="93"/>
+    </row>
+    <row r="82" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="94"/>
+      <c r="B82" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="96"/>
+    </row>
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="94"/>
+      <c r="B83" s="93" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="93"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="94"/>
+      <c r="B84" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="97"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="94"/>
+      <c r="B85" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" s="97"/>
+    </row>
+    <row r="86" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="94"/>
+      <c r="B86" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="97"/>
+    </row>
+    <row r="87" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="94"/>
+      <c r="B87" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" s="97"/>
+    </row>
+    <row r="88" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="94"/>
+      <c r="B88" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="93"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="94"/>
+      <c r="B89" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="93"/>
+    </row>
+    <row r="90" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" s="93"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="94"/>
+      <c r="B91" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="93"/>
+    </row>
+    <row r="92" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92" s="91"/>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="95"/>
+      <c r="B93" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="95"/>
+      <c r="B94" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="95"/>
+      <c r="B95" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="95"/>
+      <c r="B96" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="95"/>
+      <c r="B97" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="95"/>
+      <c r="B98" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" s="91"/>
+    </row>
+    <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="92"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C101" s="91"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="33">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03231F2C-8FFB-41F1-8814-A5AC8D2AF03F}">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CD6C03-D229-4FF5-A957-B2C9090C939C}">
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C37"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="98.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="2" max="4" width="40.77734375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="str">
+        <f>"ft_To obtain license to operate " &amp; 'DIP_Project Information'!B3 &amp; " such as SLF (Sertifikat Laik Fungsi)"</f>
+        <v>ft_To obtain license to operate WRP such as SLF (Sertifikat Laik Fungsi)</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="str">
+        <f>"ftg_Civil and Structural Works – " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
+        <v>ftg_Civil and Structural Works – WRP System</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="str">
+        <f>"ft_Design and drawing for " &amp; 'DIP_Project Information'!B3 &amp; " concrete tank, pump/blower room, control room, chemical room "</f>
+        <v xml:space="preserve">ft_Design and drawing for WRP concrete tank, pump/blower room, control room, chemical room </v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="str">
+        <f>"ft_Foundation for " &amp; 'DIP_Project Information'!B3 &amp; " containerized tank, pump/blower room, control room, chemical room"</f>
+        <v>ft_Foundation for WRP containerized tank, pump/blower room, control room, chemical room</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="str">
+        <f>"ftg_Mechanical and Piping – "&amp;'DIP_Project Information'!B3&amp; " System"</f>
+        <v>ftg_Mechanical and Piping – WRP System</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="str">
+        <f>"ft_Supply and installation of all mechanical material for " &amp; 'DIP_Project Information'!B3 &amp; " system"</f>
+        <v>ft_Supply and installation of all mechanical material for WRP system</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="str">
+        <f>"ft_Design, testing and commissioning of "&amp;'DIP_Project Information'!B3&amp;"  system"</f>
+        <v>ft_Design, testing and commissioning of WRP  system</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="str">
+        <f>"ft_Inlet wastewater transfer piping to " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
+        <v>ft_Inlet wastewater transfer piping to WRP System</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="str">
+        <f>"ft_Piping &amp; final system for effluent "&amp;'DIP_Project Information'!B3&amp;" to discharge"</f>
+        <v>ft_Piping &amp; final system for effluent WRP to discharge</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="45"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="45"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="46"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="str">
+        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation during the commissioning by the internal laboratory (the contractor)"</f>
+        <v>ft_Analyze the parameters (for WRP system) as per regulation during the commissioning by the internal laboratory (the contractor)</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="45"/>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="str">
+        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation at the end of the commissioning by the external laboratory"</f>
+        <v>ft_Analyze the parameters (for WRP system) as per regulation at the end of the commissioning by the external laboratory</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="str">
+        <f>"ft_Classroom/ Virtual training for " &amp; 'DIP_Project Information'!B3 &amp; " operation"</f>
+        <v>ft_Classroom/ Virtual training for WRP operation</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="45"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="46"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="46"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="46"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="46"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="46"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="100" t="str">
+        <f>"Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
+        <v xml:space="preserve">Cost And Freight (CFR) , , </v>
+      </c>
+      <c r="C68" s="100"/>
+      <c r="D68" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+    </row>
+    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+    </row>
+    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="101"/>
+      <c r="B70" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="103"/>
+      <c r="D70" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+    </row>
+    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="101"/>
+      <c r="B71" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="103"/>
+      <c r="D71" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+    </row>
+    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="101"/>
+      <c r="B72" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="103"/>
+      <c r="D72" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" s="98" t="str">
+        <f>J73&amp;K73&amp;L73</f>
+        <v>All invoices are due and payable at the specified payment date or fourteen (14) daysdays after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
+      </c>
+      <c r="C73" s="99"/>
+      <c r="D73" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="J73" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="K73" s="64" t="str">
+        <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
+        <v>fourteen (14) days</v>
+      </c>
+      <c r="L73" s="64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="91"/>
+    </row>
+    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="91"/>
+    </row>
+    <row r="76" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="93"/>
+    </row>
+    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="94"/>
+      <c r="B77" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="97"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="94"/>
+      <c r="B78" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="97"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="94"/>
+      <c r="B79" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="97"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="94"/>
+      <c r="B80" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="97"/>
+    </row>
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="94"/>
+      <c r="B81" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="93"/>
+    </row>
+    <row r="82" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="94"/>
+      <c r="B82" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="96"/>
+    </row>
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="94"/>
+      <c r="B83" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="93"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="94"/>
+      <c r="B84" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="97"/>
+    </row>
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="94"/>
+      <c r="B85" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="97"/>
+    </row>
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="94"/>
+      <c r="B86" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="97"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="94"/>
+      <c r="B87" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="97"/>
+    </row>
+    <row r="88" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="94"/>
+      <c r="B88" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="93"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="94"/>
+      <c r="B89" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="93"/>
+    </row>
+    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="93"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="94"/>
+      <c r="B91" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="93"/>
+    </row>
+    <row r="92" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="91"/>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="95"/>
+      <c r="B93" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="95"/>
+      <c r="B94" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="95"/>
+      <c r="B95" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="95"/>
+      <c r="B96" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="95"/>
+      <c r="B97" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="95"/>
+      <c r="B98" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="91"/>
+    </row>
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="91"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="91"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="106" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="106" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="88"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="88"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="89"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="89"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="89"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="C14" s="89"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="89"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="89"/>
-    </row>
-    <row r="17" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="92"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="89"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="89"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="89"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="89"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="93" t="s">
+      <c r="B102" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="89"/>
-    </row>
-    <row r="23" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="89"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="C24" s="89"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="89"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" s="89"/>
-    </row>
-    <row r="27" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
-        <v>310</v>
-      </c>
-      <c r="B27" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="C27" s="88"/>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
-      <c r="B30" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
-      <c r="B31" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="50">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
-      <c r="B33" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C33" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="88"/>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="C35" s="88"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="88"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="88"/>
+      <c r="C102" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="33">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CD6C03-D229-4FF5-A957-B2C9090C939C}">
-  <dimension ref="B2:K105"/>
-  <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="98.109375" customWidth="1"/>
-    <col min="4" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="87"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
-      <c r="C18" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="55"/>
-      <c r="C21" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
-      <c r="C22" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="55"/>
-      <c r="C31" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="55"/>
-      <c r="C32" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="45"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="55"/>
-      <c r="C35" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="55"/>
-      <c r="C36" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="55"/>
-      <c r="C37" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="55"/>
-      <c r="C38" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="55"/>
-      <c r="C40" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="54"/>
-      <c r="C41" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="54"/>
-      <c r="C43" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="55"/>
-      <c r="C44" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="55"/>
-      <c r="C45" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="55"/>
-      <c r="C46" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="55"/>
-      <c r="C47" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="55"/>
-      <c r="C48" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="55"/>
-      <c r="C49" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="54"/>
-      <c r="C50" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="55"/>
-      <c r="C51" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="46"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="55"/>
-      <c r="C52" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="55"/>
-      <c r="C53" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="46"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="55"/>
-      <c r="C54" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="46"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="56"/>
-      <c r="C55" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="46"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="55"/>
-      <c r="C57" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="46"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="55"/>
-      <c r="C58" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="46"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="55"/>
-      <c r="C59" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="46"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="55"/>
-      <c r="C60" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="46"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="55"/>
-      <c r="C61" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="55"/>
-      <c r="C62" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="55"/>
-      <c r="C63" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="45"/>
-      <c r="E63" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="48"/>
-      <c r="C69" s="105" t="s">
-        <v>296</v>
-      </c>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="94"/>
-      <c r="E71" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-    </row>
-    <row r="72" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="C72" s="106" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="94"/>
-      <c r="E72" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-    </row>
-    <row r="73" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="102"/>
-      <c r="C73" s="106" t="s">
-        <v>301</v>
-      </c>
-      <c r="D73" s="94"/>
-      <c r="E73" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="102"/>
-      <c r="C74" s="106" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="103"/>
-      <c r="C75" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="D75" s="94"/>
-      <c r="E75" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-    </row>
-    <row r="76" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="94" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="94"/>
-      <c r="E76" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="D77" s="88"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="C78" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="88"/>
-    </row>
-    <row r="79" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="99" t="s">
-        <v>308</v>
-      </c>
-      <c r="C79" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="89"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="100"/>
-      <c r="C80" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="89"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="100"/>
-      <c r="C81" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="89"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="100"/>
-      <c r="C82" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="89"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="100"/>
-      <c r="C83" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" s="89"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="100"/>
-      <c r="C84" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" s="89"/>
-    </row>
-    <row r="85" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="100"/>
-      <c r="C85" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85" s="92"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="100"/>
-      <c r="C86" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="D86" s="89"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="100"/>
-      <c r="C87" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="89"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="100"/>
-      <c r="C88" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="89"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="100"/>
-      <c r="C89" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="89"/>
-    </row>
-    <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="100"/>
-      <c r="C90" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="D90" s="89"/>
-    </row>
-    <row r="91" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="100"/>
-      <c r="C91" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="89"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="101"/>
-      <c r="C92" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="D92" s="89"/>
-    </row>
-    <row r="93" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="D93" s="89"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="90"/>
-      <c r="C94" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="89"/>
-    </row>
-    <row r="95" spans="2:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="91" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="D95" s="88"/>
-    </row>
-    <row r="96" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="91"/>
-      <c r="C96" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="91"/>
-      <c r="C97" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="91"/>
-      <c r="C98" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" s="50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="91"/>
-      <c r="C99" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="D99" s="50">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="91"/>
-      <c r="C100" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D100" s="50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="91"/>
-      <c r="C101" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="D101" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C102" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="D102" s="88"/>
-    </row>
-    <row r="103" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="C103" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="D103" s="88"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="D104" s="88"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="88"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B79:B92"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1305BB-68D9-4D6E-9874-0A1B1E944B39}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -8423,7 +8405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9172C-440A-42C4-9985-52EF90EECB70}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8438,4 +8420,21 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB6306-F196-41F5-BE23-AD5847BEAABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251FC3F-BC66-493B-9C94-B1E7A199DED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="3" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="3" activeTab="4" xr2:uid="{812734FB-07EB-41F2-BC3F-FD4E85E7589A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIBRARY INDUSTRY CLASSIFICATION" sheetId="27" state="hidden" r:id="rId1"/>
     <sheet name="DIP_Customer Information" sheetId="18" r:id="rId2"/>
     <sheet name="DIP_Project Information" sheetId="30" r:id="rId3"/>
     <sheet name="DIP_Technical Information" sheetId="29" r:id="rId4"/>
-    <sheet name="DIP_Data Input (2)" sheetId="34" r:id="rId5"/>
-    <sheet name="DIP_Data Input" sheetId="33" r:id="rId6"/>
-    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId7"/>
-    <sheet name="DATA_OPEX" sheetId="24" r:id="rId8"/>
-    <sheet name="DATA_BOQ" sheetId="25" r:id="rId9"/>
-    <sheet name="DATA_ELI" sheetId="26" r:id="rId10"/>
+    <sheet name="DIP_Data Input" sheetId="34" r:id="rId5"/>
+    <sheet name="DATA_PROPOSAL" sheetId="23" r:id="rId6"/>
+    <sheet name="DATA_OPEX" sheetId="24" r:id="rId7"/>
+    <sheet name="DATA_BOQ" sheetId="25" r:id="rId8"/>
+    <sheet name="DATA_ELI" sheetId="26" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN" localSheetId="0">#REF!</definedName>
@@ -204,7 +203,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId14"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="311">
   <si>
     <t>NEW PROJECT</t>
   </si>
@@ -653,9 +652,6 @@
     <t>User's option</t>
   </si>
   <si>
-    <t>Default Percentage, but user can change</t>
-  </si>
-  <si>
     <t>default: fourteen (14) days, but user can change based on Invoicing Term in DIP_Project Information</t>
   </si>
   <si>
@@ -1001,159 +997,18 @@
     <t>ftn_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
   </si>
   <si>
-    <t>All items suitably packed for overland transport by trucking</t>
-  </si>
-  <si>
-    <t>To be determined after confirmation by PO/SPK and down payment</t>
-  </si>
-  <si>
-    <t>1.     The system will produce the effluent as refers to the Government’s permit, but the warranty has given with conditions below:</t>
-  </si>
-  <si>
-    <t>- The system operated as the basic design and follows the limit of the inlet flow</t>
-  </si>
-  <si>
-    <t>-  The system operated as its SOP</t>
-  </si>
-  <si>
-    <t>-  The raw water temperature is within the operational value of the basic design</t>
-  </si>
-  <si>
-    <t>-  All equipment/system equipment works properly and is operated properly</t>
-  </si>
-  <si>
-    <t>2.     The warranty is valid if all the system installed by GRINVIRO.</t>
-  </si>
-  <si>
-    <t>3.     The default warranty is valid for 365 calendar days since the system has been commissioned or after the system has reach the parameters quality as standard parameters. If the installed product/equipment/material is defective during fabrication (manufacturing defect)/delivery/installation or during commissioning, GRINVIRO will immediately repair or replace the product/equipment/material.</t>
-  </si>
-  <si>
-    <t>4.     If there is damage to the system which is an operational negligence during the warranty period:</t>
-  </si>
-  <si>
-    <t>-  GRINVIRO will provide support in the form of free repair services</t>
-  </si>
-  <si>
-    <t>-  If there is a replacement of material/equipment parts, it will be entirely the burden of the buyer</t>
-  </si>
-  <si>
-    <t>-  In this case, all accommodation costs (transportation, food and housing costs) are borne by the buyer</t>
-  </si>
-  <si>
-    <t>-  When the warranty period has been over, the buyer will be charged for repairs and or replacement costs for equipment parts/materials (if any)</t>
-  </si>
-  <si>
-    <t>5.     In this case, the buyer is fully aware of the responsibility for the correct operation and according to the SOP and masters the basics of Waste Water Treatment system science for good system operation and maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.     GRINVIRO will provide the certificate of warranty  </t>
-  </si>
-  <si>
-    <t>1.     Equipment outside the manufacture of Grinviro will be given a warranty following a supplier warranty. </t>
-  </si>
-  <si>
-    <t>2.     GRINVIRO will provide the certificate of warranty for equipment by principle.</t>
-  </si>
-  <si>
-    <t>In case the Buyer seeks Termination for convenience of this Contract, such termination shall be effective upon Seller’s receipt of Buyer’s written notice of termination and payment of termination charges in accordance with the Termination Schedule. If Buyer terminates this Contract for convenience, title to the Equipment shall remain with the Seller. Seller may suspend performance upon receipt of Buyer’s termination notice, without incurring any liability to</t>
-  </si>
-  <si>
-    <t>Receipt of Termination Notice by Seller</t>
-  </si>
-  <si>
-    <t>Total Termination Charges, Percent of Total Contract Price</t>
-  </si>
-  <si>
-    <t>1 – 30 days (after DP received)</t>
-  </si>
-  <si>
-    <t>31 – 60 days</t>
-  </si>
-  <si>
-    <t>61 – 90 days</t>
-  </si>
-  <si>
-    <t>91 days – Date of RTS</t>
-  </si>
-  <si>
-    <t>After Date of RTS</t>
-  </si>
-  <si>
-    <t>The technical specifications may vary between equivalent suppliers and/ or technical details</t>
-  </si>
-  <si>
-    <t>This proposal is based on an exchange rate of IDR 16,500 to USD. If the rate exceeds this value, it will impact the project/equipment cost</t>
-  </si>
-  <si>
-    <t>1 month from date of quotation issuance</t>
-  </si>
-  <si>
-    <t>Exclude PPN 11 % and other taxes</t>
-  </si>
-  <si>
     <t>14 days</t>
   </si>
   <si>
     <t>sub_VI. TERMS AND CONDITIONS</t>
   </si>
   <si>
-    <t>-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
-  </si>
-  <si>
-    <t>-        $P3$% Balance Payment immediately after commissioning</t>
-  </si>
-  <si>
-    <t>-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All invoices are due and payable at the specified payment date or </t>
-  </si>
-  <si>
     <t>days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
   </si>
   <si>
     <t>Helper:</t>
   </si>
   <si>
-    <t>-        $P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms </t>
-  </si>
-  <si>
-    <t>Due Dates</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Equipment Warranty</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>exchange Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validity </t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Warranty </t>
-  </si>
-  <si>
-    <t>Termination for Convenience</t>
-  </si>
-  <si>
     <t>WRP</t>
   </si>
   <si>
@@ -1172,9 +1027,6 @@
     <t>tdi_-        $P3$% Balance Payment immediately after commissioning</t>
   </si>
   <si>
-    <t>tdi_'-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
-  </si>
-  <si>
     <t>thr_Payments</t>
   </si>
   <si>
@@ -1317,6 +1169,21 @@
   </si>
   <si>
     <t>LEVEL-1</t>
+  </si>
+  <si>
+    <t>tdi_-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
+  </si>
+  <si>
+    <t>Default Percentage: 30%, but user can change</t>
+  </si>
+  <si>
+    <t>Default Percentage: 50%, but user can change</t>
+  </si>
+  <si>
+    <t>Default Percentage: 15%, but user can change</t>
+  </si>
+  <si>
+    <t>Default Percentage: 5%, but user can change</t>
   </si>
 </sst>
 </file>
@@ -2232,6 +2099,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2241,15 +2129,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,26 +2145,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="19" fillId="35" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2298,56 +2177,44 @@
     <xf numFmtId="9" fontId="19" fillId="35" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -4515,46 +4382,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064A824E-56CC-4807-BE57-7CD799BC0894}">
   <sheetPr codeName="Sheet10"/>
@@ -4577,18 +4404,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4601,11 +4428,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4621,8 +4448,8 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4636,12 +4463,12 @@
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4655,12 +4482,12 @@
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4673,11 +4500,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4693,8 +4520,8 @@
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4707,8 +4534,8 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4721,8 +4548,8 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4735,8 +4562,8 @@
       <c r="A11" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4752,8 +4579,8 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4769,8 +4596,8 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4780,11 +4607,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4798,10 +4625,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -4816,7 +4643,7 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -4833,7 +4660,7 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4847,7 +4674,7 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4861,7 +4688,7 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4878,7 +4705,7 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4895,7 +4722,7 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4912,7 +4739,7 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4926,7 +4753,7 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4942,8 +4769,8 @@
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4953,11 +4780,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -4973,8 +4800,8 @@
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4987,11 +4814,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5007,8 +4834,8 @@
       <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5021,8 +4848,8 @@
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5035,8 +4862,8 @@
       <c r="A30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5049,8 +4876,8 @@
       <c r="A31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -5066,8 +4893,8 @@
       <c r="A32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5083,8 +4910,8 @@
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5098,10 +4925,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
@@ -5109,7 +4936,7 @@
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
@@ -5126,7 +4953,7 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5140,7 +4967,7 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5154,7 +4981,7 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5171,7 +4998,7 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -5188,7 +5015,7 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5205,7 +5032,7 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -5221,8 +5048,8 @@
       <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5352,17 +5179,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
@@ -5377,6 +5193,17 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5430,7 +5257,7 @@
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>0</v>
@@ -5443,10 +5270,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>37</v>
@@ -5467,7 +5294,7 @@
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>11</v>
@@ -5494,7 +5321,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>2</v>
@@ -5532,7 +5359,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>3</v>
@@ -5544,10 +5371,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>60</v>
@@ -5560,7 +5387,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>2</v>
@@ -5598,7 +5425,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>4</v>
@@ -5610,7 +5437,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>5</v>
@@ -5626,7 +5453,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>2</v>
@@ -5634,7 +5461,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>5</v>
@@ -5646,7 +5473,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>5</v>
@@ -5668,7 +5495,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>5</v>
@@ -5680,7 +5507,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>7</v>
@@ -5702,7 +5529,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>5</v>
@@ -5718,7 +5545,7 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>10</v>
@@ -5730,10 +5557,10 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5742,7 +5569,7 @@
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>6</v>
@@ -5774,7 +5601,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -5794,7 +5621,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>8</v>
@@ -5806,7 +5633,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>8</v>
@@ -5818,7 +5645,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>1</v>
@@ -5840,7 +5667,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>8</v>
@@ -5852,7 +5679,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>1</v>
@@ -5864,7 +5691,7 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>1</v>
@@ -5872,13 +5699,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>1</v>
@@ -5888,7 +5715,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <dataValidations count="21">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28" xr:uid="{12F6FA4A-63A5-4CB5-8A8E-9786EFBCAD13}">
       <formula1>"14 days,30 days,45 days"</formula1>
     </dataValidation>
@@ -5923,7 +5750,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{FC4642AD-5BCE-4079-8C0A-C8352F93C120}">
       <formula1>"TURNKEY,DBB,BOO,BOT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B20 B21 B23" xr:uid="{8CAC2A28-BA35-4E11-8AA7-6BD3F533C491}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B20:B21 B23 B26" xr:uid="{8CAC2A28-BA35-4E11-8AA7-6BD3F533C491}">
       <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{CD0A02A6-1365-423F-B7A5-D9C17828AE16}">
@@ -5937,9 +5764,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{C8081261-9B16-4DBC-AC0D-D9172317541C}">
       <formula1>"NO CHALLENGE,NORMAL,DIFFICULT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{B54A9DAA-3985-4EB0-B11F-B60CA49B6AD1}">
-      <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B29" xr:uid="{B15FEE10-11C2-4F68-A603-95731D9C520C}">
       <formula1>"BY VALUE,BY GRADE"</formula1>
@@ -5982,317 +5806,322 @@
       <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="88"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:C36"/>
@@ -6301,11 +6130,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{FA192426-A47F-4375-83D6-14EC0F0BD2BD}">
@@ -6338,8 +6162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAC1C9E-F228-4693-A589-4056EE764A51}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:C102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6351,13 +6175,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>132</v>
@@ -6366,21 +6190,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -6388,7 +6212,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>129</v>
@@ -6398,7 +6222,7 @@
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>129</v>
@@ -6419,7 +6243,7 @@
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>129</v>
@@ -6429,7 +6253,7 @@
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>129</v>
@@ -6448,7 +6272,7 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>129</v>
@@ -6458,7 +6282,7 @@
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>129</v>
@@ -6468,7 +6292,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>129</v>
@@ -6478,7 +6302,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="42" t="s">
@@ -6488,7 +6312,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>129</v>
@@ -6498,7 +6322,7 @@
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="42" t="s">
@@ -6530,7 +6354,7 @@
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="42" t="s">
@@ -6540,7 +6364,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -6579,7 +6403,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>129</v>
@@ -6611,7 +6435,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="42" t="s">
@@ -6621,7 +6445,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="45"/>
       <c r="C28" s="42" t="s">
@@ -6631,7 +6455,7 @@
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>129</v>
@@ -6641,7 +6465,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>129</v>
@@ -6651,7 +6475,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -6659,7 +6483,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="42" t="s">
@@ -6669,7 +6493,7 @@
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42" t="s">
@@ -6679,7 +6503,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="42" t="s">
@@ -6689,7 +6513,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>129</v>
@@ -6699,7 +6523,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="42" t="s">
@@ -6709,7 +6533,7 @@
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="42" t="s">
@@ -6719,7 +6543,7 @@
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="42" t="s">
@@ -6729,7 +6553,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -6737,7 +6561,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="42" t="s">
@@ -6747,7 +6571,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -6755,7 +6579,7 @@
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="42" t="s">
@@ -6767,7 +6591,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="42" t="s">
         <v>129</v>
@@ -6777,7 +6601,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="42" t="s">
@@ -6787,7 +6611,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>129</v>
@@ -6819,7 +6643,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -6827,7 +6651,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B49" s="45"/>
       <c r="C49" s="42" t="s">
@@ -6848,7 +6672,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="42" t="s">
@@ -6858,7 +6682,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="42" t="s">
@@ -6868,7 +6692,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -6876,7 +6700,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B54" s="45"/>
       <c r="C54" s="42" t="s">
@@ -6886,7 +6710,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="45"/>
       <c r="C55" s="42" t="s">
@@ -6896,7 +6720,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="45"/>
       <c r="C56" s="42" t="s">
@@ -6906,7 +6730,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" s="45"/>
       <c r="C57" s="42" t="s">
@@ -6916,7 +6740,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B58" s="45"/>
       <c r="C58" s="42" t="s">
@@ -6926,7 +6750,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B59" s="45"/>
       <c r="C59" s="42" t="s">
@@ -6936,7 +6760,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="45"/>
       <c r="C60" s="42" t="s">
@@ -6946,7 +6770,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="45"/>
       <c r="C61" s="42" t="s">
@@ -6958,7 +6782,7 @@
     </row>
     <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
@@ -6973,22 +6797,22 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="63" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B67" s="63"/>
       <c r="C67" s="63"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68" s="100" t="str">
+        <v>254</v>
+      </c>
+      <c r="B68" s="91" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
       </c>
-      <c r="C68" s="100"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" s="52"/>
       <c r="F68" s="52"/>
@@ -6997,15 +6821,15 @@
       <c r="I68" s="52"/>
     </row>
     <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="93"/>
+      <c r="D69" s="52" t="s">
         <v>307</v>
-      </c>
-      <c r="B69" s="102" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="52" t="s">
-        <v>133</v>
       </c>
       <c r="E69" s="52"/>
       <c r="F69" s="52"/>
@@ -7014,13 +6838,13 @@
       <c r="I69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="101"/>
-      <c r="B70" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" s="103"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="94"/>
       <c r="D70" s="52" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="E70" s="52"/>
       <c r="F70" s="52"/>
@@ -7029,13 +6853,13 @@
       <c r="I70" s="52"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="101"/>
-      <c r="B71" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="103"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="94"/>
       <c r="D71" s="52" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="E71" s="52"/>
       <c r="F71" s="52"/>
@@ -7044,13 +6868,13 @@
       <c r="I71" s="52"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="101"/>
-      <c r="B72" s="103" t="s">
+      <c r="A72" s="92"/>
+      <c r="B72" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="103"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="52" t="s">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="E72" s="52"/>
       <c r="F72" s="52"/>
@@ -7060,275 +6884,280 @@
     </row>
     <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B73" s="98" t="str">
+        <v>259</v>
+      </c>
+      <c r="B73" s="96" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or fourteen (14) daysdays after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
-      <c r="C73" s="99"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" s="52"/>
       <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
       <c r="I73" s="52" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="J73" s="64" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="K73" s="64" t="str">
         <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
         <v>fourteen (14) days</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="91"/>
+        <v>261</v>
+      </c>
+      <c r="B74" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="98"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="B75" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="91"/>
+        <v>262</v>
+      </c>
+      <c r="B75" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="98"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="C76" s="93"/>
+      <c r="A76" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="B76" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="100"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="94"/>
-      <c r="B77" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C77" s="97"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="95"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="94"/>
-      <c r="B78" s="97" t="s">
-        <v>317</v>
-      </c>
-      <c r="C78" s="97"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="95"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94"/>
-      <c r="B79" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="C79" s="97"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="95"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="94"/>
-      <c r="B80" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="97"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="95"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="C81" s="93"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="100"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="94"/>
-      <c r="B82" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="C82" s="96"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="101"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="94"/>
-      <c r="B83" s="93" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="93"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="100"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="97"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="94"/>
-      <c r="B85" s="97" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="97"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="95"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="94"/>
-      <c r="B86" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" s="97"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="95"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="94"/>
-      <c r="B87" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="97"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="95"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="94"/>
-      <c r="B88" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="93"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="100"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="94"/>
-      <c r="B89" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="C89" s="93"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="100"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="B90" s="93" t="s">
-        <v>329</v>
-      </c>
-      <c r="C90" s="93"/>
+      <c r="A90" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="100"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="94"/>
-      <c r="B91" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="C91" s="93"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="100"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C92" s="91"/>
+      <c r="A92" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="98"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="95"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="49" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="95"/>
+      <c r="A94" s="102"/>
       <c r="B94" s="49" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="95"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="49" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="95"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="49" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="95"/>
+      <c r="A97" s="102"/>
       <c r="B97" s="49" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="95"/>
+      <c r="A98" s="102"/>
       <c r="B98" s="49" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="B99" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="C99" s="91"/>
+        <v>286</v>
+      </c>
+      <c r="B99" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" s="98"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="B100" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="C100" s="92"/>
+        <v>287</v>
+      </c>
+      <c r="B100" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="103"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="B101" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="C101" s="91"/>
+        <v>289</v>
+      </c>
+      <c r="B101" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="98"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="91" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" s="91"/>
+        <v>291</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
@@ -7345,1050 +7174,18 @@
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CD6C03-D229-4FF5-A957-B2C9090C939C}">
-  <dimension ref="A1:L102"/>
-  <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="2" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="59"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="str">
-        <f>"ft_To obtain license to operate " &amp; 'DIP_Project Information'!B3 &amp; " such as SLF (Sertifikat Laik Fungsi)"</f>
-        <v>ft_To obtain license to operate WRP such as SLF (Sertifikat Laik Fungsi)</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="str">
-        <f>"ftg_Civil and Structural Works – " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
-        <v>ftg_Civil and Structural Works – WRP System</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="str">
-        <f>"ft_Design and drawing for " &amp; 'DIP_Project Information'!B3 &amp; " concrete tank, pump/blower room, control room, chemical room "</f>
-        <v xml:space="preserve">ft_Design and drawing for WRP concrete tank, pump/blower room, control room, chemical room </v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="str">
-        <f>"ft_Foundation for " &amp; 'DIP_Project Information'!B3 &amp; " containerized tank, pump/blower room, control room, chemical room"</f>
-        <v>ft_Foundation for WRP containerized tank, pump/blower room, control room, chemical room</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="str">
-        <f>"ftg_Mechanical and Piping – "&amp;'DIP_Project Information'!B3&amp; " System"</f>
-        <v>ftg_Mechanical and Piping – WRP System</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="str">
-        <f>"ft_Supply and installation of all mechanical material for " &amp; 'DIP_Project Information'!B3 &amp; " system"</f>
-        <v>ft_Supply and installation of all mechanical material for WRP system</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="45"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="str">
-        <f>"ft_Design, testing and commissioning of "&amp;'DIP_Project Information'!B3&amp;"  system"</f>
-        <v>ft_Design, testing and commissioning of WRP  system</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="str">
-        <f>"ft_Inlet wastewater transfer piping to " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
-        <v>ft_Inlet wastewater transfer piping to WRP System</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="str">
-        <f>"ft_Piping &amp; final system for effluent "&amp;'DIP_Project Information'!B3&amp;" to discharge"</f>
-        <v>ft_Piping &amp; final system for effluent WRP to discharge</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="46"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="45"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="45"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="45"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="46"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="46"/>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="45"/>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="45"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="46"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="46"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-    </row>
-    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="str">
-        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation during the commissioning by the internal laboratory (the contractor)"</f>
-        <v>ft_Analyze the parameters (for WRP system) as per regulation during the commissioning by the internal laboratory (the contractor)</v>
-      </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="45"/>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="str">
-        <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation at the end of the commissioning by the external laboratory"</f>
-        <v>ft_Analyze the parameters (for WRP system) as per regulation at the end of the commissioning by the external laboratory</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="str">
-        <f>"ft_Classroom/ Virtual training for " &amp; 'DIP_Project Information'!B3 &amp; " operation"</f>
-        <v>ft_Classroom/ Virtual training for WRP operation</v>
-      </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="45"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="46"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="46"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="46"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="46"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="46"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="46"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="46"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B68" s="100" t="str">
-        <f>"Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
-        <v xml:space="preserve">Cost And Freight (CFR) , , </v>
-      </c>
-      <c r="C68" s="100"/>
-      <c r="D68" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-    </row>
-    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="B69" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="101"/>
-      <c r="B70" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="103"/>
-      <c r="D70" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-    </row>
-    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="101"/>
-      <c r="B71" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="103"/>
-      <c r="D71" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-    </row>
-    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="101"/>
-      <c r="B72" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="C72" s="103"/>
-      <c r="D72" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-    </row>
-    <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="B73" s="98" t="str">
-        <f>J73&amp;K73&amp;L73</f>
-        <v>All invoices are due and payable at the specified payment date or fourteen (14) daysdays after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
-      </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="J73" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="K73" s="64" t="str">
-        <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
-        <v>fourteen (14) days</v>
-      </c>
-      <c r="L73" s="64" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="B74" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" s="91"/>
-    </row>
-    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B75" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C75" s="91"/>
-    </row>
-    <row r="76" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="94" t="s">
-        <v>298</v>
-      </c>
-      <c r="B76" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" s="93"/>
-    </row>
-    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="94"/>
-      <c r="B77" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="97"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="94"/>
-      <c r="B78" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" s="97"/>
-    </row>
-    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94"/>
-      <c r="B79" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="97"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="94"/>
-      <c r="B80" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="97"/>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="C81" s="93"/>
-    </row>
-    <row r="82" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="94"/>
-      <c r="B82" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="C82" s="96"/>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="94"/>
-      <c r="B83" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="C83" s="93"/>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="97"/>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="94"/>
-      <c r="B85" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" s="97"/>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="94"/>
-      <c r="B86" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C86" s="97"/>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="94"/>
-      <c r="B87" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" s="97"/>
-    </row>
-    <row r="88" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="94"/>
-      <c r="B88" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" s="93"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="94"/>
-      <c r="B89" s="93" t="s">
-        <v>264</v>
-      </c>
-      <c r="C89" s="93"/>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="C90" s="93"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="94"/>
-      <c r="B91" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="93"/>
-    </row>
-    <row r="92" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="C92" s="91"/>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="95"/>
-      <c r="B93" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="C93" s="49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="95"/>
-      <c r="B94" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="C94" s="50">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="95"/>
-      <c r="B95" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" s="50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="95"/>
-      <c r="B96" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="50">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="95"/>
-      <c r="B97" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="95"/>
-      <c r="B98" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="B99" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="C99" s="91"/>
-    </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B100" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100" s="91"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="B101" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" s="91"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="B102" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="C102" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1305BB-68D9-4D6E-9874-0A1B1E944B39}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8405,7 +7202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B9172C-440A-42C4-9985-52EF90EECB70}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8422,7 +7219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE1A81-9577-4E45-8F93-A27BE321C913}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8437,4 +7234,44 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B5FA4-65EE-45F5-B4AD-337850B5CC81}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -1802,7 +1802,11 @@
           <t>f_Company Name</t>
         </is>
       </c>
-      <c r="B4" s="62" t="inlineStr"/>
+      <c r="B4" s="62" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
       <c r="C4" s="55" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -1823,7 +1827,7 @@
       </c>
       <c r="B5" s="59" t="inlineStr">
         <is>
-          <t>Non Food Industry-B</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="C5" s="55" t="n"/>
@@ -1846,7 +1850,7 @@
       </c>
       <c r="B6" s="59" t="inlineStr">
         <is>
-          <t>Tourism &amp; Hospitality</t>
+          <t>Nickel Mining</t>
         </is>
       </c>
       <c r="C6" s="55" t="n"/>
@@ -1886,7 +1890,11 @@
           <t>f_1Country</t>
         </is>
       </c>
-      <c r="B8" s="56" t="n"/>
+      <c r="B8" s="56" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="C8" s="55" t="n"/>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
@@ -1902,7 +1910,11 @@
           <t>f_1Province</t>
         </is>
       </c>
-      <c r="B9" s="56" t="n"/>
+      <c r="B9" s="56" t="inlineStr">
+        <is>
+          <t>Test3</t>
+        </is>
+      </c>
       <c r="C9" s="55" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
@@ -1918,7 +1930,11 @@
           <t xml:space="preserve">f_1City </t>
         </is>
       </c>
-      <c r="B10" s="56" t="n"/>
+      <c r="B10" s="56" t="inlineStr">
+        <is>
+          <t>Test4</t>
+        </is>
+      </c>
       <c r="C10" s="55" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
@@ -1934,7 +1950,11 @@
           <t>f_1Site Address</t>
         </is>
       </c>
-      <c r="B11" s="56" t="n"/>
+      <c r="B11" s="56" t="inlineStr">
+        <is>
+          <t>Test5</t>
+        </is>
+      </c>
       <c r="C11" s="55" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
@@ -1953,7 +1973,11 @@
           <t>f_1Correspondence Address</t>
         </is>
       </c>
-      <c r="B12" s="57" t="n"/>
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>Test6</t>
+        </is>
+      </c>
       <c r="C12" s="55" t="n"/>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
@@ -1972,7 +1996,11 @@
           <t xml:space="preserve">f_1Postal Code </t>
         </is>
       </c>
-      <c r="B13" s="56" t="n"/>
+      <c r="B13" s="56" t="inlineStr">
+        <is>
+          <t>Test7</t>
+        </is>
+      </c>
       <c r="C13" s="55" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
@@ -2033,12 +2061,12 @@
       </c>
       <c r="B16" s="56" t="inlineStr">
         <is>
-          <t>PIC1</t>
+          <t>Test8</t>
         </is>
       </c>
       <c r="C16" s="56" t="inlineStr">
         <is>
-          <t>PIC2</t>
+          <t>Test9</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -2058,8 +2086,16 @@
           <t xml:space="preserve">fm_1Decision Maker </t>
         </is>
       </c>
-      <c r="B17" s="56" t="inlineStr"/>
-      <c r="C17" s="56" t="inlineStr"/>
+      <c r="B17" s="56" t="inlineStr">
+        <is>
+          <t>Test10</t>
+        </is>
+      </c>
+      <c r="C17" s="56" t="inlineStr">
+        <is>
+          <t>Test11</t>
+        </is>
+      </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
@@ -2074,8 +2110,16 @@
           <t>fm_1Influencer</t>
         </is>
       </c>
-      <c r="B18" s="56" t="inlineStr"/>
-      <c r="C18" s="56" t="inlineStr"/>
+      <c r="B18" s="56" t="inlineStr">
+        <is>
+          <t>Test12</t>
+        </is>
+      </c>
+      <c r="C18" s="56" t="inlineStr">
+        <is>
+          <t>Test13</t>
+        </is>
+      </c>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
@@ -2090,8 +2134,16 @@
           <t xml:space="preserve">fm_1#1 Engineering Person </t>
         </is>
       </c>
-      <c r="B19" s="56" t="inlineStr"/>
-      <c r="C19" s="56" t="inlineStr"/>
+      <c r="B19" s="56" t="inlineStr">
+        <is>
+          <t>Test14</t>
+        </is>
+      </c>
+      <c r="C19" s="56" t="inlineStr">
+        <is>
+          <t>Test15</t>
+        </is>
+      </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
       <c r="F19" s="4" t="n"/>
@@ -2109,8 +2161,16 @@
           <t>fm_1#2 Enginering Person</t>
         </is>
       </c>
-      <c r="B20" s="56" t="inlineStr"/>
-      <c r="C20" s="56" t="inlineStr"/>
+      <c r="B20" s="56" t="inlineStr">
+        <is>
+          <t>Test16</t>
+        </is>
+      </c>
+      <c r="C20" s="56" t="inlineStr">
+        <is>
+          <t>Test17</t>
+        </is>
+      </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
       <c r="F20" s="4" t="n"/>
@@ -2128,8 +2188,16 @@
           <t>fm_1#3 Commercial Person</t>
         </is>
       </c>
-      <c r="B21" s="56" t="inlineStr"/>
-      <c r="C21" s="56" t="inlineStr"/>
+      <c r="B21" s="56" t="inlineStr">
+        <is>
+          <t>Test18</t>
+        </is>
+      </c>
+      <c r="C21" s="56" t="inlineStr">
+        <is>
+          <t>Test19</t>
+        </is>
+      </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
       <c r="F21" s="4" t="n"/>
@@ -2147,8 +2215,16 @@
           <t>fm_1#4 Commercial Person</t>
         </is>
       </c>
-      <c r="B22" s="56" t="inlineStr"/>
-      <c r="C22" s="56" t="inlineStr"/>
+      <c r="B22" s="56" t="inlineStr">
+        <is>
+          <t>Test20</t>
+        </is>
+      </c>
+      <c r="C22" s="56" t="inlineStr">
+        <is>
+          <t>Test21</t>
+        </is>
+      </c>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
       <c r="J22" s="1" t="n"/>
@@ -2163,8 +2239,16 @@
           <t>fm_Company Correspondence (Admin)</t>
         </is>
       </c>
-      <c r="B23" s="56" t="inlineStr"/>
-      <c r="C23" s="56" t="inlineStr"/>
+      <c r="B23" s="56" t="inlineStr">
+        <is>
+          <t>Test22</t>
+        </is>
+      </c>
+      <c r="C23" s="56" t="inlineStr">
+        <is>
+          <t>Test23</t>
+        </is>
+      </c>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n"/>
@@ -2179,7 +2263,11 @@
           <t>f_1Company Email</t>
         </is>
       </c>
-      <c r="B24" s="58" t="n"/>
+      <c r="B24" s="58" t="inlineStr">
+        <is>
+          <t>Test24</t>
+        </is>
+      </c>
       <c r="C24" s="55" t="n"/>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
@@ -2214,7 +2302,11 @@
           <t>f_Project Owner</t>
         </is>
       </c>
-      <c r="B26" s="62" t="inlineStr"/>
+      <c r="B26" s="62" t="inlineStr">
+        <is>
+          <t>Test25</t>
+        </is>
+      </c>
       <c r="C26" s="55" t="n"/>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -2252,7 +2344,11 @@
           <t xml:space="preserve">f_2Country </t>
         </is>
       </c>
-      <c r="B28" s="56" t="n"/>
+      <c r="B28" s="56" t="inlineStr">
+        <is>
+          <t>Test26</t>
+        </is>
+      </c>
       <c r="C28" s="55" t="n"/>
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
@@ -2268,7 +2364,11 @@
           <t>f_2Province</t>
         </is>
       </c>
-      <c r="B29" s="56" t="n"/>
+      <c r="B29" s="56" t="inlineStr">
+        <is>
+          <t>Test27</t>
+        </is>
+      </c>
       <c r="C29" s="55" t="n"/>
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
@@ -2284,7 +2384,11 @@
           <t xml:space="preserve">f_2City </t>
         </is>
       </c>
-      <c r="B30" s="56" t="n"/>
+      <c r="B30" s="56" t="inlineStr">
+        <is>
+          <t>Test28</t>
+        </is>
+      </c>
       <c r="C30" s="55" t="n"/>
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
@@ -2300,7 +2404,11 @@
           <t>f_2Site Address</t>
         </is>
       </c>
-      <c r="B31" s="56" t="n"/>
+      <c r="B31" s="56" t="inlineStr">
+        <is>
+          <t>Test29</t>
+        </is>
+      </c>
       <c r="C31" s="55" t="n"/>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -2319,7 +2427,11 @@
           <t>f_2Correspondence Address</t>
         </is>
       </c>
-      <c r="B32" s="57" t="n"/>
+      <c r="B32" s="57" t="inlineStr">
+        <is>
+          <t>Test30</t>
+        </is>
+      </c>
       <c r="C32" s="55" t="n"/>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -2338,7 +2450,11 @@
           <t xml:space="preserve">f_2Postal Code </t>
         </is>
       </c>
-      <c r="B33" s="56" t="n"/>
+      <c r="B33" s="56" t="inlineStr">
+        <is>
+          <t>Test31</t>
+        </is>
+      </c>
       <c r="C33" s="55" t="n"/>
       <c r="H33" s="1" t="n"/>
       <c r="I33" s="1" t="n"/>
@@ -2376,12 +2492,12 @@
       </c>
       <c r="B35" s="56" t="inlineStr">
         <is>
-          <t>PIC3</t>
+          <t>Test32</t>
         </is>
       </c>
       <c r="C35" s="56" t="inlineStr">
         <is>
-          <t>PIC4</t>
+          <t>Test33</t>
         </is>
       </c>
       <c r="D35" s="19" t="n"/>
@@ -2401,8 +2517,16 @@
           <t xml:space="preserve">fm_2Decision Maker </t>
         </is>
       </c>
-      <c r="B36" s="56" t="inlineStr"/>
-      <c r="C36" s="56" t="inlineStr"/>
+      <c r="B36" s="56" t="inlineStr">
+        <is>
+          <t>Test34</t>
+        </is>
+      </c>
+      <c r="C36" s="56" t="inlineStr">
+        <is>
+          <t>Test35</t>
+        </is>
+      </c>
       <c r="H36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
       <c r="J36" s="1" t="n"/>
@@ -2417,8 +2541,16 @@
           <t>fm_2Influencer</t>
         </is>
       </c>
-      <c r="B37" s="56" t="inlineStr"/>
-      <c r="C37" s="56" t="inlineStr"/>
+      <c r="B37" s="56" t="inlineStr">
+        <is>
+          <t>Test36</t>
+        </is>
+      </c>
+      <c r="C37" s="56" t="inlineStr">
+        <is>
+          <t>Test37</t>
+        </is>
+      </c>
       <c r="H37" s="1" t="n"/>
       <c r="I37" s="1" t="n"/>
       <c r="J37" s="1" t="n"/>
@@ -2433,8 +2565,16 @@
           <t xml:space="preserve">fm_2#1 Engineering Person </t>
         </is>
       </c>
-      <c r="B38" s="56" t="inlineStr"/>
-      <c r="C38" s="56" t="inlineStr"/>
+      <c r="B38" s="56" t="inlineStr">
+        <is>
+          <t>Test38</t>
+        </is>
+      </c>
+      <c r="C38" s="56" t="inlineStr">
+        <is>
+          <t>Test39</t>
+        </is>
+      </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
       <c r="F38" s="4" t="n"/>
@@ -2452,8 +2592,16 @@
           <t>fm_2#2 Enginering Person</t>
         </is>
       </c>
-      <c r="B39" s="56" t="inlineStr"/>
-      <c r="C39" s="56" t="inlineStr"/>
+      <c r="B39" s="56" t="inlineStr">
+        <is>
+          <t>Test40</t>
+        </is>
+      </c>
+      <c r="C39" s="56" t="inlineStr">
+        <is>
+          <t>Test41</t>
+        </is>
+      </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
       <c r="F39" s="4" t="n"/>
@@ -2471,8 +2619,16 @@
           <t>fm_2#3 Commercial Person</t>
         </is>
       </c>
-      <c r="B40" s="56" t="inlineStr"/>
-      <c r="C40" s="56" t="inlineStr"/>
+      <c r="B40" s="56" t="inlineStr">
+        <is>
+          <t>Test42</t>
+        </is>
+      </c>
+      <c r="C40" s="56" t="inlineStr">
+        <is>
+          <t>Test43</t>
+        </is>
+      </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
       <c r="F40" s="4" t="n"/>
@@ -2490,8 +2646,16 @@
           <t>fm_2#4 Commercial Person</t>
         </is>
       </c>
-      <c r="B41" s="56" t="inlineStr"/>
-      <c r="C41" s="56" t="inlineStr"/>
+      <c r="B41" s="56" t="inlineStr">
+        <is>
+          <t>Test44</t>
+        </is>
+      </c>
+      <c r="C41" s="56" t="inlineStr">
+        <is>
+          <t>Test45</t>
+        </is>
+      </c>
       <c r="H41" s="1" t="n"/>
       <c r="I41" s="1" t="n"/>
       <c r="J41" s="1" t="n"/>
@@ -2506,7 +2670,11 @@
           <t>f_2Company Email</t>
         </is>
       </c>
-      <c r="B42" s="58" t="n"/>
+      <c r="B42" s="58" t="inlineStr">
+        <is>
+          <t>Test46</t>
+        </is>
+      </c>
       <c r="C42" s="55" t="n"/>
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DIP_Customer Information" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DIP_Project Information" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DIP_Technical Information" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DIP_Data Input" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DATA_PROPOSAL" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DATA_OPEX" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="DATA_BOQ" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="DATA_ELI" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIP_Customer Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIP_Project Information" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIP_Technical Information" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIP_Data Input" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA_PROPOSAL" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA_OPEX" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA_BOQ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA_ELI" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN">#REF!</definedName>
@@ -169,11 +169,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0\ &quot;m2&quot;"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -434,7 +433,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
@@ -472,9 +471,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +499,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
@@ -586,6 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -619,13 +615,10 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -666,9 +659,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,9 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,8 +753,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INITIAL SETTING"/>
       <sheetName val="DATA INPUT"/>
@@ -1389,8 +1380,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DIP_Customer Information"/>
       <sheetName val="DIP_Project Information"/>
@@ -1735,7 +1726,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -1745,30 +1736,30 @@
     <col width="68.21875" customWidth="1" style="1" min="3" max="3"/>
     <col width="19.44140625" customWidth="1" style="1" min="4" max="6"/>
     <col width="27.77734375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="8.44140625" customWidth="1" style="1" min="15" max="40"/>
-    <col width="8.44140625" customWidth="1" style="1" min="41" max="16384"/>
+    <col width="8.44140625" customWidth="1" style="1" min="15" max="55"/>
+    <col width="8.44140625" customWidth="1" style="1" min="56" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1">
-      <c r="A1" s="60" t="inlineStr">
+      <c r="A1" s="59" t="inlineStr">
         <is>
           <t>sub_CUSTOMER INFORMATION</t>
         </is>
       </c>
-      <c r="B1" s="61" t="n"/>
-      <c r="C1" s="61" t="n"/>
+      <c r="B1" s="60" t="n"/>
+      <c r="C1" s="60" t="n"/>
     </row>
     <row r="2" ht="13.2" customHeight="1">
-      <c r="A2" s="53" t="inlineStr">
+      <c r="A2" s="52" t="inlineStr">
         <is>
           <t>fh_END USER INFORMATION</t>
         </is>
       </c>
-      <c r="B2" s="54" t="n"/>
-      <c r="C2" s="55" t="n"/>
-      <c r="D2" s="18" t="n"/>
-      <c r="E2" s="18" t="n"/>
-      <c r="F2" s="18" t="n"/>
+      <c r="B2" s="53" t="n"/>
+      <c r="C2" s="82" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
@@ -1778,16 +1769,16 @@
       <c r="N2" s="1" t="n"/>
     </row>
     <row r="3" ht="13.2" customHeight="1">
-      <c r="A3" s="53" t="inlineStr">
+      <c r="A3" s="52" t="inlineStr">
         <is>
           <t>fh_Company Information</t>
         </is>
       </c>
-      <c r="B3" s="54" t="n"/>
-      <c r="C3" s="55" t="n"/>
-      <c r="D3" s="18" t="n"/>
-      <c r="E3" s="18" t="n"/>
-      <c r="F3" s="18" t="n"/>
+      <c r="B3" s="53" t="n"/>
+      <c r="C3" s="82" t="n"/>
+      <c r="D3" s="17" t="n"/>
+      <c r="E3" s="17" t="n"/>
+      <c r="F3" s="17" t="n"/>
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n"/>
@@ -1802,12 +1793,12 @@
           <t>f_Company Name</t>
         </is>
       </c>
-      <c r="B4" s="62" t="inlineStr">
-        <is>
-          <t>Test1</t>
-        </is>
-      </c>
-      <c r="C4" s="55" t="n"/>
+      <c r="B4" s="81" t="inlineStr">
+        <is>
+          <t>PT TCompany</t>
+        </is>
+      </c>
+      <c r="C4" s="82" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
@@ -1825,12 +1816,12 @@
           <t>fd_Industry Classification</t>
         </is>
       </c>
-      <c r="B5" s="59" t="inlineStr">
+      <c r="B5" s="58" t="inlineStr">
         <is>
           <t>Mining</t>
         </is>
       </c>
-      <c r="C5" s="55" t="n"/>
+      <c r="C5" s="82" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
@@ -1848,12 +1839,12 @@
           <t>fd_Sub Industry Specification</t>
         </is>
       </c>
-      <c r="B6" s="59" t="inlineStr">
-        <is>
-          <t>Nickel Mining</t>
-        </is>
-      </c>
-      <c r="C6" s="55" t="n"/>
+      <c r="B6" s="58" t="inlineStr">
+        <is>
+          <t>Bauxite Mining</t>
+        </is>
+      </c>
+      <c r="C6" s="82" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
@@ -1866,13 +1857,13 @@
       <c r="N6" s="1" t="n"/>
     </row>
     <row r="7" ht="13.2" customHeight="1">
-      <c r="A7" s="63" t="inlineStr">
+      <c r="A7" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Location </t>
         </is>
       </c>
-      <c r="B7" s="54" t="n"/>
-      <c r="C7" s="55" t="n"/>
+      <c r="B7" s="53" t="n"/>
+      <c r="C7" s="82" t="n"/>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="4" t="n"/>
@@ -1887,15 +1878,15 @@
     <row r="8" ht="13.2" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>f_1Country</t>
-        </is>
-      </c>
-      <c r="B8" s="56" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="C8" s="55" t="n"/>
+          <t>f_Country</t>
+        </is>
+      </c>
+      <c r="B8" s="55" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C8" s="82" t="n"/>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
@@ -1907,15 +1898,15 @@
     <row r="9" ht="13.2" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>f_1Province</t>
-        </is>
-      </c>
-      <c r="B9" s="56" t="inlineStr">
-        <is>
-          <t>Test3</t>
-        </is>
-      </c>
-      <c r="C9" s="55" t="n"/>
+          <t>f_Province</t>
+        </is>
+      </c>
+      <c r="B9" s="55" t="inlineStr">
+        <is>
+          <t>Jawa Timur</t>
+        </is>
+      </c>
+      <c r="C9" s="82" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
@@ -1927,15 +1918,15 @@
     <row r="10" ht="13.2" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">f_1City </t>
-        </is>
-      </c>
-      <c r="B10" s="56" t="inlineStr">
-        <is>
-          <t>Test4</t>
-        </is>
-      </c>
-      <c r="C10" s="55" t="n"/>
+          <t xml:space="preserve">f_City </t>
+        </is>
+      </c>
+      <c r="B10" s="55" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="C10" s="82" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
       <c r="J10" s="1" t="n"/>
@@ -1945,17 +1936,17 @@
       <c r="N10" s="1" t="n"/>
     </row>
     <row r="11" ht="13.2" customHeight="1">
-      <c r="A11" s="56" t="inlineStr">
-        <is>
-          <t>f_1Site Address</t>
-        </is>
-      </c>
-      <c r="B11" s="56" t="inlineStr">
-        <is>
-          <t>Test5</t>
-        </is>
-      </c>
-      <c r="C11" s="55" t="n"/>
+      <c r="A11" s="55" t="inlineStr">
+        <is>
+          <t>f_Site Address</t>
+        </is>
+      </c>
+      <c r="B11" s="55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="82" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
       <c r="F11" s="4" t="n"/>
@@ -1968,17 +1959,17 @@
       <c r="N11" s="1" t="n"/>
     </row>
     <row r="12" ht="13.2" customHeight="1">
-      <c r="A12" s="56" t="inlineStr">
-        <is>
-          <t>f_1Correspondence Address</t>
-        </is>
-      </c>
-      <c r="B12" s="57" t="inlineStr">
-        <is>
-          <t>Test6</t>
-        </is>
-      </c>
-      <c r="C12" s="55" t="n"/>
+      <c r="A12" s="55" t="inlineStr">
+        <is>
+          <t>f_Correspondence Address</t>
+        </is>
+      </c>
+      <c r="B12" s="56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" s="82" t="n"/>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
       <c r="F12" s="4" t="n"/>
@@ -1993,15 +1984,15 @@
     <row r="13" ht="13.2" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">f_1Postal Code </t>
-        </is>
-      </c>
-      <c r="B13" s="56" t="inlineStr">
-        <is>
-          <t>Test7</t>
-        </is>
-      </c>
-      <c r="C13" s="55" t="n"/>
+          <t xml:space="preserve">f_Postal Code </t>
+        </is>
+      </c>
+      <c r="B13" s="55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" s="82" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
@@ -2011,13 +2002,13 @@
       <c r="N13" s="1" t="n"/>
     </row>
     <row r="14" ht="13.2" customHeight="1">
-      <c r="A14" s="53" t="inlineStr">
+      <c r="A14" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Contact Person </t>
         </is>
       </c>
-      <c r="B14" s="54" t="n"/>
-      <c r="C14" s="55" t="n"/>
+      <c r="B14" s="53" t="n"/>
+      <c r="C14" s="82" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
@@ -2027,24 +2018,24 @@
       <c r="N14" s="1" t="n"/>
     </row>
     <row r="15" ht="13.2" customHeight="1">
-      <c r="A15" s="53" t="inlineStr">
+      <c r="A15" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Contact </t>
         </is>
       </c>
-      <c r="B15" s="53" t="inlineStr">
+      <c r="B15" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">ch_Name </t>
         </is>
       </c>
-      <c r="C15" s="53" t="inlineStr">
+      <c r="C15" s="52" t="inlineStr">
         <is>
           <t>ch_Phone No/Email</t>
         </is>
       </c>
-      <c r="D15" s="19" t="n"/>
-      <c r="E15" s="19" t="n"/>
-      <c r="F15" s="19" t="n"/>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="18" t="n"/>
+      <c r="F15" s="18" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
@@ -2056,22 +2047,20 @@
     <row r="16" ht="13.2" customHeight="1">
       <c r="A16" s="12" t="inlineStr">
         <is>
-          <t>fm_1PIC</t>
-        </is>
-      </c>
-      <c r="B16" s="56" t="inlineStr">
-        <is>
-          <t>Test8</t>
-        </is>
-      </c>
-      <c r="C16" s="56" t="inlineStr">
-        <is>
-          <t>Test9</t>
-        </is>
-      </c>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="19" t="n"/>
-      <c r="F16" s="19" t="n"/>
+          <t>fm_PIC</t>
+        </is>
+      </c>
+      <c r="B16" s="55" t="inlineStr">
+        <is>
+          <t>Taufik</t>
+        </is>
+      </c>
+      <c r="C16" s="55" t="n">
+        <v>62812345678</v>
+      </c>
+      <c r="D16" s="18" t="n"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="18" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
@@ -2083,15 +2072,15 @@
     <row r="17" ht="13.2" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">fm_1Decision Maker </t>
-        </is>
-      </c>
-      <c r="B17" s="56" t="inlineStr">
+          <t xml:space="preserve">fm_Decision Maker </t>
+        </is>
+      </c>
+      <c r="B17" s="55" t="inlineStr">
         <is>
           <t>Test10</t>
         </is>
       </c>
-      <c r="C17" s="56" t="inlineStr">
+      <c r="C17" s="55" t="inlineStr">
         <is>
           <t>Test11</t>
         </is>
@@ -2107,15 +2096,15 @@
     <row r="18" ht="13.2" customHeight="1">
       <c r="A18" s="12" t="inlineStr">
         <is>
-          <t>fm_1Influencer</t>
-        </is>
-      </c>
-      <c r="B18" s="56" t="inlineStr">
+          <t>fm_Influencer</t>
+        </is>
+      </c>
+      <c r="B18" s="55" t="inlineStr">
         <is>
           <t>Test12</t>
         </is>
       </c>
-      <c r="C18" s="56" t="inlineStr">
+      <c r="C18" s="55" t="inlineStr">
         <is>
           <t>Test13</t>
         </is>
@@ -2131,15 +2120,15 @@
     <row r="19" ht="13.2" customHeight="1">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">fm_1#1 Engineering Person </t>
-        </is>
-      </c>
-      <c r="B19" s="56" t="inlineStr">
+          <t xml:space="preserve">fm_#1 Engineering Person </t>
+        </is>
+      </c>
+      <c r="B19" s="55" t="inlineStr">
         <is>
           <t>Test14</t>
         </is>
       </c>
-      <c r="C19" s="56" t="inlineStr">
+      <c r="C19" s="55" t="inlineStr">
         <is>
           <t>Test15</t>
         </is>
@@ -2158,15 +2147,15 @@
     <row r="20" ht="13.2" customHeight="1">
       <c r="A20" s="12" t="inlineStr">
         <is>
-          <t>fm_1#2 Enginering Person</t>
-        </is>
-      </c>
-      <c r="B20" s="56" t="inlineStr">
+          <t>fm_#2 Enginering Person</t>
+        </is>
+      </c>
+      <c r="B20" s="55" t="inlineStr">
         <is>
           <t>Test16</t>
         </is>
       </c>
-      <c r="C20" s="56" t="inlineStr">
+      <c r="C20" s="55" t="inlineStr">
         <is>
           <t>Test17</t>
         </is>
@@ -2185,15 +2174,15 @@
     <row r="21" ht="13.2" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>fm_1#3 Commercial Person</t>
-        </is>
-      </c>
-      <c r="B21" s="56" t="inlineStr">
+          <t>fm_#3 Commercial Person</t>
+        </is>
+      </c>
+      <c r="B21" s="55" t="inlineStr">
         <is>
           <t>Test18</t>
         </is>
       </c>
-      <c r="C21" s="56" t="inlineStr">
+      <c r="C21" s="55" t="inlineStr">
         <is>
           <t>Test19</t>
         </is>
@@ -2212,15 +2201,15 @@
     <row r="22" ht="13.2" customHeight="1">
       <c r="A22" s="12" t="inlineStr">
         <is>
-          <t>fm_1#4 Commercial Person</t>
-        </is>
-      </c>
-      <c r="B22" s="56" t="inlineStr">
+          <t>fm_#4 Commercial Person</t>
+        </is>
+      </c>
+      <c r="B22" s="55" t="inlineStr">
         <is>
           <t>Test20</t>
         </is>
       </c>
-      <c r="C22" s="56" t="inlineStr">
+      <c r="C22" s="55" t="inlineStr">
         <is>
           <t>Test21</t>
         </is>
@@ -2239,12 +2228,12 @@
           <t>fm_Company Correspondence (Admin)</t>
         </is>
       </c>
-      <c r="B23" s="56" t="inlineStr">
+      <c r="B23" s="55" t="inlineStr">
         <is>
           <t>Test22</t>
         </is>
       </c>
-      <c r="C23" s="56" t="inlineStr">
+      <c r="C23" s="55" t="inlineStr">
         <is>
           <t>Test23</t>
         </is>
@@ -2260,15 +2249,15 @@
     <row r="24" ht="13.2" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>f_1Company Email</t>
-        </is>
-      </c>
-      <c r="B24" s="58" t="inlineStr">
-        <is>
-          <t>Test24</t>
-        </is>
-      </c>
-      <c r="C24" s="55" t="n"/>
+          <t>f_Company Email</t>
+        </is>
+      </c>
+      <c r="B24" s="57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C24" s="82" t="n"/>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
@@ -2278,16 +2267,16 @@
       <c r="N24" s="1" t="n"/>
     </row>
     <row r="25" ht="13.2" customHeight="1">
-      <c r="A25" s="53" t="inlineStr">
+      <c r="A25" s="52" t="inlineStr">
         <is>
           <t>fh_MAIN CONTRACTOR INFORMATION</t>
         </is>
       </c>
-      <c r="B25" s="54" t="n"/>
-      <c r="C25" s="55" t="n"/>
-      <c r="D25" s="18" t="n"/>
-      <c r="E25" s="18" t="n"/>
-      <c r="F25" s="18" t="n"/>
+      <c r="B25" s="53" t="n"/>
+      <c r="C25" s="82" t="n"/>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="17" t="n"/>
+      <c r="F25" s="17" t="n"/>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
       <c r="J25" s="1" t="n"/>
@@ -2302,12 +2291,12 @@
           <t>f_Project Owner</t>
         </is>
       </c>
-      <c r="B26" s="62" t="inlineStr">
-        <is>
-          <t>Test25</t>
-        </is>
-      </c>
-      <c r="C26" s="55" t="n"/>
+      <c r="B26" s="81" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C26" s="82" t="n"/>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
       <c r="F26" s="4" t="n"/>
@@ -2320,13 +2309,13 @@
       <c r="N26" s="1" t="n"/>
     </row>
     <row r="27" ht="13.2" customHeight="1">
-      <c r="A27" s="53" t="inlineStr">
+      <c r="A27" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Location </t>
         </is>
       </c>
-      <c r="B27" s="54" t="n"/>
-      <c r="C27" s="55" t="n"/>
+      <c r="B27" s="53" t="n"/>
+      <c r="C27" s="82" t="n"/>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
       <c r="F27" s="4" t="n"/>
@@ -2344,12 +2333,12 @@
           <t xml:space="preserve">f_2Country </t>
         </is>
       </c>
-      <c r="B28" s="56" t="inlineStr">
-        <is>
-          <t>Test26</t>
-        </is>
-      </c>
-      <c r="C28" s="55" t="n"/>
+      <c r="B28" s="55" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C28" s="82" t="n"/>
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
       <c r="J28" s="1" t="n"/>
@@ -2364,12 +2353,12 @@
           <t>f_2Province</t>
         </is>
       </c>
-      <c r="B29" s="56" t="inlineStr">
-        <is>
-          <t>Test27</t>
-        </is>
-      </c>
-      <c r="C29" s="55" t="n"/>
+      <c r="B29" s="55" t="inlineStr">
+        <is>
+          <t>Jawa Timur</t>
+        </is>
+      </c>
+      <c r="C29" s="82" t="n"/>
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
       <c r="J29" s="1" t="n"/>
@@ -2384,12 +2373,12 @@
           <t xml:space="preserve">f_2City </t>
         </is>
       </c>
-      <c r="B30" s="56" t="inlineStr">
-        <is>
-          <t>Test28</t>
-        </is>
-      </c>
-      <c r="C30" s="55" t="n"/>
+      <c r="B30" s="55" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="C30" s="82" t="n"/>
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
       <c r="J30" s="1" t="n"/>
@@ -2399,17 +2388,17 @@
       <c r="N30" s="1" t="n"/>
     </row>
     <row r="31" ht="13.2" customHeight="1">
-      <c r="A31" s="56" t="inlineStr">
+      <c r="A31" s="55" t="inlineStr">
         <is>
           <t>f_2Site Address</t>
         </is>
       </c>
-      <c r="B31" s="56" t="inlineStr">
-        <is>
-          <t>Test29</t>
-        </is>
-      </c>
-      <c r="C31" s="55" t="n"/>
+      <c r="B31" s="55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" s="82" t="n"/>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
       <c r="F31" s="4" t="n"/>
@@ -2422,17 +2411,17 @@
       <c r="N31" s="1" t="n"/>
     </row>
     <row r="32" ht="13.2" customHeight="1">
-      <c r="A32" s="56" t="inlineStr">
+      <c r="A32" s="55" t="inlineStr">
         <is>
           <t>f_2Correspondence Address</t>
         </is>
       </c>
-      <c r="B32" s="57" t="inlineStr">
-        <is>
-          <t>Test30</t>
-        </is>
-      </c>
-      <c r="C32" s="55" t="n"/>
+      <c r="B32" s="56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C32" s="82" t="n"/>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
       <c r="F32" s="4" t="n"/>
@@ -2450,12 +2439,12 @@
           <t xml:space="preserve">f_2Postal Code </t>
         </is>
       </c>
-      <c r="B33" s="56" t="inlineStr">
-        <is>
-          <t>Test31</t>
-        </is>
-      </c>
-      <c r="C33" s="55" t="n"/>
+      <c r="B33" s="55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C33" s="82" t="n"/>
       <c r="H33" s="1" t="n"/>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n"/>
@@ -2464,25 +2453,25 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row r="34" ht="13.2" customFormat="1" customHeight="1" s="45">
-      <c r="A34" s="53" t="inlineStr">
+    <row r="34" ht="13.2" customFormat="1" customHeight="1" s="43">
+      <c r="A34" s="52" t="inlineStr">
         <is>
           <t>fh_Contact Person</t>
         </is>
       </c>
-      <c r="B34" s="53" t="inlineStr">
+      <c r="B34" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">ch_Name </t>
         </is>
       </c>
-      <c r="C34" s="53" t="inlineStr">
+      <c r="C34" s="52" t="inlineStr">
         <is>
           <t>ch_Phone No/Email</t>
         </is>
       </c>
-      <c r="D34" s="44" t="n"/>
-      <c r="E34" s="44" t="n"/>
-      <c r="F34" s="44" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
     </row>
     <row r="35" ht="13.2" customHeight="1">
       <c r="A35" s="12" t="inlineStr">
@@ -2490,19 +2479,19 @@
           <t>fm_2PIC</t>
         </is>
       </c>
-      <c r="B35" s="56" t="inlineStr">
+      <c r="B35" s="55" t="inlineStr">
         <is>
           <t>Test32</t>
         </is>
       </c>
-      <c r="C35" s="56" t="inlineStr">
+      <c r="C35" s="55" t="inlineStr">
         <is>
           <t>Test33</t>
         </is>
       </c>
-      <c r="D35" s="19" t="n"/>
-      <c r="E35" s="19" t="n"/>
-      <c r="F35" s="19" t="n"/>
+      <c r="D35" s="18" t="n"/>
+      <c r="E35" s="18" t="n"/>
+      <c r="F35" s="18" t="n"/>
       <c r="H35" s="1" t="n"/>
       <c r="I35" s="1" t="n"/>
       <c r="J35" s="1" t="n"/>
@@ -2517,12 +2506,12 @@
           <t xml:space="preserve">fm_2Decision Maker </t>
         </is>
       </c>
-      <c r="B36" s="56" t="inlineStr">
+      <c r="B36" s="55" t="inlineStr">
         <is>
           <t>Test34</t>
         </is>
       </c>
-      <c r="C36" s="56" t="inlineStr">
+      <c r="C36" s="55" t="inlineStr">
         <is>
           <t>Test35</t>
         </is>
@@ -2541,12 +2530,12 @@
           <t>fm_2Influencer</t>
         </is>
       </c>
-      <c r="B37" s="56" t="inlineStr">
+      <c r="B37" s="55" t="inlineStr">
         <is>
           <t>Test36</t>
         </is>
       </c>
-      <c r="C37" s="56" t="inlineStr">
+      <c r="C37" s="55" t="inlineStr">
         <is>
           <t>Test37</t>
         </is>
@@ -2565,12 +2554,12 @@
           <t xml:space="preserve">fm_2#1 Engineering Person </t>
         </is>
       </c>
-      <c r="B38" s="56" t="inlineStr">
+      <c r="B38" s="55" t="inlineStr">
         <is>
           <t>Test38</t>
         </is>
       </c>
-      <c r="C38" s="56" t="inlineStr">
+      <c r="C38" s="55" t="inlineStr">
         <is>
           <t>Test39</t>
         </is>
@@ -2592,12 +2581,12 @@
           <t>fm_2#2 Enginering Person</t>
         </is>
       </c>
-      <c r="B39" s="56" t="inlineStr">
+      <c r="B39" s="55" t="inlineStr">
         <is>
           <t>Test40</t>
         </is>
       </c>
-      <c r="C39" s="56" t="inlineStr">
+      <c r="C39" s="55" t="inlineStr">
         <is>
           <t>Test41</t>
         </is>
@@ -2619,12 +2608,12 @@
           <t>fm_2#3 Commercial Person</t>
         </is>
       </c>
-      <c r="B40" s="56" t="inlineStr">
+      <c r="B40" s="55" t="inlineStr">
         <is>
           <t>Test42</t>
         </is>
       </c>
-      <c r="C40" s="56" t="inlineStr">
+      <c r="C40" s="55" t="inlineStr">
         <is>
           <t>Test43</t>
         </is>
@@ -2646,12 +2635,12 @@
           <t>fm_2#4 Commercial Person</t>
         </is>
       </c>
-      <c r="B41" s="56" t="inlineStr">
+      <c r="B41" s="55" t="inlineStr">
         <is>
           <t>Test44</t>
         </is>
       </c>
-      <c r="C41" s="56" t="inlineStr">
+      <c r="C41" s="55" t="inlineStr">
         <is>
           <t>Test45</t>
         </is>
@@ -2670,12 +2659,12 @@
           <t>f_2Company Email</t>
         </is>
       </c>
-      <c r="B42" s="58" t="inlineStr">
-        <is>
-          <t>Test46</t>
-        </is>
-      </c>
-      <c r="C42" s="55" t="n"/>
+      <c r="B42" s="57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C42" s="82" t="n"/>
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
       <c r="J42" s="1" t="n"/>
@@ -2766,7 +2755,7 @@
       <c r="N51" s="1" t="n"/>
     </row>
     <row r="52" ht="13.2" customHeight="1">
-      <c r="A52" s="18" t="n"/>
+      <c r="A52" s="17" t="n"/>
       <c r="H52" s="1" t="n"/>
       <c r="I52" s="1" t="n"/>
       <c r="J52" s="1" t="n"/>
@@ -2843,8 +2832,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2858,42 +2847,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="64" t="inlineStr">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>sub_PROJECT INFORMATION</t>
         </is>
       </c>
-      <c r="B1" s="61" t="n"/>
-      <c r="C1" s="61" t="n"/>
-      <c r="D1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="13.2" customFormat="1" customHeight="1" s="1">
+      <c r="B1" s="60" t="n"/>
+      <c r="C1" s="60" t="n"/>
+      <c r="D1" s="60" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>fd_Project Status</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="64" t="inlineStr">
         <is>
           <t>NEW PROJECT</t>
         </is>
       </c>
-      <c r="C2" s="63" t="inlineStr">
+      <c r="C2" s="62" t="inlineStr">
         <is>
           <t>fh_Competitor Information</t>
         </is>
       </c>
-      <c r="D2" s="16" t="n"/>
-    </row>
-    <row r="3">
+      <c r="D2" s="15" t="n"/>
+    </row>
+    <row r="3" ht="13.2" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">fd_Project Type </t>
         </is>
       </c>
-      <c r="B3" s="65" t="inlineStr">
-        <is>
-          <t>WRP</t>
+      <c r="B3" s="64" t="inlineStr">
+        <is>
+          <t>WWTP</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -2901,7 +2890,7 @@
           <t>fh_Competitor #1</t>
         </is>
       </c>
-      <c r="D3" s="66" t="n"/>
+      <c r="D3" s="2" t="n"/>
     </row>
     <row r="4" ht="13.2" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="6" t="inlineStr">
@@ -2909,13 +2898,21 @@
           <t xml:space="preserve">f_Project Name (Project Code) </t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
           <t>f_CAPEX (USD)</t>
         </is>
       </c>
-      <c r="D4" s="83" t="n"/>
+      <c r="D4" s="83" t="inlineStr">
+        <is>
+          <t>Test20</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="n"/>
     </row>
     <row r="5" ht="13.2" customFormat="1" customHeight="1" s="1">
@@ -2924,7 +2921,7 @@
           <t xml:space="preserve">fd_Project Agreement Type </t>
         </is>
       </c>
-      <c r="B5" s="65" t="inlineStr">
+      <c r="B5" s="64" t="inlineStr">
         <is>
           <t>TURNKEY</t>
         </is>
@@ -2934,21 +2931,29 @@
           <t>f_OPEX (USD)</t>
         </is>
       </c>
-      <c r="D5" s="84" t="n"/>
+      <c r="D5" s="83" t="inlineStr">
+        <is>
+          <t>Test21</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="inlineStr">
+      <c r="A6" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Environmental Constraint </t>
         </is>
       </c>
-      <c r="B6" s="16" t="n"/>
+      <c r="B6" s="15" t="n"/>
       <c r="C6" s="12" t="inlineStr">
         <is>
           <t>f_Proposed Technology</t>
         </is>
       </c>
-      <c r="D6" s="66" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Test22</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -2956,15 +2961,19 @@
           <t xml:space="preserve">f_Max. Rainfall (mm/day) </t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
+      <c r="B7" s="65" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="C7" s="12" t="inlineStr">
         <is>
           <t>fd_Country of Origin</t>
         </is>
       </c>
-      <c r="D7" s="67" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
+      <c r="D7" s="66" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
@@ -2974,13 +2983,21 @@
           <t>f_Altitude (m)</t>
         </is>
       </c>
-      <c r="B8" s="66" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Test3</t>
+        </is>
+      </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
           <t>f_Competitor Grade</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Test23</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -2988,13 +3005,17 @@
           <t>f_Ambient Temperature (°C)</t>
         </is>
       </c>
-      <c r="B9" s="66" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Test4</t>
+        </is>
+      </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
           <t>fh_Competitor #2</t>
         </is>
       </c>
-      <c r="D9" s="66" t="n"/>
+      <c r="D9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -3002,13 +3023,21 @@
           <t>f_Ambient Moisture</t>
         </is>
       </c>
-      <c r="B10" s="66" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Test5</t>
+        </is>
+      </c>
       <c r="C10" s="12" t="inlineStr">
         <is>
           <t>f_CAPEX (USD)</t>
         </is>
       </c>
-      <c r="D10" s="83" t="n"/>
+      <c r="D10" s="83" t="inlineStr">
+        <is>
+          <t>Test24</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -3016,7 +3045,7 @@
           <t xml:space="preserve">fd_Seismic Hazard Zone </t>
         </is>
       </c>
-      <c r="B11" s="65" t="inlineStr">
+      <c r="B11" s="64" t="inlineStr">
         <is>
           <t>ZONE-4</t>
         </is>
@@ -3026,7 +3055,11 @@
           <t>f_OPEX (USD)</t>
         </is>
       </c>
-      <c r="D11" s="84" t="n"/>
+      <c r="D11" s="83" t="inlineStr">
+        <is>
+          <t>Test25</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -3034,9 +3067,9 @@
           <t>fd_Wind Speed Zone</t>
         </is>
       </c>
-      <c r="B12" s="65" t="inlineStr">
-        <is>
-          <t>LEVEL-1</t>
+      <c r="B12" s="64" t="inlineStr">
+        <is>
+          <t>LEVEL-3</t>
         </is>
       </c>
       <c r="C12" s="12" t="inlineStr">
@@ -3044,23 +3077,27 @@
           <t>f_Proposed Technology</t>
         </is>
       </c>
-      <c r="D12" s="66" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Test26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="53" t="inlineStr">
+      <c r="A13" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Engineering Constraint </t>
         </is>
       </c>
-      <c r="B13" s="16" t="n"/>
+      <c r="B13" s="15" t="n"/>
       <c r="C13" s="12" t="inlineStr">
         <is>
           <t>fd_Country of Origin</t>
         </is>
       </c>
-      <c r="D13" s="67" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
+      <c r="D13" s="66" t="inlineStr">
+        <is>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -3070,13 +3107,21 @@
           <t>f_Available Space Area (m2)</t>
         </is>
       </c>
-      <c r="B14" s="85" t="n"/>
+      <c r="B14" s="84" t="inlineStr">
+        <is>
+          <t>Test6</t>
+        </is>
+      </c>
       <c r="C14" s="12" t="inlineStr">
         <is>
           <t>f_Competitor Grade</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n"/>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Test27</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -3084,13 +3129,17 @@
           <t>f_Max. Building Depth (m)</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>Test7</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
           <t>fh_Competitor #3</t>
         </is>
       </c>
-      <c r="D15" s="66" t="n"/>
+      <c r="D15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -3098,13 +3147,21 @@
           <t>f_Max. Building Height (m)</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Test8</t>
+        </is>
+      </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
           <t>f_CAPEX (USD)</t>
         </is>
       </c>
-      <c r="D16" s="83" t="n"/>
+      <c r="D16" s="83" t="inlineStr">
+        <is>
+          <t>Test28</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -3112,7 +3169,7 @@
           <t xml:space="preserve">fd_Construction Difficulty Level </t>
         </is>
       </c>
-      <c r="B17" s="65" t="inlineStr">
+      <c r="B17" s="64" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
@@ -3122,7 +3179,11 @@
           <t>f_OPEX (USD)</t>
         </is>
       </c>
-      <c r="D17" s="84" t="n"/>
+      <c r="D17" s="83" t="inlineStr">
+        <is>
+          <t>Test29</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -3130,9 +3191,9 @@
           <t xml:space="preserve">fd_Construction Grade </t>
         </is>
       </c>
-      <c r="B18" s="65" t="inlineStr">
-        <is>
-          <t>GRADE-A</t>
+      <c r="B18" s="64" t="inlineStr">
+        <is>
+          <t>GRADE-E</t>
         </is>
       </c>
       <c r="C18" s="12" t="inlineStr">
@@ -3140,23 +3201,27 @@
           <t>f_Proposed Technology</t>
         </is>
       </c>
-      <c r="D18" s="66" t="n"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Test30</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="63" t="inlineStr">
+      <c r="A19" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Mechanical Constraint </t>
         </is>
       </c>
-      <c r="B19" s="16" t="n"/>
+      <c r="B19" s="15" t="n"/>
       <c r="C19" s="12" t="inlineStr">
         <is>
           <t>fd_Country of Origin</t>
         </is>
       </c>
-      <c r="D19" s="67" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
+      <c r="D19" s="66" t="inlineStr">
+        <is>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -3166,9 +3231,9 @@
           <t xml:space="preserve">fd_Noise Generation Constraint </t>
         </is>
       </c>
-      <c r="B20" s="65" t="inlineStr">
-        <is>
-          <t>GRADE-A</t>
+      <c r="B20" s="64" t="inlineStr">
+        <is>
+          <t>GRADE-E</t>
         </is>
       </c>
       <c r="C20" s="12" t="inlineStr">
@@ -3176,7 +3241,11 @@
           <t>f_Competitor Grade</t>
         </is>
       </c>
-      <c r="D20" s="8" t="n"/>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>Test31</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -3184,12 +3253,12 @@
           <t xml:space="preserve">fd_Brand Level </t>
         </is>
       </c>
-      <c r="B21" s="65" t="inlineStr">
-        <is>
-          <t>GRADE-A</t>
-        </is>
-      </c>
-      <c r="C21" s="63" t="inlineStr">
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t>GRADE-E</t>
+        </is>
+      </c>
+      <c r="C21" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Proposal Timeline </t>
         </is>
@@ -3197,18 +3266,22 @@
       <c r="D21" s="8" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="63" t="inlineStr">
+      <c r="A22" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Safety Constraint </t>
         </is>
       </c>
-      <c r="B22" s="16" t="n"/>
+      <c r="B22" s="15" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
           <t>f_Preliminary Submission Deadline</t>
         </is>
       </c>
-      <c r="D22" s="86" t="n"/>
+      <c r="D22" s="85" t="inlineStr">
+        <is>
+          <t>Test32</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -3216,17 +3289,21 @@
           <t xml:space="preserve">fd_Client Safety Awareness </t>
         </is>
       </c>
-      <c r="B23" s="65" t="inlineStr">
-        <is>
-          <t>GRADE-A</t>
-        </is>
-      </c>
-      <c r="C23" s="26" t="inlineStr">
+      <c r="B23" s="64" t="inlineStr">
+        <is>
+          <t>GRADE-E</t>
+        </is>
+      </c>
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">f_Submission-1 Deadline </t>
         </is>
       </c>
-      <c r="D23" s="86" t="n"/>
+      <c r="D23" s="85" t="inlineStr">
+        <is>
+          <t>Test33</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -3234,31 +3311,39 @@
           <t xml:space="preserve">fd_Hazop Review </t>
         </is>
       </c>
-      <c r="B24" s="65" t="inlineStr">
-        <is>
-          <t>THIRD PARTY</t>
-        </is>
-      </c>
-      <c r="C24" s="26" t="inlineStr">
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">f_Submission-2 Deadline </t>
         </is>
       </c>
-      <c r="D24" s="86" t="n"/>
+      <c r="D24" s="85" t="inlineStr">
+        <is>
+          <t>Test34</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="63" t="inlineStr">
+      <c r="A25" s="62" t="inlineStr">
         <is>
           <t>fh_OPEX Consideration</t>
         </is>
       </c>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="26" t="inlineStr">
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">f_Awarding Schedule </t>
         </is>
       </c>
-      <c r="D25" s="86" t="n"/>
+      <c r="D25" s="85" t="inlineStr">
+        <is>
+          <t>Test35</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -3266,9 +3351,9 @@
           <t xml:space="preserve">fd_Client OPEX Awareness </t>
         </is>
       </c>
-      <c r="B26" s="65" t="inlineStr">
-        <is>
-          <t>GRADE-A</t>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t>GRADE-E</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -3276,23 +3361,23 @@
           <t>fh_Commercial Term</t>
         </is>
       </c>
-      <c r="D26" s="16" t="n"/>
+      <c r="D26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="63" t="inlineStr">
+      <c r="A27" s="62" t="inlineStr">
         <is>
           <t>fh_OPEX Target</t>
         </is>
       </c>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="26" t="inlineStr">
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="24" t="inlineStr">
         <is>
           <t>fd_Payment-1 Agreement</t>
         </is>
       </c>
-      <c r="D27" s="65" t="inlineStr">
-        <is>
-          <t>DED CHARGE</t>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
+          <t>DOWN PAYMENT</t>
         </is>
       </c>
     </row>
@@ -3302,15 +3387,19 @@
           <t>f_Total OPEX (USD)</t>
         </is>
       </c>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t>Test9</t>
+        </is>
+      </c>
+      <c r="C28" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">fd_Invoicing Term (days) </t>
         </is>
       </c>
-      <c r="D28" s="28" t="inlineStr">
-        <is>
-          <t>14 days</t>
+      <c r="D28" s="26" t="inlineStr">
+        <is>
+          <t>45 days</t>
         </is>
       </c>
     </row>
@@ -3320,15 +3409,19 @@
           <t>f_Chemical (USD)</t>
         </is>
       </c>
-      <c r="B29" s="14" t="n"/>
-      <c r="C29" s="26" t="inlineStr">
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>Test10</t>
+        </is>
+      </c>
+      <c r="C29" s="24" t="inlineStr">
         <is>
           <t>fd_Chemical Supply During Startup</t>
         </is>
       </c>
-      <c r="D29" s="65" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
+          <t>CONTRACTOR</t>
         </is>
       </c>
     </row>
@@ -3338,13 +3431,21 @@
           <t>f_Sludge Disposal (USD)</t>
         </is>
       </c>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="27" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Test11</t>
+        </is>
+      </c>
+      <c r="C30" s="25" t="inlineStr">
         <is>
           <t>f_Client Estimated CAPEX (USD)</t>
         </is>
       </c>
-      <c r="D30" s="83" t="n"/>
+      <c r="D30" s="83" t="inlineStr">
+        <is>
+          <t>Test36</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -3352,13 +3453,21 @@
           <t>f_Electricity (USD)</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="26" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Test12</t>
+        </is>
+      </c>
+      <c r="C31" s="24" t="inlineStr">
         <is>
           <t>f_Tender Bond (%)</t>
         </is>
       </c>
-      <c r="D31" s="66" t="n"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Test37</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -3366,16 +3475,24 @@
           <t>f_Man Power (USD)</t>
         </is>
       </c>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="26" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Test13</t>
+        </is>
+      </c>
+      <c r="C32" s="24" t="inlineStr">
         <is>
           <t>f_Performance Bond (%)</t>
         </is>
       </c>
-      <c r="D32" s="66" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Test38</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="63" t="inlineStr">
+      <c r="A33" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Project Timeline </t>
         </is>
@@ -3386,7 +3503,7 @@
           <t>fh_Ownership Consideration</t>
         </is>
       </c>
-      <c r="D33" s="16" t="n"/>
+      <c r="D33" s="15" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -3394,13 +3511,17 @@
           <t>f_DED Timeline (week)</t>
         </is>
       </c>
-      <c r="B34" s="8" t="n"/>
-      <c r="C34" s="26" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Test14</t>
+        </is>
+      </c>
+      <c r="C34" s="24" t="inlineStr">
         <is>
           <t>fd_Sludge</t>
         </is>
       </c>
-      <c r="D34" s="29" t="inlineStr">
+      <c r="D34" s="27" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3412,13 +3533,17 @@
           <t>f_Total Construction Timeline (week)</t>
         </is>
       </c>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="26" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>Test15</t>
+        </is>
+      </c>
+      <c r="C35" s="24" t="inlineStr">
         <is>
           <t>fd_Biogas</t>
         </is>
       </c>
-      <c r="D35" s="29" t="inlineStr">
+      <c r="D35" s="27" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3430,20 +3555,24 @@
           <t>f_Testing, Commissioning &amp; Startup (Week)</t>
         </is>
       </c>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="26" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Test16</t>
+        </is>
+      </c>
+      <c r="C36" s="24" t="inlineStr">
         <is>
           <t>fd_Salt from ZLD Process</t>
         </is>
       </c>
-      <c r="D36" s="29" t="inlineStr">
+      <c r="D36" s="27" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="63" t="inlineStr">
+      <c r="A37" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Commissioning Timeline </t>
         </is>
@@ -3454,7 +3583,7 @@
           <t>fh_Engagement Activity</t>
         </is>
       </c>
-      <c r="D37" s="63" t="n"/>
+      <c r="D37" s="62" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -3462,15 +3591,19 @@
           <t>f_All Testing Timeline (week)</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="26" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>Test17</t>
+        </is>
+      </c>
+      <c r="C38" s="24" t="inlineStr">
         <is>
           <t>fd_Webinar Participation</t>
         </is>
       </c>
-      <c r="D38" s="29" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -3480,13 +3613,17 @@
           <t>f_Startup Preparation (week)</t>
         </is>
       </c>
-      <c r="B39" s="8" t="n"/>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Test18</t>
+        </is>
+      </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
           <t>fd_Expo Participation</t>
         </is>
       </c>
-      <c r="D39" s="29" t="inlineStr">
+      <c r="D39" s="27" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3498,15 +3635,19 @@
           <t>f_Acceptance Test Timeline (week)</t>
         </is>
       </c>
-      <c r="B40" s="8" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>Test19</t>
+        </is>
+      </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
           <t>fd_Gathering Participation</t>
         </is>
       </c>
-      <c r="D40" s="29" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -3516,9 +3657,9 @@
           <t>fd_Baby Sitting Scheme</t>
         </is>
       </c>
-      <c r="B41" s="65" t="inlineStr">
-        <is>
-          <t>SUPERVISION ONLY</t>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t>24 HOURS SITTING</t>
         </is>
       </c>
       <c r="C41" s="6" t="inlineStr">
@@ -3526,9 +3667,9 @@
           <t>fd_Project References Visit</t>
         </is>
       </c>
-      <c r="D41" s="29" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -3536,67 +3677,64 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <dataValidations count="20">
-    <dataValidation sqref="D28" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"14 days,30 days,45 days"</formula1>
+  <dataValidations count="19">
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"WWTP,WRP,STP,CLOSING LOOP"</formula1>
     </dataValidation>
-    <dataValidation sqref="D34:D36 D38:D41" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"YES,NO"</formula1>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"NEW PROJECT,MODIFICATION"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D27" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"DOWN PAYMENT,DED CHARGE,BY PROGRESS ONLY"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7 D13 D19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"Argentina,Australia,Austria,Belgium,Brazil,Brunei,Bulgaria,Cambodia,Canada,China,Croatia,Czech Republic,Denmark,Finland,France,Germany,Greece,Hungary,India,Indonesia,Ireland,Israel,Italy,Japan,Laos,Malaysia,Mexico,Myanmar,Netherlands"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B24:B25 B27:B29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"INTERNAL,THIRD PARTY"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27:B29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"BY VALUE,BY GRADE"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"NO CHALLENGE,NORMAL,DIFFICULT"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"LEVEL-1,LEVEL-2,LEVEL-3,LEVEL-4,LEVEL-5,LEVEL-6"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"ZONE-1,ZONE-2,ZONE-3,ZONE-4"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B18 B20:B21 B23 B26" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"TURNKEY,DBB,BOO,BOT"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Please Fill in with &quot;Project Type-Ordering&quot;_x000a_ex: WWTP Project-001"/>
+    <dataValidation sqref="B34 B38:B40" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="whole">
+      <formula1>1</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation sqref="B41" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"SUPERVISION ONLY,24 HOURS SITTING"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"CLIENT,CONTRACTOR"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B35:B36" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
     </dataValidation>
     <dataValidation sqref="D22:D25" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="date">
       <formula1>45658</formula1>
       <formula2>46022</formula2>
     </dataValidation>
-    <dataValidation sqref="B35:B36" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
+    <dataValidation sqref="D34:D36 D38:D41" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation sqref="D29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"CLIENT,CONTRACTOR"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B41" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"SUPERVISION ONLY,24 HOURS SITTING"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D27" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"DOWN PAYMENT,DED CHARGE,BY PROGRESS ONLY"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B34 B38:B40" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="whole">
-      <formula1>1</formula1>
-      <formula2>6</formula2>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Please Fill in with &quot;Project Type-Ordering&quot;_x000a_ex: WWTP Project-001"/>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"NEW PROJECT,MODIFICATION"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"TURNKEY,DBB,BOO,BOT"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B18 B20:B21 B23 B26" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"WWTP,WRP,WTP,STP,CLOSING LOOP PROJECT"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"ZONE-1,ZONE-2,ZONE-3,ZONE-4"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"LEVEL-1,LEVEL-2,LEVEL-3,LEVEL-4,LEVEL-5,LEVEL-6"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"NO CHALLENGE,NORMAL,DIFFICULT"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B27:B29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"BY VALUE,BY GRADE"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B24:B25 B27:B29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"INTERNAL,THIRD PARTY"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"WWTP,WRP,STP,CLOSING LOOP"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D13 D19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"Argentina,Australia,Austria,Belgium,Brazil,Brunei,Bulgaria,Cambodia,Canada,China,Croatia,Czech Republic,Denmark,Finland,France,Germany,Greece,Hungary,India,Indonesia,Ireland,Israel,Italy,Japan,Laos,Malaysia,Mexico,Myanmar,Netherlands"</formula1>
+    <dataValidation sqref="D28" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"14 days,30 days,45 days"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3612,7 +3750,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -3624,22 +3762,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="64" t="inlineStr">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>sub_TECHNICAL INFORMATION</t>
         </is>
       </c>
-      <c r="B1" s="61" t="n"/>
-      <c r="C1" s="61" t="n"/>
+      <c r="B1" s="60" t="n"/>
+      <c r="C1" s="60" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="inlineStr">
+      <c r="A2" s="52" t="inlineStr">
         <is>
           <t>fh_Inlet Constraint</t>
         </is>
       </c>
-      <c r="B2" s="54" t="n"/>
-      <c r="C2" s="55" t="n"/>
+      <c r="B2" s="53" t="n"/>
+      <c r="C2" s="82" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -3647,8 +3785,12 @@
           <t>f_Max. TDS</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="43" t="inlineStr">
+      <c r="B3" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3660,8 +3802,12 @@
           <t>f_Operation Time Day</t>
         </is>
       </c>
-      <c r="B4" s="66" t="n"/>
-      <c r="C4" s="21" t="inlineStr">
+      <c r="B4" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>fu_h/day</t>
         </is>
@@ -3673,12 +3819,12 @@
           <t>fd_Process Phase</t>
         </is>
       </c>
-      <c r="B5" s="65" t="inlineStr">
+      <c r="B5" s="64" t="inlineStr">
         <is>
           <t>MESSOPHILIC</t>
         </is>
       </c>
-      <c r="C5" s="55" t="n"/>
+      <c r="C5" s="82" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -3686,12 +3832,12 @@
           <t>fd_Influent Substrate Type</t>
         </is>
       </c>
-      <c r="B6" s="65" t="inlineStr">
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>RICH FOG&amp;TSS</t>
         </is>
       </c>
-      <c r="C6" s="55" t="n"/>
+      <c r="C6" s="82" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -3699,8 +3845,12 @@
           <t>f_BOD/COD</t>
         </is>
       </c>
-      <c r="B7" s="66" t="n"/>
-      <c r="C7" s="55" t="n"/>
+      <c r="B7" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" s="82" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -3708,12 +3858,12 @@
           <t>fd_Debris in Feed?</t>
         </is>
       </c>
-      <c r="B8" s="67" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="C8" s="55" t="n"/>
+      <c r="B8" s="66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C8" s="82" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -3721,8 +3871,12 @@
           <t>f_pH</t>
         </is>
       </c>
-      <c r="B9" s="66" t="n"/>
-      <c r="C9" s="55" t="n"/>
+      <c r="B9" s="65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" s="82" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -3730,8 +3884,12 @@
           <t>f_COD</t>
         </is>
       </c>
-      <c r="B10" s="66" t="n"/>
-      <c r="C10" s="43" t="inlineStr">
+      <c r="B10" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3743,8 +3901,12 @@
           <t>f_BOD</t>
         </is>
       </c>
-      <c r="B11" s="66" t="n"/>
-      <c r="C11" s="43" t="inlineStr">
+      <c r="B11" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3756,8 +3918,12 @@
           <t>f_TSS</t>
         </is>
       </c>
-      <c r="B12" s="66" t="n"/>
-      <c r="C12" s="43" t="inlineStr">
+      <c r="B12" s="65" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="C12" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3769,8 +3935,12 @@
           <t>f_FOG</t>
         </is>
       </c>
-      <c r="B13" s="66" t="n"/>
-      <c r="C13" s="43" t="inlineStr">
+      <c r="B13" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3782,8 +3952,12 @@
           <t>f_Max. NH3</t>
         </is>
       </c>
-      <c r="B14" s="66" t="n"/>
-      <c r="C14" s="43" t="inlineStr">
+      <c r="B14" s="65" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C14" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3795,8 +3969,12 @@
           <t>f_Max. Sulfur</t>
         </is>
       </c>
-      <c r="B15" s="66" t="n"/>
-      <c r="C15" s="43" t="inlineStr">
+      <c r="B15" s="65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C15" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3808,8 +3986,12 @@
           <t>f_TKN</t>
         </is>
       </c>
-      <c r="B16" s="66" t="n"/>
-      <c r="C16" s="43" t="inlineStr">
+      <c r="B16" s="65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C16" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3821,8 +4003,12 @@
           <t>f_TP</t>
         </is>
       </c>
-      <c r="B17" s="66" t="n"/>
-      <c r="C17" s="43" t="inlineStr">
+      <c r="B17" s="65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C17" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3834,8 +4020,12 @@
           <t>f_Max. Color Index</t>
         </is>
       </c>
-      <c r="B18" s="66" t="n"/>
-      <c r="C18" s="22" t="inlineStr">
+      <c r="B18" s="65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C18" s="51" t="inlineStr">
         <is>
           <t>fu_PtCo</t>
         </is>
@@ -3847,8 +4037,12 @@
           <t>f_Max. Turbidity</t>
         </is>
       </c>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="22" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C19" s="51" t="inlineStr">
         <is>
           <t>fu_NTU</t>
         </is>
@@ -3860,8 +4054,12 @@
           <t>f_Max. SDI</t>
         </is>
       </c>
-      <c r="B20" s="87" t="n"/>
-      <c r="C20" s="55" t="n"/>
+      <c r="B20" s="65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C20" s="82" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -3869,21 +4067,25 @@
           <t>f_Flow</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="22" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C21" s="51" t="inlineStr">
         <is>
           <t>fu_CMD</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="inlineStr">
+      <c r="A22" s="52" t="inlineStr">
         <is>
           <t>fh_Effluent Constraint</t>
         </is>
       </c>
-      <c r="B22" s="54" t="n"/>
-      <c r="C22" s="55" t="n"/>
+      <c r="B22" s="53" t="n"/>
+      <c r="C22" s="82" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -3891,12 +4093,12 @@
           <t>fd_Effluent Consideration</t>
         </is>
       </c>
-      <c r="B23" s="65" t="inlineStr">
-        <is>
-          <t>DISCHARGE ONLY</t>
-        </is>
-      </c>
-      <c r="C23" s="55" t="n"/>
+      <c r="B23" s="64" t="inlineStr">
+        <is>
+          <t>REUSE : G-0</t>
+        </is>
+      </c>
+      <c r="C23" s="82" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -3904,8 +4106,12 @@
           <t>f_pH</t>
         </is>
       </c>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="55" t="n"/>
+      <c r="B24" s="65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C24" s="82" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -3913,8 +4119,12 @@
           <t>f_COD</t>
         </is>
       </c>
-      <c r="B25" s="87" t="n"/>
-      <c r="C25" s="43" t="inlineStr">
+      <c r="B25" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3926,8 +4136,12 @@
           <t>f_BOD</t>
         </is>
       </c>
-      <c r="B26" s="87" t="n"/>
-      <c r="C26" s="43" t="inlineStr">
+      <c r="B26" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3939,8 +4153,12 @@
           <t>f_TSS</t>
         </is>
       </c>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="43" t="inlineStr">
+      <c r="B27" s="65" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="C27" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3952,8 +4170,12 @@
           <t>f_FOG</t>
         </is>
       </c>
-      <c r="B28" s="87" t="n"/>
-      <c r="C28" s="43" t="inlineStr">
+      <c r="B28" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3965,8 +4187,12 @@
           <t>f_Max. NH3</t>
         </is>
       </c>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="43" t="inlineStr">
+      <c r="B29" s="65" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C29" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3978,8 +4204,12 @@
           <t>f_Max. Sulfur</t>
         </is>
       </c>
-      <c r="B30" s="87" t="n"/>
-      <c r="C30" s="43" t="inlineStr">
+      <c r="B30" s="65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -3991,8 +4221,12 @@
           <t>f_TKN</t>
         </is>
       </c>
-      <c r="B31" s="87" t="n"/>
-      <c r="C31" s="43" t="inlineStr">
+      <c r="B31" s="65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C31" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -4004,8 +4238,12 @@
           <t>f_TP</t>
         </is>
       </c>
-      <c r="B32" s="87" t="n"/>
-      <c r="C32" s="43" t="inlineStr">
+      <c r="B32" s="65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C32" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">fu_mg/L </t>
         </is>
@@ -4017,8 +4255,12 @@
           <t>f_Max. Color Index</t>
         </is>
       </c>
-      <c r="B33" s="87" t="n"/>
-      <c r="C33" s="22" t="inlineStr">
+      <c r="B33" s="65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C33" s="51" t="inlineStr">
         <is>
           <t>fu_PtCo</t>
         </is>
@@ -4030,8 +4272,12 @@
           <t>f_Max. Turbidity</t>
         </is>
       </c>
-      <c r="B34" s="87" t="n"/>
-      <c r="C34" s="22" t="inlineStr">
+      <c r="B34" s="65" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C34" s="51" t="inlineStr">
         <is>
           <t>fu_NTU</t>
         </is>
@@ -4043,17 +4289,21 @@
           <t>f_Max. SDI</t>
         </is>
       </c>
-      <c r="B35" s="87" t="n"/>
-      <c r="C35" s="55" t="n"/>
+      <c r="B35" s="65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C35" s="82" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="53" t="inlineStr">
+      <c r="A36" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">fh_Output Sludge Cake Constraint </t>
         </is>
       </c>
-      <c r="B36" s="54" t="n"/>
-      <c r="C36" s="55" t="n"/>
+      <c r="B36" s="53" t="n"/>
+      <c r="C36" s="82" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
@@ -4061,25 +4311,25 @@
           <t>fd_Expected Discharge Cake MC</t>
         </is>
       </c>
-      <c r="B37" s="65" t="inlineStr">
-        <is>
-          <t>75%-85%</t>
-        </is>
-      </c>
-      <c r="C37" s="22" t="inlineStr">
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t>&lt;40%</t>
+        </is>
+      </c>
+      <c r="C37" s="21" t="inlineStr">
         <is>
           <t>fu_w/w</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="inlineStr">
+      <c r="A38" s="52" t="inlineStr">
         <is>
           <t>fh_Integrated Process</t>
         </is>
       </c>
-      <c r="B38" s="54" t="n"/>
-      <c r="C38" s="55" t="n"/>
+      <c r="B38" s="53" t="n"/>
+      <c r="C38" s="82" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -4087,12 +4337,12 @@
           <t>fd_Process 1</t>
         </is>
       </c>
-      <c r="B39" s="65" t="inlineStr">
+      <c r="B39" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C39" s="55" t="n"/>
+      <c r="C39" s="82" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -4100,12 +4350,12 @@
           <t>fd_Process 2</t>
         </is>
       </c>
-      <c r="B40" s="65" t="inlineStr">
+      <c r="B40" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C40" s="55" t="n"/>
+      <c r="C40" s="82" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -4113,12 +4363,12 @@
           <t>fd_Process 3</t>
         </is>
       </c>
-      <c r="B41" s="65" t="inlineStr">
+      <c r="B41" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C41" s="55" t="n"/>
+      <c r="C41" s="82" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -4126,12 +4376,12 @@
           <t>fd_Process 4</t>
         </is>
       </c>
-      <c r="B42" s="65" t="inlineStr">
+      <c r="B42" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C42" s="55" t="n"/>
+      <c r="C42" s="82" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -4139,12 +4389,12 @@
           <t>fd_Process 5</t>
         </is>
       </c>
-      <c r="B43" s="65" t="inlineStr">
+      <c r="B43" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C43" s="55" t="n"/>
+      <c r="C43" s="82" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -4152,12 +4402,12 @@
           <t>fd_Process 6</t>
         </is>
       </c>
-      <c r="B44" s="65" t="inlineStr">
+      <c r="B44" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C44" s="55" t="n"/>
+      <c r="C44" s="82" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -4165,12 +4415,12 @@
           <t>fd_Process 7</t>
         </is>
       </c>
-      <c r="B45" s="65" t="inlineStr">
+      <c r="B45" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C45" s="55" t="n"/>
+      <c r="C45" s="82" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -4178,12 +4428,12 @@
           <t>fd_Process 8</t>
         </is>
       </c>
-      <c r="B46" s="65" t="inlineStr">
+      <c r="B46" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C46" s="55" t="n"/>
+      <c r="C46" s="82" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -4191,12 +4441,12 @@
           <t>fd_Process 9</t>
         </is>
       </c>
-      <c r="B47" s="65" t="inlineStr">
+      <c r="B47" s="64" t="inlineStr">
         <is>
           <t>ANAPAK</t>
         </is>
       </c>
-      <c r="C47" s="55" t="n"/>
+      <c r="C47" s="82" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4265,8 +4515,8 @@
   </sheetPr>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:C83"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -4277,1308 +4527,1461 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>sub_V. SPLIT OF RESPONSIBILITY</t>
         </is>
       </c>
-      <c r="B1" s="36" t="n"/>
+      <c r="B1" s="34" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="41" t="inlineStr">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>default: WWTP, but user can change based on Project Type in DIP_Project Information</t>
         </is>
       </c>
-      <c r="B2" s="47" t="inlineStr">
+      <c r="B2" s="45" t="inlineStr">
         <is>
           <t>User's option</t>
         </is>
       </c>
-      <c r="C2" s="47" t="n"/>
+      <c r="C2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>fh_Work scope</t>
         </is>
       </c>
-      <c r="B3" s="31" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>ch_Client</t>
         </is>
       </c>
-      <c r="C3" s="31" t="inlineStr">
+      <c r="C3" s="29" t="inlineStr">
         <is>
           <t>ch_Contractor</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
+      <c r="D3" s="29" t="inlineStr">
         <is>
           <t>ch_Remarks</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>ftg_Authority Submission</t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
+      <c r="B4" s="30" t="n"/>
+      <c r="C4" s="30" t="n"/>
+      <c r="D4" s="30" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="70" t="inlineStr">
+      <c r="A5" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ft_Permits - Persetujuan Teknis (PERTEK) </t>
         </is>
       </c>
-      <c r="B5" s="30" t="inlineStr">
+      <c r="B5" s="28" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C5" s="33" t="n"/>
-      <c r="D5" s="70" t="n"/>
+      <c r="D5" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="28.8" customHeight="1">
-      <c r="A6" s="70" t="inlineStr">
+      <c r="A6" s="68" t="inlineStr">
         <is>
           <t>ft_Expenses associated with the land acquisition (such as “Izin Pembebasan Lahan”)</t>
         </is>
       </c>
-      <c r="B6" s="30" t="inlineStr">
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C6" s="33" t="n"/>
-      <c r="D6" s="33" t="n"/>
+      <c r="D6" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="28.8" customHeight="1">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <f>"ft_To obtain license to operate " &amp; 'DIP_Project Information'!B3 &amp; " such as SLF (Sertifikat Laik Fungsi)"</f>
         <v/>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C7" s="33" t="n"/>
-      <c r="D7" s="33" t="n"/>
+      <c r="C7" s="31" t="n"/>
+      <c r="D7" s="31" t="n"/>
     </row>
     <row r="8" ht="43.2" customHeight="1">
-      <c r="A8" s="70" t="inlineStr">
+      <c r="A8" s="68" t="inlineStr">
         <is>
           <t>ft_License for secondary waste, where needed (such as “Upaya Pengelolaan Lingkungan Hidup (UKL) - Upaya Pemantauan Lingkungan Hidup (UPL)”)</t>
         </is>
       </c>
-      <c r="B8" s="30" t="inlineStr">
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C8" s="33" t="n"/>
-      <c r="D8" s="33" t="n"/>
+      <c r="D8" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
-      <c r="A9" s="70" t="inlineStr">
+      <c r="A9" s="68" t="inlineStr">
         <is>
           <t>ft_Others local Authority, where needed (such as “Izin Mendirikan Bangunan (IMB))</t>
         </is>
       </c>
-      <c r="B9" s="30" t="inlineStr">
+      <c r="B9" s="28" t="n"/>
+      <c r="C9" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C9" s="33" t="n"/>
-      <c r="D9" s="33" t="n"/>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <f>"ftg_Civil and Structural Works – " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
         <v/>
       </c>
-      <c r="B10" s="32" t="n"/>
-      <c r="C10" s="32" t="n"/>
-      <c r="D10" s="32" t="n"/>
+      <c r="B10" s="30" t="n"/>
+      <c r="C10" s="30" t="n"/>
+      <c r="D10" s="30" t="n"/>
     </row>
     <row r="11" ht="28.8" customHeight="1">
-      <c r="A11" s="70" t="inlineStr">
+      <c r="A11" s="68" t="inlineStr">
         <is>
           <t>ft_Land and ground clearance, compaction, and development works</t>
         </is>
       </c>
-      <c r="B11" s="30" t="inlineStr">
+      <c r="B11" s="28" t="n"/>
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C11" s="33" t="n"/>
-      <c r="D11" s="33" t="n"/>
+      <c r="D11" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
-      <c r="A12" s="70" t="inlineStr">
+      <c r="A12" s="68" t="inlineStr">
         <is>
           <t>ft_Warehouse / Workshop, Site Office, Construction Power Supply, Project Site Location Security</t>
         </is>
       </c>
-      <c r="B12" s="30" t="inlineStr">
+      <c r="B12" s="28" t="n"/>
+      <c r="C12" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C12" s="33" t="n"/>
-      <c r="D12" s="33" t="n"/>
+      <c r="D12" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="70" t="inlineStr">
+      <c r="A13" s="68" t="inlineStr">
         <is>
           <t>ft_Water and electrical during the construction</t>
         </is>
       </c>
-      <c r="B13" s="30" t="inlineStr">
+      <c r="B13" s="28" t="n"/>
+      <c r="C13" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C13" s="33" t="n"/>
-      <c r="D13" s="70" t="n"/>
+      <c r="D13" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="70" t="inlineStr">
+      <c r="A14" s="68" t="inlineStr">
         <is>
           <t>ft_Piling work and RC foundation</t>
         </is>
       </c>
-      <c r="B14" s="33" t="n"/>
-      <c r="C14" s="30" t="inlineStr">
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="70" t="n"/>
+      <c r="D14" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="70" t="inlineStr">
+      <c r="A15" s="68" t="inlineStr">
         <is>
           <t>ft_Loading and unloading all material to laydown area</t>
         </is>
       </c>
-      <c r="B15" s="30" t="inlineStr">
+      <c r="B15" s="28" t="n"/>
+      <c r="C15" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C15" s="33" t="n"/>
-      <c r="D15" s="33" t="n"/>
+      <c r="D15" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="28.8" customHeight="1">
-      <c r="A16" s="70" t="inlineStr">
+      <c r="A16" s="68" t="inlineStr">
         <is>
           <t>ft_GA drawing, loading information, and installation requirement</t>
         </is>
       </c>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="30" t="inlineStr">
+      <c r="B16" s="31" t="n"/>
+      <c r="C16" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D16" s="33" t="n"/>
+      <c r="D16" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="28.8" customHeight="1">
-      <c r="A17" s="70">
+      <c r="A17" s="68">
         <f>"ft_Design and drawing for " &amp; 'DIP_Project Information'!B3 &amp; " concrete tank, pump/blower room, control room, chemical room "</f>
         <v/>
       </c>
-      <c r="B17" s="33" t="n"/>
-      <c r="C17" s="30" t="inlineStr">
+      <c r="B17" s="31" t="n"/>
+      <c r="C17" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D17" s="33" t="n"/>
+      <c r="D17" s="31" t="n"/>
     </row>
     <row r="18" ht="28.8" customHeight="1">
-      <c r="A18" s="70">
+      <c r="A18" s="68">
         <f>"ft_Foundation for " &amp; 'DIP_Project Information'!B3 &amp; " containerized tank, pump/blower room, control room, chemical room"</f>
         <v/>
       </c>
-      <c r="B18" s="33" t="n"/>
-      <c r="C18" s="30" t="inlineStr">
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="33" t="n"/>
+      <c r="D18" s="31" t="n"/>
     </row>
     <row r="19" ht="28.8" customHeight="1">
-      <c r="A19" s="70" t="inlineStr">
+      <c r="A19" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ft_Maintenance platform and safety handrails for non-RC items </t>
         </is>
       </c>
-      <c r="B19" s="33" t="n"/>
-      <c r="C19" s="30" t="inlineStr">
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="33" t="n"/>
+      <c r="D19" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="inlineStr">
+      <c r="A20" s="46" t="inlineStr">
         <is>
           <t>ftn_Note: RC – reinforced concrete</t>
         </is>
       </c>
-      <c r="B20" s="49" t="n"/>
-      <c r="C20" s="49" t="n"/>
-      <c r="D20" s="50" t="n"/>
+      <c r="B20" s="47" t="n"/>
+      <c r="C20" s="47" t="n"/>
+      <c r="D20" s="48" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <f>"ftg_Mechanical and Piping – "&amp;'DIP_Project Information'!B3&amp; " System"</f>
         <v/>
       </c>
-      <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
-      <c r="D21" s="32" t="n"/>
+      <c r="B21" s="29" t="n"/>
+      <c r="C21" s="29" t="n"/>
+      <c r="D21" s="30" t="n"/>
     </row>
     <row r="22" ht="28.8" customHeight="1">
-      <c r="A22" s="70">
+      <c r="A22" s="68">
         <f>"ft_Supply and installation of all mechanical material for " &amp; 'DIP_Project Information'!B3 &amp; " system"</f>
         <v/>
       </c>
-      <c r="B22" s="33" t="n"/>
-      <c r="C22" s="30" t="inlineStr">
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D22" s="33" t="n"/>
+      <c r="D22" s="31" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="70">
+      <c r="A23" s="68">
         <f>"ft_Design, testing and commissioning of "&amp;'DIP_Project Information'!B3&amp;"  system"</f>
         <v/>
       </c>
-      <c r="B23" s="33" t="n"/>
-      <c r="C23" s="30" t="inlineStr">
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D23" s="33" t="n"/>
+      <c r="D23" s="31" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="70" t="inlineStr">
+      <c r="A24" s="68" t="inlineStr">
         <is>
           <t>ft_Piping and Pipe rack outside battery limit (OSBL)</t>
         </is>
       </c>
-      <c r="B24" s="30" t="inlineStr">
+      <c r="B24" s="28" t="n"/>
+      <c r="C24" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C24" s="33" t="n"/>
-      <c r="D24" s="33" t="n"/>
+      <c r="D24" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="70">
+      <c r="A25" s="68">
         <f>"ft_Inlet wastewater transfer piping to " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
         <v/>
       </c>
-      <c r="B25" s="30" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C25" s="33" t="n"/>
-      <c r="D25" s="33" t="n"/>
+      <c r="C25" s="31" t="n"/>
+      <c r="D25" s="31" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="70">
+      <c r="A26" s="68">
         <f>"ft_Piping &amp; final system for effluent "&amp;'DIP_Project Information'!B3&amp;" to discharge"</f>
         <v/>
       </c>
-      <c r="B26" s="30" t="inlineStr">
+      <c r="B26" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="33" t="n"/>
+      <c r="C26" s="31" t="n"/>
+      <c r="D26" s="31" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="70" t="inlineStr">
+      <c r="A27" s="68" t="inlineStr">
         <is>
           <t>ft_Piping and Pipe rack inside battery limit (ISBL)</t>
         </is>
       </c>
-      <c r="B27" s="33" t="n"/>
-      <c r="C27" s="30" t="inlineStr">
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="70" t="n"/>
+      <c r="D27" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="70" t="inlineStr">
+      <c r="A28" s="68" t="inlineStr">
         <is>
           <t>ft_Mechanical Installation &amp; Erection Manpower &amp; Labor</t>
         </is>
       </c>
-      <c r="B28" s="33" t="n"/>
-      <c r="C28" s="30" t="inlineStr">
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="33" t="n"/>
+      <c r="D28" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="28.8" customHeight="1">
-      <c r="A29" s="70" t="inlineStr">
+      <c r="A29" s="68" t="inlineStr">
         <is>
           <t>ft_All General Access (Roads, Sidewalks, Pathways &amp; Entrances)</t>
         </is>
       </c>
-      <c r="B29" s="30" t="inlineStr">
+      <c r="B29" s="28" t="n"/>
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C29" s="33" t="n"/>
-      <c r="D29" s="33" t="n"/>
+      <c r="D29" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="70" t="inlineStr">
+      <c r="A30" s="68" t="inlineStr">
         <is>
           <t>ft_Loading and unloading all material to laydown area</t>
         </is>
       </c>
-      <c r="B30" s="30" t="inlineStr">
+      <c r="B30" s="28" t="n"/>
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C30" s="33" t="n"/>
-      <c r="D30" s="33" t="n"/>
+      <c r="D30" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="inlineStr">
+      <c r="A31" s="30" t="inlineStr">
         <is>
           <t>ftg_Electrical and Instrumentation</t>
         </is>
       </c>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="32" t="n"/>
+      <c r="B31" s="29" t="n"/>
+      <c r="C31" s="29" t="n"/>
+      <c r="D31" s="30" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="70" t="inlineStr">
+      <c r="A32" s="68" t="inlineStr">
         <is>
           <t>ft_Electrical feeder to main power control panel (MCC)</t>
         </is>
       </c>
-      <c r="B32" s="33" t="n"/>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D32" s="33" t="n"/>
+      <c r="D32" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="28.8" customHeight="1">
-      <c r="A33" s="70" t="inlineStr">
+      <c r="A33" s="68" t="inlineStr">
         <is>
           <t>ft_Electricity during the installation and commissioning of the system</t>
         </is>
       </c>
-      <c r="B33" s="33" t="n"/>
-      <c r="C33" s="30" t="inlineStr">
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D33" s="33" t="n"/>
+      <c r="D33" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="70" t="inlineStr">
+      <c r="A34" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ft_Purchase, installation, cable laying, testing </t>
         </is>
       </c>
-      <c r="B34" s="33" t="n"/>
-      <c r="C34" s="30" t="inlineStr">
+      <c r="B34" s="31" t="n"/>
+      <c r="C34" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D34" s="70" t="n"/>
+      <c r="D34" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="70" t="inlineStr">
+      <c r="A35" s="68" t="inlineStr">
         <is>
           <t>ft_Lightening protector</t>
         </is>
       </c>
-      <c r="B35" s="30" t="inlineStr">
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C35" s="33" t="n"/>
-      <c r="D35" s="70" t="n"/>
+      <c r="D35" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="70" t="inlineStr">
+      <c r="A36" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ft_Lighting on WWTP system </t>
         </is>
       </c>
-      <c r="B36" s="33" t="n"/>
-      <c r="C36" s="30" t="inlineStr">
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D36" s="70" t="n"/>
+      <c r="D36" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="28.8" customHeight="1">
-      <c r="A37" s="70" t="inlineStr">
+      <c r="A37" s="68" t="inlineStr">
         <is>
           <t>ft_Panel control including their outgoing cables, termination, complete installation, testing &amp; commissioning</t>
         </is>
       </c>
-      <c r="B37" s="33" t="n"/>
-      <c r="C37" s="30" t="inlineStr">
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D37" s="33" t="n"/>
+      <c r="D37" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
-      <c r="A38" s="70" t="inlineStr">
+      <c r="A38" s="68" t="inlineStr">
         <is>
           <t>ft_Instrument supply, installation, calibration, loop check and commissioning</t>
         </is>
       </c>
-      <c r="B38" s="33" t="n"/>
-      <c r="C38" s="30" t="inlineStr">
+      <c r="B38" s="31" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D38" s="33" t="n"/>
+      <c r="D38" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="inlineStr">
+      <c r="A39" s="30" t="inlineStr">
         <is>
           <t>ftg_Monitoring and Control System</t>
         </is>
       </c>
-      <c r="B39" s="31" t="n"/>
-      <c r="C39" s="31" t="n"/>
-      <c r="D39" s="32" t="n"/>
+      <c r="B39" s="29" t="n"/>
+      <c r="C39" s="29" t="n"/>
+      <c r="D39" s="30" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="70" t="inlineStr">
+      <c r="A40" s="68" t="inlineStr">
         <is>
           <t>ft_Local panel control system</t>
         </is>
       </c>
-      <c r="B40" s="33" t="n"/>
-      <c r="C40" s="30" t="inlineStr">
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D40" s="70" t="n"/>
+      <c r="D40" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="32" t="inlineStr">
+      <c r="A41" s="30" t="inlineStr">
         <is>
           <t>ftg_Testing and Commissioning</t>
         </is>
       </c>
-      <c r="B41" s="31" t="n"/>
-      <c r="C41" s="31" t="n"/>
-      <c r="D41" s="32" t="n"/>
+      <c r="B41" s="29" t="n"/>
+      <c r="C41" s="29" t="n"/>
+      <c r="D41" s="30" t="n"/>
     </row>
     <row r="42" ht="43.2" customHeight="1">
-      <c r="A42" s="70" t="inlineStr">
+      <c r="A42" s="68" t="inlineStr">
         <is>
           <t>ft_Continuous 24-hours performance test of the waste water treatment system AT DESIGN CAPACITY with design influent quality and effluent discharged comply to contract</t>
         </is>
       </c>
-      <c r="B42" s="35" t="n"/>
-      <c r="C42" s="30" t="inlineStr">
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D42" s="35" t="inlineStr">
-        <is>
-          <t>To assist as necessary</t>
+      <c r="D42" s="33" t="inlineStr">
+        <is>
+          <t>Test1</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="70" t="inlineStr">
+      <c r="A43" s="68" t="inlineStr">
         <is>
           <t>ft_Chemical during commissioning</t>
         </is>
       </c>
-      <c r="B43" s="30" t="inlineStr">
+      <c r="B43" s="28" t="n"/>
+      <c r="C43" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="70" t="n"/>
+      <c r="D43" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="70" t="inlineStr">
+      <c r="A44" s="68" t="inlineStr">
         <is>
           <t>ft_Commissioning spare parts</t>
         </is>
       </c>
-      <c r="B44" s="35" t="n"/>
-      <c r="C44" s="30" t="inlineStr">
+      <c r="B44" s="33" t="n"/>
+      <c r="C44" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D44" s="70" t="n"/>
+      <c r="D44" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="70" t="inlineStr">
+      <c r="A45" s="68" t="inlineStr">
         <is>
           <t>ft_Sufficient water and electricity during the commissioning</t>
         </is>
       </c>
-      <c r="B45" s="30" t="inlineStr">
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C45" s="33" t="n"/>
-      <c r="D45" s="33" t="n"/>
+      <c r="D45" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="43.2" customHeight="1">
-      <c r="A46" s="70">
+      <c r="A46" s="68">
         <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation during the commissioning by the internal laboratory (the contractor)"</f>
         <v/>
       </c>
-      <c r="B46" s="35" t="n"/>
-      <c r="C46" s="30" t="inlineStr">
+      <c r="B46" s="33" t="n"/>
+      <c r="C46" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D46" s="33" t="n"/>
+      <c r="D46" s="31" t="n"/>
     </row>
     <row r="47" ht="28.8" customHeight="1">
-      <c r="A47" s="70">
+      <c r="A47" s="68">
         <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation at the end of the commissioning by the external laboratory"</f>
         <v/>
       </c>
-      <c r="B47" s="30" t="inlineStr">
+      <c r="B47" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="C47" s="33" t="n"/>
-      <c r="D47" s="33" t="n"/>
+      <c r="C47" s="31" t="n"/>
+      <c r="D47" s="31" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="32" t="inlineStr">
+      <c r="A48" s="30" t="inlineStr">
         <is>
           <t>ftg_Others</t>
         </is>
       </c>
-      <c r="B48" s="31" t="n"/>
-      <c r="C48" s="31" t="n"/>
-      <c r="D48" s="32" t="n"/>
+      <c r="B48" s="29" t="n"/>
+      <c r="C48" s="29" t="n"/>
+      <c r="D48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="70" t="inlineStr">
+      <c r="A49" s="68" t="inlineStr">
         <is>
           <t>ft_HIRAC for the site installation works</t>
         </is>
       </c>
-      <c r="B49" s="33" t="n"/>
-      <c r="C49" s="30" t="inlineStr">
+      <c r="B49" s="31" t="n"/>
+      <c r="C49" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D49" s="70" t="n"/>
+      <c r="D49" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="70">
-        <f>"ft_Classroom/ Virtual training for " &amp; 'DIP_Project Information'!B3 &amp; " operation"</f>
-        <v/>
-      </c>
-      <c r="B50" s="33" t="n"/>
-      <c r="C50" s="30" t="inlineStr">
+      <c r="A50" s="68" t="inlineStr">
+        <is>
+          <t>ft_Piping &amp; instruments diagram</t>
+        </is>
+      </c>
+      <c r="B50" s="31" t="n"/>
+      <c r="C50" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D50" s="33" t="n"/>
+      <c r="D50" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="70" t="inlineStr">
+      <c r="A51" s="68" t="inlineStr">
         <is>
           <t>ft_Operation manuals and as-built drawings</t>
         </is>
       </c>
-      <c r="B51" s="33" t="n"/>
-      <c r="C51" s="30" t="inlineStr">
+      <c r="B51" s="31" t="n"/>
+      <c r="C51" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D51" s="70" t="n"/>
+      <c r="D51" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="70" t="inlineStr">
+      <c r="A52" s="68" t="inlineStr">
         <is>
           <t>ft_Workmen Compensation</t>
         </is>
       </c>
-      <c r="B52" s="33" t="n"/>
-      <c r="C52" s="30" t="inlineStr">
+      <c r="B52" s="31" t="n"/>
+      <c r="C52" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D52" s="70" t="n"/>
+      <c r="D52" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="32" t="inlineStr">
+      <c r="A53" s="30" t="inlineStr">
         <is>
           <t>ftg_Documentation</t>
         </is>
       </c>
-      <c r="B53" s="31" t="n"/>
-      <c r="C53" s="31" t="n"/>
-      <c r="D53" s="32" t="n"/>
+      <c r="B53" s="29" t="n"/>
+      <c r="C53" s="29" t="n"/>
+      <c r="D53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="70" t="inlineStr">
+      <c r="A54" s="68" t="inlineStr">
         <is>
           <t>ft_Project schedule</t>
         </is>
       </c>
-      <c r="B54" s="33" t="n"/>
-      <c r="C54" s="30" t="inlineStr">
+      <c r="B54" s="31" t="n"/>
+      <c r="C54" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D54" s="70" t="n"/>
+      <c r="D54" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="70" t="inlineStr">
+      <c r="A55" s="68" t="inlineStr">
         <is>
           <t>ft_Piping &amp; instruments diagram</t>
         </is>
       </c>
-      <c r="B55" s="33" t="n"/>
-      <c r="C55" s="30" t="inlineStr">
+      <c r="B55" s="31" t="n"/>
+      <c r="C55" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D55" s="70" t="n"/>
+      <c r="D55" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="70" t="inlineStr">
+      <c r="A56" s="68" t="inlineStr">
         <is>
           <t>ft_Single-line diagram</t>
         </is>
       </c>
-      <c r="B56" s="33" t="n"/>
-      <c r="C56" s="30" t="inlineStr">
+      <c r="B56" s="31" t="n"/>
+      <c r="C56" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D56" s="70" t="n"/>
+      <c r="D56" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="70" t="inlineStr">
+      <c r="A57" s="68" t="inlineStr">
         <is>
           <t>ft_Major equipment list</t>
         </is>
       </c>
-      <c r="B57" s="33" t="n"/>
-      <c r="C57" s="30" t="inlineStr">
+      <c r="B57" s="31" t="n"/>
+      <c r="C57" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D57" s="70" t="n"/>
+      <c r="D57" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="70" t="inlineStr">
+      <c r="A58" s="68" t="inlineStr">
         <is>
           <t>ft_All equipment list (tagged items)</t>
         </is>
       </c>
-      <c r="B58" s="33" t="n"/>
-      <c r="C58" s="30" t="inlineStr">
+      <c r="B58" s="31" t="n"/>
+      <c r="C58" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D58" s="70" t="n"/>
+      <c r="D58" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="70" t="inlineStr">
+      <c r="A59" s="68" t="inlineStr">
         <is>
           <t>ft_Detail engineering design drawing</t>
         </is>
       </c>
-      <c r="B59" s="33" t="n"/>
-      <c r="C59" s="30" t="inlineStr">
+      <c r="B59" s="31" t="n"/>
+      <c r="C59" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D59" s="70" t="n"/>
+      <c r="D59" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="70" t="inlineStr">
+      <c r="A60" s="68" t="inlineStr">
         <is>
           <t>ft_Material approval document</t>
         </is>
       </c>
-      <c r="B60" s="33" t="n"/>
-      <c r="C60" s="30" t="inlineStr">
+      <c r="B60" s="31" t="n"/>
+      <c r="C60" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D60" s="70" t="n"/>
+      <c r="D60" s="68" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="70" t="inlineStr">
+      <c r="A61" s="68" t="inlineStr">
         <is>
           <t>ft_Operations and maintenance manual (O&amp;M)</t>
         </is>
       </c>
-      <c r="B61" s="33" t="n"/>
-      <c r="C61" s="30" t="inlineStr">
+      <c r="B61" s="31" t="n"/>
+      <c r="C61" s="28" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="D61" s="33" t="inlineStr">
-        <is>
-          <t>After commissioning</t>
+      <c r="D61" s="31" t="inlineStr">
+        <is>
+          <t>Test1</t>
         </is>
       </c>
     </row>
     <row r="62" ht="14.4" customHeight="1">
-      <c r="A62" s="46" t="inlineStr">
+      <c r="A62" s="44" t="inlineStr">
         <is>
           <t>ftn_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
         </is>
       </c>
-      <c r="B62" s="46" t="n"/>
-      <c r="C62" s="46" t="n"/>
-      <c r="D62" s="46" t="n"/>
+      <c r="B62" s="44" t="n"/>
+      <c r="C62" s="44" t="n"/>
+      <c r="D62" s="44" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="42" t="n"/>
-      <c r="B63" s="42" t="n"/>
-      <c r="C63" s="42" t="n"/>
-      <c r="D63" s="42" t="n"/>
-      <c r="E63" s="42" t="n"/>
+      <c r="A63" s="40" t="n"/>
+      <c r="B63" s="40" t="n"/>
+      <c r="C63" s="40" t="n"/>
+      <c r="D63" s="40" t="n"/>
+      <c r="E63" s="40" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="inlineStr">
+      <c r="A67" s="49" t="inlineStr">
         <is>
           <t>sub_VI. TERMS AND CONDITIONS</t>
         </is>
       </c>
-      <c r="B67" s="51" t="n"/>
-      <c r="C67" s="51" t="n"/>
+      <c r="B67" s="49" t="n"/>
+      <c r="C67" s="49" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="72" t="inlineStr">
+      <c r="A68" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">th_Terms </t>
         </is>
       </c>
-      <c r="B68" s="82">
+      <c r="B68" s="80">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v/>
       </c>
-      <c r="C68" s="55" t="n"/>
-      <c r="D68" s="41" t="inlineStr">
+      <c r="C68" s="82" t="n"/>
+      <c r="D68" s="39" t="inlineStr">
         <is>
           <t>Simalungun, Sumatera Utara, Indonesia (City, Province, Country in DIP_Customer Information)</t>
         </is>
       </c>
-      <c r="E68" s="40" t="n"/>
-      <c r="F68" s="40" t="n"/>
-      <c r="G68" s="40" t="n"/>
-      <c r="H68" s="40" t="n"/>
-      <c r="I68" s="40" t="n"/>
+      <c r="E68" s="38" t="n"/>
+      <c r="F68" s="38" t="n"/>
+      <c r="G68" s="38" t="n"/>
+      <c r="H68" s="38" t="n"/>
+      <c r="I68" s="38" t="n"/>
     </row>
     <row r="69" ht="14.4" customHeight="1">
-      <c r="A69" s="72" t="inlineStr">
+      <c r="A69" s="70" t="inlineStr">
         <is>
           <t>thr_Payments</t>
         </is>
       </c>
-      <c r="B69" s="80" t="inlineStr">
+      <c r="B69" s="78" t="inlineStr">
         <is>
           <t>tdi_-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
         </is>
       </c>
-      <c r="C69" s="55" t="n"/>
-      <c r="D69" s="40" t="inlineStr">
+      <c r="C69" s="82" t="n"/>
+      <c r="D69" s="38" t="inlineStr">
         <is>
           <t>Default Percentage: 30%, but user can change</t>
         </is>
       </c>
-      <c r="E69" s="40" t="n"/>
-      <c r="F69" s="40" t="n"/>
-      <c r="G69" s="40" t="n"/>
-      <c r="H69" s="40" t="n"/>
-      <c r="I69" s="40" t="n"/>
+      <c r="E69" s="38" t="n"/>
+      <c r="F69" s="38" t="n"/>
+      <c r="G69" s="38" t="n"/>
+      <c r="H69" s="38" t="n"/>
+      <c r="I69" s="38" t="n"/>
     </row>
     <row r="70" ht="14.4" customHeight="1">
-      <c r="A70" s="73" t="n"/>
-      <c r="B70" s="71" t="inlineStr">
+      <c r="A70" s="71" t="n"/>
+      <c r="B70" s="69" t="inlineStr">
         <is>
           <t>tdi_-        $P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
         </is>
       </c>
-      <c r="C70" s="55" t="n"/>
-      <c r="D70" s="40" t="inlineStr">
+      <c r="C70" s="82" t="n"/>
+      <c r="D70" s="38" t="inlineStr">
         <is>
           <t>Default Percentage: 50%, but user can change</t>
         </is>
       </c>
-      <c r="E70" s="40" t="n"/>
-      <c r="F70" s="40" t="n"/>
-      <c r="G70" s="40" t="n"/>
-      <c r="H70" s="40" t="n"/>
-      <c r="I70" s="40" t="n"/>
+      <c r="E70" s="38" t="n"/>
+      <c r="F70" s="38" t="n"/>
+      <c r="G70" s="38" t="n"/>
+      <c r="H70" s="38" t="n"/>
+      <c r="I70" s="38" t="n"/>
     </row>
     <row r="71" ht="14.4" customHeight="1">
-      <c r="A71" s="73" t="n"/>
-      <c r="B71" s="71" t="inlineStr">
+      <c r="A71" s="71" t="n"/>
+      <c r="B71" s="69" t="inlineStr">
         <is>
           <t>tdi_-        $P3$% Balance Payment immediately after commissioning</t>
         </is>
       </c>
-      <c r="C71" s="55" t="n"/>
-      <c r="D71" s="40" t="inlineStr">
+      <c r="C71" s="82" t="n"/>
+      <c r="D71" s="38" t="inlineStr">
         <is>
           <t>Default Percentage: 15%, but user can change</t>
         </is>
       </c>
-      <c r="E71" s="40" t="n"/>
-      <c r="F71" s="40" t="n"/>
-      <c r="G71" s="40" t="n"/>
-      <c r="H71" s="40" t="n"/>
-      <c r="I71" s="40" t="n"/>
+      <c r="E71" s="38" t="n"/>
+      <c r="F71" s="38" t="n"/>
+      <c r="G71" s="38" t="n"/>
+      <c r="H71" s="38" t="n"/>
+      <c r="I71" s="38" t="n"/>
     </row>
     <row r="72" ht="14.4" customHeight="1">
-      <c r="A72" s="74" t="n"/>
-      <c r="B72" s="71" t="inlineStr">
+      <c r="A72" s="72" t="n"/>
+      <c r="B72" s="69" t="inlineStr">
         <is>
           <t>tdi_-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
         </is>
       </c>
-      <c r="C72" s="55" t="n"/>
-      <c r="D72" s="40" t="inlineStr">
+      <c r="C72" s="82" t="n"/>
+      <c r="D72" s="38" t="inlineStr">
         <is>
           <t>Default Percentage: 5%, but user can change</t>
         </is>
       </c>
-      <c r="E72" s="40" t="n"/>
-      <c r="F72" s="40" t="n"/>
-      <c r="G72" s="40" t="n"/>
-      <c r="H72" s="40" t="n"/>
-      <c r="I72" s="40" t="n"/>
+      <c r="E72" s="38" t="n"/>
+      <c r="F72" s="38" t="n"/>
+      <c r="G72" s="38" t="n"/>
+      <c r="H72" s="38" t="n"/>
+      <c r="I72" s="38" t="n"/>
     </row>
     <row r="73" ht="81.59999999999999" customHeight="1">
-      <c r="A73" s="72" t="inlineStr">
+      <c r="A73" s="70" t="inlineStr">
         <is>
           <t>th_Due Dates</t>
         </is>
       </c>
-      <c r="B73" s="79">
+      <c r="B73" s="77">
         <f>J73&amp;K73&amp;L73</f>
         <v/>
       </c>
-      <c r="C73" s="55" t="n"/>
-      <c r="D73" s="41" t="inlineStr">
+      <c r="C73" s="82" t="n"/>
+      <c r="D73" s="39" t="inlineStr">
         <is>
           <t>default: fourteen (14) days, but user can change based on Invoicing Term in DIP_Project Information</t>
         </is>
       </c>
-      <c r="E73" s="40" t="n"/>
-      <c r="F73" s="40" t="n"/>
-      <c r="G73" s="40" t="n"/>
-      <c r="H73" s="40" t="n"/>
-      <c r="I73" s="40" t="inlineStr">
+      <c r="E73" s="38" t="n"/>
+      <c r="F73" s="38" t="n"/>
+      <c r="G73" s="38" t="n"/>
+      <c r="H73" s="38" t="n"/>
+      <c r="I73" s="38" t="inlineStr">
         <is>
           <t>Helper:</t>
         </is>
       </c>
-      <c r="J73" s="52" t="inlineStr">
+      <c r="J73" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">td_All invoices are due and payable at the specified payment date or </t>
         </is>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="50">
         <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
         <v/>
       </c>
-      <c r="L73" s="52" t="inlineStr">
+      <c r="L73" s="50" t="inlineStr">
         <is>
           <t>days after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
         </is>
       </c>
     </row>
     <row r="74" ht="14.4" customHeight="1">
-      <c r="A74" s="72" t="inlineStr">
+      <c r="A74" s="70" t="inlineStr">
         <is>
           <t>th_Packing</t>
         </is>
       </c>
-      <c r="B74" s="76" t="inlineStr">
+      <c r="B74" s="74" t="inlineStr">
         <is>
           <t>td_All items suitably packed for overland transport by trucking</t>
         </is>
       </c>
-      <c r="C74" s="55" t="n"/>
+      <c r="C74" s="82" t="n"/>
     </row>
     <row r="75" ht="14.4" customHeight="1">
-      <c r="A75" s="72" t="inlineStr">
+      <c r="A75" s="70" t="inlineStr">
         <is>
           <t>th_Delivery</t>
         </is>
       </c>
-      <c r="B75" s="76" t="inlineStr">
+      <c r="B75" s="74" t="inlineStr">
         <is>
           <t>td_To be determined after confirmation by PO/SPK and down payment</t>
         </is>
       </c>
-      <c r="C75" s="55" t="n"/>
+      <c r="C75" s="82" t="n"/>
     </row>
     <row r="76" ht="28.2" customHeight="1">
-      <c r="A76" s="75" t="inlineStr">
+      <c r="A76" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">thr_System Warranty </t>
         </is>
       </c>
-      <c r="B76" s="69" t="inlineStr">
+      <c r="B76" s="67" t="inlineStr">
         <is>
           <t>td_1.     The system will produce the effluent as refers to the Government’s permit, but the warranty has given with conditions below:</t>
         </is>
       </c>
-      <c r="C76" s="55" t="n"/>
+      <c r="C76" s="82" t="n"/>
     </row>
     <row r="77" ht="14.4" customHeight="1">
-      <c r="A77" s="73" t="n"/>
-      <c r="B77" s="77" t="inlineStr">
+      <c r="A77" s="71" t="n"/>
+      <c r="B77" s="75" t="inlineStr">
         <is>
           <t>td_- The system operated as the basic design and follows the limit of the inlet flow</t>
         </is>
       </c>
-      <c r="C77" s="55" t="n"/>
+      <c r="C77" s="82" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="73" t="n"/>
-      <c r="B78" s="77" t="inlineStr">
+      <c r="A78" s="71" t="n"/>
+      <c r="B78" s="75" t="inlineStr">
         <is>
           <t>td_-  The system operated as its SOP</t>
         </is>
       </c>
-      <c r="C78" s="55" t="n"/>
+      <c r="C78" s="82" t="n"/>
     </row>
     <row r="79" ht="14.4" customHeight="1">
-      <c r="A79" s="73" t="n"/>
-      <c r="B79" s="77" t="inlineStr">
+      <c r="A79" s="71" t="n"/>
+      <c r="B79" s="75" t="inlineStr">
         <is>
           <t>td_-  The raw water temperature is within the operational value of the basic design</t>
         </is>
       </c>
-      <c r="C79" s="55" t="n"/>
+      <c r="C79" s="82" t="n"/>
     </row>
     <row r="80" ht="14.4" customHeight="1">
-      <c r="A80" s="73" t="n"/>
-      <c r="B80" s="77" t="inlineStr">
+      <c r="A80" s="71" t="n"/>
+      <c r="B80" s="75" t="inlineStr">
         <is>
           <t>td_-  All equipment/system equipment works properly and is operated properly</t>
         </is>
       </c>
-      <c r="C80" s="55" t="n"/>
+      <c r="C80" s="82" t="n"/>
     </row>
     <row r="81" ht="14.4" customHeight="1">
-      <c r="A81" s="73" t="n"/>
-      <c r="B81" s="69" t="inlineStr">
+      <c r="A81" s="71" t="n"/>
+      <c r="B81" s="67" t="inlineStr">
         <is>
           <t>td_2.     The warranty is valid if all the system installed by GRINVIRO.</t>
         </is>
       </c>
-      <c r="C81" s="55" t="n"/>
+      <c r="C81" s="82" t="n"/>
     </row>
     <row r="82" ht="41.4" customHeight="1">
-      <c r="A82" s="73" t="n"/>
-      <c r="B82" s="78" t="inlineStr">
+      <c r="A82" s="71" t="n"/>
+      <c r="B82" s="76" t="inlineStr">
         <is>
           <t>td_3.     The default warranty is valid for 365 calendar days since the system has been commissioned or after the system has reach the parameters quality as standard parameters. If the installed product/equipment/material is defective during fabrication (manufacturing defect)/delivery/installation or during commissioning, GRINVIRO will immediately repair or replace the product/equipment/material.</t>
         </is>
       </c>
-      <c r="C82" s="55" t="n"/>
+      <c r="C82" s="82" t="n"/>
     </row>
     <row r="83" ht="14.4" customHeight="1">
-      <c r="A83" s="73" t="n"/>
-      <c r="B83" s="69" t="inlineStr">
+      <c r="A83" s="71" t="n"/>
+      <c r="B83" s="67" t="inlineStr">
         <is>
           <t>td_4.     If there is damage to the system which is an operational negligence during the warranty period:</t>
         </is>
       </c>
-      <c r="C83" s="55" t="n"/>
+      <c r="C83" s="82" t="n"/>
     </row>
     <row r="84" ht="14.4" customHeight="1">
-      <c r="A84" s="73" t="n"/>
-      <c r="B84" s="77" t="inlineStr">
+      <c r="A84" s="71" t="n"/>
+      <c r="B84" s="75" t="inlineStr">
         <is>
           <t>td_-  GRINVIRO will provide support in the form of free repair services</t>
         </is>
       </c>
-      <c r="C84" s="55" t="n"/>
+      <c r="C84" s="82" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="73" t="n"/>
-      <c r="B85" s="77" t="inlineStr">
+      <c r="A85" s="71" t="n"/>
+      <c r="B85" s="75" t="inlineStr">
         <is>
           <t>td_-  If there is a replacement of material/equipment parts, it will be entirely the burden of the buyer</t>
         </is>
       </c>
-      <c r="C85" s="55" t="n"/>
+      <c r="C85" s="82" t="n"/>
     </row>
     <row r="86" ht="33.6" customHeight="1">
-      <c r="A86" s="73" t="n"/>
-      <c r="B86" s="77" t="inlineStr">
+      <c r="A86" s="71" t="n"/>
+      <c r="B86" s="75" t="inlineStr">
         <is>
           <t>td_-  In this case, all accommodation costs (transportation, food and housing costs) are borne by the buyer</t>
         </is>
       </c>
-      <c r="C86" s="55" t="n"/>
+      <c r="C86" s="82" t="n"/>
     </row>
     <row r="87" ht="31.2" customHeight="1">
-      <c r="A87" s="73" t="n"/>
-      <c r="B87" s="77" t="inlineStr">
+      <c r="A87" s="71" t="n"/>
+      <c r="B87" s="75" t="inlineStr">
         <is>
           <t>td_-  When the warranty period has been over, the buyer will be charged for repairs and or replacement costs for equipment parts/materials (if any)</t>
         </is>
       </c>
-      <c r="C87" s="55" t="n"/>
+      <c r="C87" s="82" t="n"/>
     </row>
     <row r="88" ht="48.6" customHeight="1">
-      <c r="A88" s="73" t="n"/>
-      <c r="B88" s="69" t="inlineStr">
+      <c r="A88" s="71" t="n"/>
+      <c r="B88" s="67" t="inlineStr">
         <is>
           <t>td_5.     In this case, the buyer is fully aware of the responsibility for the correct operation and according to the SOP and masters the basics of Waste Water Treatment system science for good system operation and maintenance</t>
         </is>
       </c>
-      <c r="C88" s="55" t="n"/>
+      <c r="C88" s="82" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="74" t="n"/>
-      <c r="B89" s="69" t="inlineStr">
+      <c r="A89" s="72" t="n"/>
+      <c r="B89" s="67" t="inlineStr">
         <is>
           <t xml:space="preserve">td_6.     GRINVIRO will provide the certificate of warranty  </t>
         </is>
       </c>
-      <c r="C89" s="55" t="n"/>
+      <c r="C89" s="82" t="n"/>
     </row>
     <row r="90" ht="30.6" customHeight="1">
-      <c r="A90" s="75" t="inlineStr">
+      <c r="A90" s="73" t="inlineStr">
         <is>
           <t>thr_Equipment Warranty</t>
         </is>
       </c>
-      <c r="B90" s="69" t="inlineStr">
+      <c r="B90" s="67" t="inlineStr">
         <is>
           <t xml:space="preserve">td_1.     Equipment outside the manufacture of Grinviro will be given a warranty following a supplier warranty. </t>
         </is>
       </c>
-      <c r="C90" s="55" t="n"/>
+      <c r="C90" s="82" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="74" t="n"/>
-      <c r="B91" s="69" t="inlineStr">
+      <c r="A91" s="72" t="n"/>
+      <c r="B91" s="67" t="inlineStr">
         <is>
           <t>td_2.     GRINVIRO will provide the certificate of warranty for equipment by principle.</t>
         </is>
       </c>
-      <c r="C91" s="55" t="n"/>
+      <c r="C91" s="82" t="n"/>
     </row>
     <row r="92" ht="55.2" customHeight="1">
-      <c r="A92" s="81" t="inlineStr">
+      <c r="A92" s="79" t="inlineStr">
         <is>
           <t>thr_Termination for Convenience</t>
         </is>
       </c>
-      <c r="B92" s="76" t="inlineStr">
+      <c r="B92" s="74" t="inlineStr">
         <is>
           <t>td_In case the Buyer seeks Termination for convenience of this Contract, such termination shall be effective upon Seller’s receipt of Buyer’s written notice of termination and payment of termination charges in accordance with the Termination Schedule. If Buyer terminates this Contract for convenience, title to the Equipment shall remain with the Seller. Seller may suspend performance upon receipt of Buyer’s termination notice, without incurring any liability to</t>
         </is>
       </c>
-      <c r="C92" s="55" t="n"/>
+      <c r="C92" s="82" t="n"/>
     </row>
     <row r="93" ht="28.8" customHeight="1">
-      <c r="A93" s="73" t="n"/>
-      <c r="B93" s="37" t="inlineStr">
+      <c r="A93" s="71" t="n"/>
+      <c r="B93" s="35" t="inlineStr">
         <is>
           <t>tdm_Receipt of Termination Notice by Seller</t>
         </is>
       </c>
-      <c r="C93" s="37" t="inlineStr">
+      <c r="C93" s="35" t="inlineStr">
         <is>
           <t>tdm_Total Termination Charges, Percent of Total Contract Price</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="73" t="n"/>
-      <c r="B94" s="37" t="inlineStr">
+      <c r="A94" s="71" t="n"/>
+      <c r="B94" s="35" t="inlineStr">
         <is>
           <t>tdm_1 – 30 days (after DP received)</t>
         </is>
       </c>
-      <c r="C94" s="38" t="inlineStr">
+      <c r="C94" s="36" t="inlineStr">
         <is>
           <t>tdm_20%</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="73" t="n"/>
-      <c r="B95" s="37" t="inlineStr">
+      <c r="A95" s="71" t="n"/>
+      <c r="B95" s="35" t="inlineStr">
         <is>
           <t>tdm_31 – 60 days</t>
         </is>
       </c>
-      <c r="C95" s="38" t="inlineStr">
+      <c r="C95" s="36" t="inlineStr">
         <is>
           <t>tdm_40%</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="73" t="n"/>
-      <c r="B96" s="37" t="inlineStr">
+      <c r="A96" s="71" t="n"/>
+      <c r="B96" s="35" t="inlineStr">
         <is>
           <t>tdm_61 – 90 days</t>
         </is>
       </c>
-      <c r="C96" s="38" t="inlineStr">
+      <c r="C96" s="36" t="inlineStr">
         <is>
           <t>tdm_60%</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="73" t="n"/>
-      <c r="B97" s="37" t="inlineStr">
+      <c r="A97" s="71" t="n"/>
+      <c r="B97" s="35" t="inlineStr">
         <is>
           <t>tdm_91 days – Date of RTS</t>
         </is>
       </c>
-      <c r="C97" s="38" t="inlineStr">
+      <c r="C97" s="36" t="inlineStr">
         <is>
           <t>tdm_80%</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="74" t="n"/>
-      <c r="B98" s="37" t="inlineStr">
+      <c r="A98" s="72" t="n"/>
+      <c r="B98" s="35" t="inlineStr">
         <is>
           <t>tdm_After Date of RTS</t>
         </is>
       </c>
-      <c r="C98" s="38" t="inlineStr">
+      <c r="C98" s="36" t="inlineStr">
         <is>
           <t>tdm_100%</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="72" t="inlineStr">
+      <c r="A99" s="70" t="inlineStr">
         <is>
           <t>th_Remarks</t>
         </is>
       </c>
-      <c r="B99" s="76" t="inlineStr">
+      <c r="B99" s="74" t="inlineStr">
         <is>
           <t>td_The technical specifications may vary between equivalent suppliers and/ or technical details</t>
         </is>
       </c>
-      <c r="C99" s="55" t="n"/>
+      <c r="C99" s="82" t="n"/>
     </row>
     <row r="100" ht="30" customHeight="1">
-      <c r="A100" s="72" t="inlineStr">
+      <c r="A100" s="70" t="inlineStr">
         <is>
           <t>th_exchange Rate</t>
         </is>
       </c>
-      <c r="B100" s="70" t="inlineStr">
+      <c r="B100" s="68" t="inlineStr">
         <is>
           <t>td_This proposal is based on an exchange rate of IDR 16,500 to USD. If the rate exceeds this value, it will impact the project/equipment cost</t>
         </is>
       </c>
-      <c r="C100" s="55" t="n"/>
+      <c r="C100" s="82" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="72" t="inlineStr">
+      <c r="A101" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">th_Validity </t>
         </is>
       </c>
-      <c r="B101" s="76" t="inlineStr">
+      <c r="B101" s="74" t="inlineStr">
         <is>
           <t>td_1 month from date of quotation issuance</t>
         </is>
       </c>
-      <c r="C101" s="55" t="n"/>
+      <c r="C101" s="82" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="72" t="inlineStr">
+      <c r="A102" s="70" t="inlineStr">
         <is>
           <t>th_Taxes</t>
         </is>
       </c>
-      <c r="B102" s="76" t="inlineStr">
+      <c r="B102" s="74" t="inlineStr">
         <is>
           <t>td_Exclude PPN 11 % and other taxes</t>
         </is>
       </c>
-      <c r="C102" s="55" t="n"/>
+      <c r="C102" s="82" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5630,7 +6033,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F97F74-91D1-4088-B1C4-C45D4E2196FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8127C0-036A-46D1-AF73-B40CD58B4B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="A">#REF!</definedName>
     <definedName name="ABS" localSheetId="0">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="abut">#REF!</definedName>
-    <definedName name="AERATION_ONLY" localSheetId="1">'[2]DIP_Customer Information'!#REF!</definedName>
+    <definedName name="AERATION_ONLY" localSheetId="1">'[1]DIP_Customer Information'!#REF!</definedName>
     <definedName name="AERATION_ONLY">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="alpha">#REF!</definedName>
     <definedName name="Average_State_Point_Analysis">#REF!</definedName>
@@ -51,12 +51,12 @@
     <definedName name="dayadukungan">#REF!</definedName>
     <definedName name="dP">#REF!</definedName>
     <definedName name="DS_No">#REF!</definedName>
-    <definedName name="ETA_Motor" localSheetId="0">'[1]DATA ENGINE'!$B$26</definedName>
+    <definedName name="ETA_Motor" localSheetId="0">'[2]DATA ENGINE'!$B$26</definedName>
     <definedName name="ETA_Motor">#REF!</definedName>
-    <definedName name="ETA_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[1]DATA ENGINE'!$B$58)</definedName>
+    <definedName name="ETA_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[2]DATA ENGINE'!$B$58)</definedName>
     <definedName name="ETA_Range">INDIRECT("'DATA ENGINE'!" &amp;#REF!)</definedName>
     <definedName name="ETA_RP">#REF!</definedName>
-    <definedName name="ETAs_Range" localSheetId="0">'[1]DATA GRAPH'!$D$82:$D$131</definedName>
+    <definedName name="ETAs_Range" localSheetId="0">'[2]DATA GRAPH'!$D$82:$D$131</definedName>
     <definedName name="ETAs_Range">#REF!</definedName>
     <definedName name="ETAs_RP">#REF!</definedName>
     <definedName name="f">#REF!</definedName>
@@ -67,17 +67,17 @@
     <definedName name="Flow">#REF!</definedName>
     <definedName name="Fp">#REF!</definedName>
     <definedName name="Fr">#REF!</definedName>
-    <definedName name="Fruit" localSheetId="1">'[2]DIP_Customer Information'!#REF!</definedName>
+    <definedName name="Fruit" localSheetId="1">'[1]DIP_Customer Information'!#REF!</definedName>
     <definedName name="Fruit">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="g">#REF!</definedName>
     <definedName name="girderrr">#REF!</definedName>
     <definedName name="H_DP">#REF!</definedName>
-    <definedName name="H_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[1]DATA ENGINE'!$B$49)</definedName>
+    <definedName name="H_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[2]DATA ENGINE'!$B$49)</definedName>
     <definedName name="H_Range">INDIRECT("'DATA ENGINE'!" &amp;#REF!)</definedName>
     <definedName name="Inlet">#REF!</definedName>
     <definedName name="Inlet_d">#REF!</definedName>
     <definedName name="K">#REF!</definedName>
-    <definedName name="k_DP" localSheetId="0">'[1]DATA ENGINE'!$B$15/'[1]DATA ENGINE'!$B$14^2</definedName>
+    <definedName name="k_DP" localSheetId="0">'[2]DATA ENGINE'!$B$15/'[2]DATA ENGINE'!$B$14^2</definedName>
     <definedName name="k_DP">#REF!/#REF!^2</definedName>
     <definedName name="k_G">9.8</definedName>
     <definedName name="L">#REF!</definedName>
@@ -99,9 +99,9 @@
     <definedName name="N.8">#REF!</definedName>
     <definedName name="N.9">#REF!</definedName>
     <definedName name="Ndoo">#REF!</definedName>
-    <definedName name="NOSCREEN" localSheetId="1">'[2]DIP_Customer Information'!#REF!</definedName>
+    <definedName name="NOSCREEN" localSheetId="1">'[1]DIP_Customer Information'!#REF!</definedName>
     <definedName name="NOSCREEN">'DIP_Customer Information'!#REF!</definedName>
-    <definedName name="NPSH_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[1]DATA ENGINE'!$B$67)</definedName>
+    <definedName name="NPSH_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[2]DATA ENGINE'!$B$67)</definedName>
     <definedName name="NPSH_Range">INDIRECT("'DATA ENGINE'!" &amp;#REF!)</definedName>
     <definedName name="NPSH_RP">#REF!</definedName>
     <definedName name="oj">#REF!</definedName>
@@ -109,10 +109,10 @@
     <definedName name="P1_Range">#REF!</definedName>
     <definedName name="P1_RP">#REF!</definedName>
     <definedName name="P2_DP">#REF!</definedName>
-    <definedName name="P2_Range" localSheetId="0">'[1]DATA GRAPH'!$F$82:$F$131</definedName>
+    <definedName name="P2_Range" localSheetId="0">'[2]DATA GRAPH'!$F$82:$F$131</definedName>
     <definedName name="P2_Range">#REF!</definedName>
     <definedName name="P2_RP">#REF!</definedName>
-    <definedName name="Parabolic_Range" localSheetId="0">'[1]DATA GRAPH'!$H$82:$H$131</definedName>
+    <definedName name="Parabolic_Range" localSheetId="0">'[2]DATA GRAPH'!$H$82:$H$131</definedName>
     <definedName name="Parabolic_Range">#REF!</definedName>
     <definedName name="parts">#REF!</definedName>
     <definedName name="Pc">#REF!</definedName>
@@ -128,16 +128,16 @@
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Pv">#REF!</definedName>
     <definedName name="Pvc">#REF!</definedName>
-    <definedName name="Q_DP" localSheetId="0">'[1]DATA ENGINE'!$B$14</definedName>
+    <definedName name="Q_DP" localSheetId="0">'[2]DATA ENGINE'!$B$14</definedName>
     <definedName name="Q_DP">#REF!</definedName>
     <definedName name="Q_Min">#REF!</definedName>
-    <definedName name="Q_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[1]DATA ENGINE'!$B$45)</definedName>
+    <definedName name="Q_Range" localSheetId="0">INDIRECT("'DATA ENGINE'!" &amp; '[2]DATA ENGINE'!$B$45)</definedName>
     <definedName name="Q_Range">INDIRECT("'DATA ENGINE'!" &amp;#REF!)</definedName>
     <definedName name="Q_RP">#REF!</definedName>
     <definedName name="RDS" localSheetId="0">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="Re">#REF!</definedName>
     <definedName name="REV">#REF!</definedName>
-    <definedName name="rho" localSheetId="0">'[1]DATA ENGINE'!$B$4</definedName>
+    <definedName name="rho" localSheetId="0">'[2]DATA ENGINE'!$B$4</definedName>
     <definedName name="rho">#REF!</definedName>
     <definedName name="servlist">#REF!</definedName>
     <definedName name="SG">#REF!</definedName>
@@ -159,11 +159,11 @@
     <definedName name="TB_4Cx">#REF!</definedName>
     <definedName name="tiangpancang10.1ver2">#REF!</definedName>
     <definedName name="title">#REF!</definedName>
-    <definedName name="vegetables" localSheetId="1">'[2]DIP_Customer Information'!#REF!</definedName>
+    <definedName name="vegetables" localSheetId="1">'[1]DIP_Customer Information'!#REF!</definedName>
     <definedName name="vegetables">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="Vo">#REF!</definedName>
     <definedName name="WTE_AERATION" localSheetId="0">'DIP_Customer Information'!#REF!</definedName>
-    <definedName name="WTE_ONLY" localSheetId="1">'[2]DIP_Customer Information'!#REF!</definedName>
+    <definedName name="WTE_ONLY" localSheetId="1">'[1]DIP_Customer Information'!#REF!</definedName>
     <definedName name="WTE_ONLY">'DIP_Customer Information'!#REF!</definedName>
     <definedName name="x">#REF!</definedName>
     <definedName name="xo">#REF!</definedName>
@@ -227,15 +227,9 @@
     <t>f_1Province</t>
   </si>
   <si>
-    <t>Jawa Tengah1</t>
-  </si>
-  <si>
     <t xml:space="preserve">f_1City </t>
   </si>
   <si>
-    <t>Malang1</t>
-  </si>
-  <si>
     <t>f_1Site Address</t>
   </si>
   <si>
@@ -1004,9 +998,6 @@
     <t>fd_Process 2</t>
   </si>
   <si>
-    <t>EQUALIZING</t>
-  </si>
-  <si>
     <t>fd_Process 3</t>
   </si>
   <si>
@@ -1139,6 +1130,9 @@
     <t>ft_Continuous 24-hours performance test of the waste water treatment system AT DESIGN CAPACITY with design influent quality and effluent discharged comply to contract</t>
   </si>
   <si>
+    <t>To assist as necessary</t>
+  </si>
+  <si>
     <t>ft_Chemical during commissioning</t>
   </si>
   <si>
@@ -1187,6 +1181,9 @@
     <t>ft_Operations and maintenance manual (O&amp;M)</t>
   </si>
   <si>
+    <t>After commissioning</t>
+  </si>
+  <si>
     <t>ftn_Notes: Whichever scope not stated but required for the successful commissioning of WWTP system shall be discussed</t>
   </si>
   <si>
@@ -1202,27 +1199,15 @@
     <t>thr_Payments</t>
   </si>
   <si>
-    <t>tdi_-        $P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
-  </si>
-  <si>
     <t>Default Percentage: 30%, but user can change</t>
   </si>
   <si>
-    <t>tdi_-        $P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
-  </si>
-  <si>
     <t>Default Percentage: 50%, but user can change</t>
   </si>
   <si>
-    <t>tdi_-        $P3$% Balance Payment immediately after commissioning</t>
-  </si>
-  <si>
     <t>Default Percentage: 15%, but user can change</t>
   </si>
   <si>
-    <t>tdi_-        $P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
-  </si>
-  <si>
     <t>Default Percentage: 5%, but user can change</t>
   </si>
   <si>
@@ -1388,10 +1373,25 @@
     <t>sub_</t>
   </si>
   <si>
-    <t>To assist as necessary</t>
-  </si>
-  <si>
-    <t>After commissioning</t>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>tdi_$P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
+  </si>
+  <si>
+    <t>tdi_$P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
+  </si>
+  <si>
+    <t>tdi_$P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
+  </si>
+  <si>
+    <t>tdi_$P3$% Balance Payment immediately after commissioning</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1404,7 @@
     <numFmt numFmtId="164" formatCode="0.0\ &quot;m2&quot;"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,12 +1437,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -1645,9 +1639,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1730,13 +1724,10 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1759,8 +1750,8 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1772,16 +1763,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1793,39 +1784,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1838,13 +1829,16 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,28 +1846,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1901,6 +1892,29 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="DIP_Customer Information"/>
+      <sheetName val="DIP_Project Information"/>
+      <sheetName val="DATA_Proposal"/>
+      <sheetName val="DATA_OPEX"/>
+      <sheetName val="DATA_BOQ"/>
+      <sheetName val="DATA_ELI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="INITIAL SETTING"/>
       <sheetName val="DATA INPUT"/>
       <sheetName val="DATA GATE"/>
@@ -2519,29 +2533,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DIP_Customer Information"/>
-      <sheetName val="DIP_Project Information"/>
-      <sheetName val="DATA_Proposal"/>
-      <sheetName val="DATA_OPEX"/>
-      <sheetName val="DATA_BOQ"/>
-      <sheetName val="DATA_ELI"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2868,7 +2859,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -2878,22 +2869,22 @@
     <col min="3" max="3" width="68.21875" style="1" customWidth="1"/>
     <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" style="1" customWidth="1"/>
-    <col min="15" max="59" width="8.44140625" style="1" customWidth="1"/>
-    <col min="60" max="16384" width="8.44140625" style="1"/>
+    <col min="15" max="60" width="8.44140625" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="55"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -2907,10 +2898,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="55"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -2927,7 +2918,7 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="55"/>
@@ -2946,7 +2937,7 @@
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="55"/>
@@ -2965,7 +2956,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="55"/>
@@ -2981,10 +2972,10 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="55"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3001,8 +2992,8 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>11</v>
+      <c r="B8" s="61" t="s">
+        <v>397</v>
       </c>
       <c r="C8" s="55"/>
       <c r="H8" s="1"/>
@@ -3017,8 +3008,8 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>13</v>
+      <c r="B9" s="61" t="s">
+        <v>395</v>
       </c>
       <c r="C9" s="55"/>
       <c r="H9" s="1"/>
@@ -3031,10 +3022,10 @@
     </row>
     <row r="10" spans="1:14" ht="13.2" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>396</v>
       </c>
       <c r="C10" s="55"/>
       <c r="H10" s="1"/>
@@ -3047,10 +3038,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="4"/>
@@ -3066,10 +3057,10 @@
     </row>
     <row r="12" spans="1:14" ht="13.2" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="4"/>
@@ -3085,10 +3076,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.2" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="55"/>
       <c r="H13" s="1"/>
@@ -3100,10 +3091,10 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A14" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="54"/>
+      <c r="A14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="55"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3115,13 +3106,13 @@
     </row>
     <row r="15" spans="1:14" ht="13.2" customHeight="1">
       <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3136,13 +3127,13 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3157,13 +3148,13 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" customHeight="1">
       <c r="A17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3175,13 +3166,13 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3193,13 +3184,13 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" customHeight="1">
       <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3214,13 +3205,13 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" customHeight="1">
       <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3235,13 +3226,13 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3256,13 +3247,13 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" customHeight="1">
       <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3274,13 +3265,13 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3292,10 +3283,10 @@
     </row>
     <row r="24" spans="1:14" ht="13.2" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="55"/>
       <c r="H24" s="1"/>
@@ -3307,10 +3298,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A25" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="54"/>
+      <c r="A25" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="59"/>
       <c r="C25" s="55"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -3325,10 +3316,10 @@
     </row>
     <row r="26" spans="1:14" ht="13.2" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="4"/>
@@ -3343,10 +3334,10 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="55"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3361,9 +3352,9 @@
     </row>
     <row r="28" spans="1:14" ht="13.2" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="55"/>
@@ -3377,10 +3368,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.2" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="55"/>
       <c r="H29" s="1"/>
@@ -3393,10 +3384,10 @@
     </row>
     <row r="30" spans="1:14" ht="13.2" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="55"/>
       <c r="H30" s="1"/>
@@ -3409,10 +3400,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="4"/>
@@ -3428,10 +3419,10 @@
     </row>
     <row r="32" spans="1:14" ht="13.2" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="4"/>
@@ -3447,10 +3438,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.2" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="55"/>
       <c r="H33" s="1"/>
@@ -3461,29 +3452,29 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="43" customFormat="1" ht="13.2" customHeight="1">
+    <row r="34" spans="1:14" s="42" customFormat="1" ht="13.2" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" customHeight="1">
       <c r="A35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3498,13 +3489,13 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" customHeight="1">
       <c r="A36" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3516,13 +3507,13 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" customHeight="1">
       <c r="A37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3534,13 +3525,13 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" customHeight="1">
       <c r="A38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3555,13 +3546,13 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" customHeight="1">
       <c r="A39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3576,13 +3567,13 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" customHeight="1">
       <c r="A40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3597,13 +3588,13 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" customHeight="1">
       <c r="A41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3615,10 +3606,10 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="55"/>
       <c r="H42" s="1"/>
@@ -3749,12 +3740,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
@@ -3767,12 +3752,18 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3785,7 +3776,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3799,540 +3790,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>153</v>
-      </c>
       <c r="D24" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="D28" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="D36" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="D39" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="D41" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4356,7 @@
       <formula1>"LEVEL-1,LEVEL-2,LEVEL-3,LEVEL-4,LEVEL-5,LEVEL-6"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{00000000-0002-0000-0100-000008000000}">
-      <formula1>"ZONE-1,ZONE-2,ZONE-3,ZONE-4"</formula1>
+      <formula1>"ZONE-1,ZONE-2,ZONE-3,ZONE-4,ZONE-5,ZONE-6"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18 B20:B21 B23 B26" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"GRADE-A,GRADE-B,GRADE-C,GRADE-E"</formula1>
@@ -4407,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4420,475 +4411,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="59"/>
       <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>205</v>
       </c>
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>207</v>
       </c>
       <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>185</v>
+        <v>210</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>183</v>
       </c>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>212</v>
       </c>
       <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>202</v>
+        <v>214</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>202</v>
+        <v>216</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>202</v>
+        <v>218</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>202</v>
+        <v>220</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>202</v>
+        <v>222</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>202</v>
+        <v>224</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>202</v>
+        <v>226</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>202</v>
+        <v>228</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>231</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>235</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>235</v>
       </c>
       <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>241</v>
       </c>
       <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>243</v>
       </c>
       <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>202</v>
+        <v>245</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>202</v>
+        <v>247</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>202</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>202</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>202</v>
+        <v>252</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>202</v>
+        <v>254</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>202</v>
+        <v>17</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>233</v>
+        <v>257</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>235</v>
+        <v>259</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="55"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="55"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B37" s="22" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="55"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C39" s="55"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="65" t="s">
         <v>272</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C43" s="55"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C44" s="55"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C45" s="55"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C46" s="55"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>268</v>
       </c>
       <c r="C47" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B46:C46"/>
@@ -4905,8 +4889,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"INTERNAL,THIRD PARTY"</formula1>
     </dataValidation>
@@ -4928,10 +4919,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:C39" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>"ANAPAK"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B40:C47" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:C47" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"ANAPAK,EQUALIZING,OWS,ANAFLOAT,AERATION,SECONDARY CLARIFIER,MMF,ACF,MPS,INLETTANK,INTERMEDIATETANK,FINALTANK,DAF,MBR,BWRO,CCRO,SWRO,ANAMEM,AOP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4944,7 +4932,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4955,985 +4943,988 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="B3" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C3" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="45"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="B5" s="51" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="31" t="str">
         <f>"ft_To obtain license to operate " &amp; 'DIP_Project Information'!B3 &amp; " such as SLF (Sertifikat Laik Fungsi)"</f>
         <v>ft_To obtain license to operate WWTP such as SLF (Sertifikat Laik Fungsi)</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A9" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30" t="str">
+      <c r="A10" s="29" t="str">
         <f>"ftg_Civil and Structural Works – " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
         <v>ftg_Civil and Structural Works – WWTP System</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="B15" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A16" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="31"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="31" t="str">
         <f>"ft_Design and drawing for " &amp; 'DIP_Project Information'!B3 &amp; " concrete tank, pump/blower room, control room, chemical room "</f>
         <v xml:space="preserve">ft_Design and drawing for WWTP concrete tank, pump/blower room, control room, chemical room </v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="31"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="31" t="str">
         <f>"ft_Foundation for " &amp; 'DIP_Project Information'!B3 &amp; " containerized tank, pump/blower room, control room, chemical room"</f>
         <v>ft_Foundation for WWTP containerized tank, pump/blower room, control room, chemical room</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="31"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="31"/>
+      <c r="A19" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30" t="str">
+      <c r="A21" s="29" t="str">
         <f>"ftg_Mechanical and Piping – "&amp;'DIP_Project Information'!B3&amp; " System"</f>
         <v>ftg_Mechanical and Piping – WWTP System</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A22" s="32" t="str">
+      <c r="A22" s="31" t="str">
         <f>"ft_Supply and installation of all mechanical material for " &amp; 'DIP_Project Information'!B3 &amp; " system"</f>
         <v>ft_Supply and installation of all mechanical material for WWTP system</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="31"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32" t="str">
+      <c r="A23" s="31" t="str">
         <f>"ft_Design, testing and commissioning of "&amp;'DIP_Project Information'!B3&amp;"  system"</f>
         <v>ft_Design, testing and commissioning of WWTP  system</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="31"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32" t="str">
+      <c r="A25" s="31" t="str">
         <f>"ft_Inlet wastewater transfer piping to " &amp; 'DIP_Project Information'!B3 &amp; " System"</f>
         <v>ft_Inlet wastewater transfer piping to WWTP System</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32" t="str">
+      <c r="A26" s="31" t="str">
         <f>"ft_Piping &amp; final system for effluent "&amp;'DIP_Project Information'!B3&amp;" to discharge"</f>
         <v>ft_Piping &amp; final system for effluent WWTP to discharge</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A29" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="32" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A33" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="30" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="32" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="B35" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="32" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A37" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="32" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A38" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="32" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="30" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" customHeight="1">
+      <c r="A42" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="32" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="30" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" customHeight="1">
-      <c r="A42" s="32" t="s">
+      <c r="B43" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="32" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="43.2" customHeight="1">
-      <c r="A46" s="32" t="str">
+      <c r="A46" s="31" t="str">
         <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation during the commissioning by the internal laboratory (the contractor)"</f>
         <v>ft_Analyze the parameters (for WWTP system) as per regulation during the commissioning by the internal laboratory (the contractor)</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="31"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" ht="28.8" customHeight="1">
-      <c r="A47" s="32" t="str">
+      <c r="A47" s="31" t="str">
         <f>"ft_Analyze the parameters (for " &amp; 'DIP_Project Information'!B3 &amp; " system) as per regulation at the end of the commissioning by the external laboratory"</f>
         <v>ft_Analyze the parameters (for WWTP system) as per regulation at the end of the commissioning by the external laboratory</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="32" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="32" t="s">
+      <c r="B51" s="51"/>
+      <c r="C51" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="32" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="32" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="30" t="s">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="32" t="s">
+      <c r="B56" s="51"/>
+      <c r="C56" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D54" s="31"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="32" t="s">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D56" s="31"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="32" t="s">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="32" t="s">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58" s="31"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="32" t="s">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="32" t="s">
+      <c r="B61" s="51"/>
+      <c r="C61" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="32" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A62" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A62" s="44" t="s">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="48" t="s">
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="37" t="s">
+      <c r="B68" s="67" t="str">
+        <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
+        <v>td_Cost And Freight (CFR) Malang, Jawa Timur, Indonesia</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="81" t="str">
-        <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
-        <v>td_Cost And Freight (CFR) Malang1, Jawa Tengah1, Indonesia2</v>
-      </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="39" t="s">
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+    </row>
+    <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
+      <c r="A69" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-    </row>
-    <row r="69" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A69" s="71" t="s">
+      <c r="B69" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1">
+      <c r="A70" s="72"/>
+      <c r="B70" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A70" s="72"/>
-      <c r="B70" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
       <c r="A71" s="72"/>
-      <c r="B71" s="70" t="s">
-        <v>342</v>
+      <c r="B71" s="75" t="s">
+        <v>401</v>
       </c>
       <c r="C71" s="55"/>
-      <c r="D71" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
+      <c r="D71" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
       <c r="A72" s="73"/>
-      <c r="B72" s="70" t="s">
-        <v>344</v>
+      <c r="B72" s="75" t="s">
+        <v>400</v>
       </c>
       <c r="C72" s="55"/>
-      <c r="D72" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
+      <c r="D72" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
     </row>
     <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1">
-      <c r="A73" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="78" t="str">
+      <c r="A73" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B73" s="77" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or forty-five (45) daysdays after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
       <c r="C73" s="55"/>
-      <c r="D73" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="J73" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="K73" s="49" t="str">
+      <c r="D73" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J73" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K73" s="48" t="str">
         <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
         <v>forty-five (45) days</v>
       </c>
-      <c r="L73" s="49" t="s">
-        <v>350</v>
+      <c r="L73" s="48" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A74" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>352</v>
+      <c r="A74" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="70" t="s">
+        <v>347</v>
       </c>
       <c r="C74" s="55"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A75" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B75" s="75" t="s">
-        <v>354</v>
+      <c r="A75" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>349</v>
       </c>
       <c r="C75" s="55"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
       <c r="A76" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="B76" s="68" t="s">
-        <v>356</v>
+        <v>350</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>351</v>
       </c>
       <c r="C76" s="55"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
       <c r="A77" s="72"/>
-      <c r="B77" s="76" t="s">
-        <v>357</v>
+      <c r="B77" s="68" t="s">
+        <v>352</v>
       </c>
       <c r="C77" s="55"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="72"/>
-      <c r="B78" s="76" t="s">
-        <v>358</v>
+      <c r="B78" s="68" t="s">
+        <v>353</v>
       </c>
       <c r="C78" s="55"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
       <c r="A79" s="72"/>
-      <c r="B79" s="76" t="s">
-        <v>359</v>
+      <c r="B79" s="68" t="s">
+        <v>354</v>
       </c>
       <c r="C79" s="55"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
       <c r="A80" s="72"/>
-      <c r="B80" s="76" t="s">
-        <v>360</v>
+      <c r="B80" s="68" t="s">
+        <v>355</v>
       </c>
       <c r="C80" s="55"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
       <c r="A81" s="72"/>
-      <c r="B81" s="68" t="s">
-        <v>361</v>
+      <c r="B81" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="C81" s="55"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
       <c r="A82" s="72"/>
-      <c r="B82" s="77" t="s">
-        <v>362</v>
+      <c r="B82" s="76" t="s">
+        <v>357</v>
       </c>
       <c r="C82" s="55"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
       <c r="A83" s="72"/>
-      <c r="B83" s="68" t="s">
-        <v>363</v>
+      <c r="B83" s="69" t="s">
+        <v>358</v>
       </c>
       <c r="C83" s="55"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
       <c r="A84" s="72"/>
-      <c r="B84" s="76" t="s">
-        <v>364</v>
+      <c r="B84" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="C84" s="55"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="72"/>
-      <c r="B85" s="76" t="s">
-        <v>365</v>
+      <c r="B85" s="68" t="s">
+        <v>360</v>
       </c>
       <c r="C85" s="55"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
       <c r="A86" s="72"/>
-      <c r="B86" s="76" t="s">
-        <v>366</v>
+      <c r="B86" s="68" t="s">
+        <v>361</v>
       </c>
       <c r="C86" s="55"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
       <c r="A87" s="72"/>
-      <c r="B87" s="76" t="s">
-        <v>367</v>
+      <c r="B87" s="68" t="s">
+        <v>362</v>
       </c>
       <c r="C87" s="55"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
       <c r="A88" s="72"/>
-      <c r="B88" s="68" t="s">
-        <v>368</v>
+      <c r="B88" s="69" t="s">
+        <v>363</v>
       </c>
       <c r="C88" s="55"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="73"/>
-      <c r="B89" s="68" t="s">
-        <v>369</v>
+      <c r="B89" s="69" t="s">
+        <v>364</v>
       </c>
       <c r="C89" s="55"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
       <c r="A90" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="B90" s="68" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>366</v>
       </c>
       <c r="C90" s="55"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="73"/>
-      <c r="B91" s="68" t="s">
-        <v>372</v>
+      <c r="B91" s="69" t="s">
+        <v>367</v>
       </c>
       <c r="C91" s="55"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A92" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="B92" s="75" t="s">
-        <v>374</v>
+      <c r="A92" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>369</v>
       </c>
       <c r="C92" s="55"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
       <c r="A93" s="72"/>
-      <c r="B93" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>376</v>
+      <c r="B93" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="72"/>
-      <c r="B94" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>378</v>
+      <c r="B94" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="72"/>
-      <c r="B95" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>380</v>
+      <c r="B95" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="72"/>
-      <c r="B96" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>382</v>
+      <c r="B96" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="72"/>
-      <c r="B97" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>384</v>
+      <c r="B97" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="73"/>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="55"/>
+    </row>
+    <row r="100" spans="1:3" ht="30" customHeight="1">
+      <c r="A100" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C100" s="55"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="36" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="37" t="s">
+      <c r="B101" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="C101" s="55"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="C99" s="55"/>
-    </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1">
-      <c r="A100" s="37" t="s">
+      <c r="B102" s="70" t="s">
         <v>389</v>
-      </c>
-      <c r="B100" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="C100" s="55"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="B101" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="C101" s="55"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="B102" s="75" t="s">
-        <v>394</v>
       </c>
       <c r="C102" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="B102:C102"/>
@@ -5950,18 +5941,16 @@
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6028,27 +6017,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8127C0-036A-46D1-AF73-B40CD58B4B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B980D8-7350-4EBF-B04F-3AFF7CC5C80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="403">
   <si>
     <t>sub_CUSTOMER INFORMATION</t>
   </si>
@@ -221,135 +221,144 @@
     <t>f_1Country</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>f_1Province</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_1City </t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>f_1Site Address</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>f_1Correspondence Address</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_1Postal Code </t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fh_Contact Person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fh_Contact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch_Name </t>
+  </si>
+  <si>
+    <t>ch_Phone No/Email</t>
+  </si>
+  <si>
+    <t>fm_PIC</t>
+  </si>
+  <si>
+    <t>Taufik</t>
+  </si>
+  <si>
+    <t>62812345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_Decision Maker </t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>fm_Influencer</t>
+  </si>
+  <si>
+    <t>Taufik2</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fm_#1 Engineering Person </t>
+  </si>
+  <si>
+    <t>Test14</t>
+  </si>
+  <si>
+    <t>Test15</t>
+  </si>
+  <si>
+    <t>fm_#2 Enginering Person</t>
+  </si>
+  <si>
+    <t>Taufik4</t>
+  </si>
+  <si>
+    <t>Test17</t>
+  </si>
+  <si>
+    <t>fm_#3 Commercial Person</t>
+  </si>
+  <si>
+    <t>Taufik5</t>
+  </si>
+  <si>
+    <t>Test19</t>
+  </si>
+  <si>
+    <t>fm_#4 Commercial Person</t>
+  </si>
+  <si>
+    <t>Taufik6</t>
+  </si>
+  <si>
+    <t>Test21</t>
+  </si>
+  <si>
+    <t>fm_Company Correspondence (Admin)</t>
+  </si>
+  <si>
+    <t>Taufik7</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>f_Company Email</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>fh_MAIN CONTRACTOR INFORMATION</t>
+  </si>
+  <si>
+    <t>f_Project Owner</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_2Country </t>
+  </si>
+  <si>
     <t>Indonesia2</t>
   </si>
   <si>
-    <t>f_1Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_1City </t>
-  </si>
-  <si>
-    <t>f_1Site Address</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>f_1Correspondence Address</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_1Postal Code </t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fh_Contact Person </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fh_Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch_Name </t>
-  </si>
-  <si>
-    <t>ch_Phone No/Email</t>
-  </si>
-  <si>
-    <t>fm_PIC</t>
-  </si>
-  <si>
-    <t>Taufik</t>
-  </si>
-  <si>
-    <t>62812345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_Decision Maker </t>
-  </si>
-  <si>
-    <t>Test10</t>
-  </si>
-  <si>
-    <t>Test11</t>
-  </si>
-  <si>
-    <t>fm_Influencer</t>
-  </si>
-  <si>
-    <t>Taufik2</t>
-  </si>
-  <si>
-    <t>Test13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fm_#1 Engineering Person </t>
-  </si>
-  <si>
-    <t>Test14</t>
-  </si>
-  <si>
-    <t>Test15</t>
-  </si>
-  <si>
-    <t>fm_#2 Enginering Person</t>
-  </si>
-  <si>
-    <t>Taufik4</t>
-  </si>
-  <si>
-    <t>Test17</t>
-  </si>
-  <si>
-    <t>fm_#3 Commercial Person</t>
-  </si>
-  <si>
-    <t>Taufik5</t>
-  </si>
-  <si>
-    <t>Test19</t>
-  </si>
-  <si>
-    <t>fm_#4 Commercial Person</t>
-  </si>
-  <si>
-    <t>Taufik6</t>
-  </si>
-  <si>
-    <t>Test21</t>
-  </si>
-  <si>
-    <t>fm_Company Correspondence (Admin)</t>
-  </si>
-  <si>
-    <t>Taufik7</t>
-  </si>
-  <si>
-    <t>Test23</t>
-  </si>
-  <si>
-    <t>f_Company Email</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>fh_MAIN CONTRACTOR INFORMATION</t>
-  </si>
-  <si>
-    <t>f_Project Owner</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_2Country </t>
-  </si>
-  <si>
     <t>f_2Province</t>
   </si>
   <si>
@@ -1199,15 +1208,27 @@
     <t>thr_Payments</t>
   </si>
   <si>
+    <t>tdi_$P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
+  </si>
+  <si>
     <t>Default Percentage: 30%, but user can change</t>
   </si>
   <si>
+    <t>tdi_$P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
+  </si>
+  <si>
     <t>Default Percentage: 50%, but user can change</t>
   </si>
   <si>
+    <t>tdi_$P3$% Balance Payment immediately after commissioning</t>
+  </si>
+  <si>
     <t>Default Percentage: 15%, but user can change</t>
   </si>
   <si>
+    <t>tdi_$P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
+  </si>
+  <si>
     <t>Default Percentage: 5%, but user can change</t>
   </si>
   <si>
@@ -1373,25 +1394,7 @@
     <t>sub_</t>
   </si>
   <si>
-    <t>Jawa Timur</t>
-  </si>
-  <si>
-    <t>Malang</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>tdi_$P1$% Down Payment payable immediately after signing of the Order Confirmation against presentation of Commercial Invoice</t>
-  </si>
-  <si>
-    <t>tdi_$P2$% Balance Payment immediately after material on site or by progressive (75% Material on site &amp; 25% Installation)</t>
-  </si>
-  <si>
-    <t>tdi_$P4$% Balance Payment immediately after retention time or 90 days after commissioning</t>
-  </si>
-  <si>
-    <t>tdi_$P3$% Balance Payment immediately after commissioning</t>
+    <t>D:\DIAC-V\data\WWTP_Quotation_Result.docx</t>
   </si>
 </sst>
 </file>
@@ -2869,8 +2872,8 @@
     <col min="3" max="3" width="68.21875" style="1" customWidth="1"/>
     <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" style="1" customWidth="1"/>
-    <col min="15" max="60" width="8.44140625" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="8.44140625" style="1"/>
+    <col min="15" max="61" width="8.44140625" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
@@ -2993,7 +2996,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="C8" s="55"/>
       <c r="H8" s="1"/>
@@ -3009,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>395</v>
+        <v>13</v>
       </c>
       <c r="C9" s="55"/>
       <c r="H9" s="1"/>
@@ -3022,10 +3025,10 @@
     </row>
     <row r="10" spans="1:14" ht="13.2" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>396</v>
+        <v>15</v>
       </c>
       <c r="C10" s="55"/>
       <c r="H10" s="1"/>
@@ -3038,10 +3041,10 @@
     </row>
     <row r="11" spans="1:14" ht="13.2" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="4"/>
@@ -3057,10 +3060,10 @@
     </row>
     <row r="12" spans="1:14" ht="13.2" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="4"/>
@@ -3076,10 +3079,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.2" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="55"/>
       <c r="H13" s="1"/>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
       <c r="A14" s="62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="55"/>
@@ -3106,13 +3109,13 @@
     </row>
     <row r="15" spans="1:14" ht="13.2" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3127,13 +3130,13 @@
     </row>
     <row r="16" spans="1:14" ht="13.2" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3148,13 +3151,13 @@
     </row>
     <row r="17" spans="1:14" ht="13.2" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3166,13 +3169,13 @@
     </row>
     <row r="18" spans="1:14" ht="13.2" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3184,13 +3187,13 @@
     </row>
     <row r="19" spans="1:14" ht="13.2" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3205,13 +3208,13 @@
     </row>
     <row r="20" spans="1:14" ht="13.2" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3226,13 +3229,13 @@
     </row>
     <row r="21" spans="1:14" ht="13.2" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3247,13 +3250,13 @@
     </row>
     <row r="22" spans="1:14" ht="13.2" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3265,13 +3268,13 @@
     </row>
     <row r="23" spans="1:14" ht="13.2" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3283,10 +3286,10 @@
     </row>
     <row r="24" spans="1:14" ht="13.2" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="55"/>
       <c r="H24" s="1"/>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
       <c r="A25" s="62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="59"/>
       <c r="C25" s="55"/>
@@ -3316,10 +3319,10 @@
     </row>
     <row r="26" spans="1:14" ht="13.2" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="4"/>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="28" spans="1:14" ht="13.2" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C28" s="55"/>
       <c r="H28" s="1"/>
@@ -3368,10 +3371,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.2" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C29" s="55"/>
       <c r="H29" s="1"/>
@@ -3384,10 +3387,10 @@
     </row>
     <row r="30" spans="1:14" ht="13.2" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="55"/>
       <c r="H30" s="1"/>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="31" spans="1:14" ht="13.2" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="4"/>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="32" spans="1:14" ht="13.2" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="4"/>
@@ -3438,10 +3441,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.2" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="55"/>
       <c r="H33" s="1"/>
@@ -3454,13 +3457,13 @@
     </row>
     <row r="34" spans="1:14" s="42" customFormat="1" ht="13.2" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -3468,13 +3471,13 @@
     </row>
     <row r="35" spans="1:14" ht="13.2" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3489,13 +3492,13 @@
     </row>
     <row r="36" spans="1:14" ht="13.2" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3507,13 +3510,13 @@
     </row>
     <row r="37" spans="1:14" ht="13.2" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3525,13 +3528,13 @@
     </row>
     <row r="38" spans="1:14" ht="13.2" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3546,13 +3549,13 @@
     </row>
     <row r="39" spans="1:14" ht="13.2" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3567,13 +3570,13 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3588,13 +3591,13 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3606,10 +3609,10 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" s="55"/>
       <c r="H42" s="1"/>
@@ -3791,7 +3794,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -3799,531 +3802,531 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>186</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4412,462 +4415,462 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="62" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C35" s="55"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="62" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B36" s="59"/>
       <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B38" s="59"/>
       <c r="C38" s="55"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C39" s="55"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="64" t="s">
         <v>271</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>268</v>
       </c>
       <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C43" s="55"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C44" s="55"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C45" s="55"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C46" s="55"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C47" s="55"/>
     </row>
@@ -4919,7 +4922,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:C47" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:C47" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"ANAPAK,EQUALIZING,OWS,ANAFLOAT,AERATION,SECONDARY CLARIFIER,MMF,ACF,MPS,INLETTANK,INTERMEDIATETANK,FINALTANK,DAF,MBR,BWRO,CCRO,SWRO,ANAMEM,AOP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4931,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A52" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4944,36 +4947,36 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="28" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -4981,20 +4984,20 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="28.8" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="30"/>
@@ -5005,27 +5008,27 @@
         <v>ft_To obtain license to operate WWTP such as SLF (Sertifikat Laik Fungsi)</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="28.8" customHeight="1">
       <c r="A9" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>289</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>286</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="30"/>
@@ -5041,61 +5044,61 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="28.8" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="28.8" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D16" s="30"/>
     </row>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D17" s="30"/>
     </row>
@@ -5117,23 +5120,23 @@
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="45" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -5155,7 +5158,7 @@
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D22" s="30"/>
     </row>
@@ -5166,16 +5169,16 @@
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="30"/>
@@ -5186,7 +5189,7 @@
         <v>ft_Inlet wastewater transfer piping to WWTP System</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="30"/>
@@ -5197,54 +5200,54 @@
         <v>ft_Piping &amp; final system for effluent WWTP to discharge</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="31" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" ht="28.8" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="29" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -5252,77 +5255,77 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="28.8" customHeight="1">
       <c r="A37" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="28.8" customHeight="1">
       <c r="A38" s="31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="29" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -5330,17 +5333,17 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="29" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -5348,42 +5351,42 @@
     </row>
     <row r="42" spans="1:4" ht="43.2" customHeight="1">
       <c r="A42" s="31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="31" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C43" s="51"/>
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C45" s="51"/>
       <c r="D45" s="30"/>
@@ -5395,7 +5398,7 @@
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D46" s="30"/>
     </row>
@@ -5405,14 +5408,14 @@
         <v>ft_Analyze the parameters (for WWTP system) as per regulation at the end of the commissioning by the external laboratory</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -5420,47 +5423,47 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B52" s="51"/>
       <c r="C52" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -5468,89 +5471,89 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B55" s="51"/>
       <c r="C55" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="31" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="31" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B58" s="51"/>
       <c r="C58" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B60" s="51"/>
       <c r="C60" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B61" s="51"/>
       <c r="C61" s="51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.4" customHeight="1">
       <c r="A62" s="43" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -5565,14 +5568,14 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="47" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="36" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B68" s="67" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
@@ -5580,7 +5583,7 @@
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="38" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
@@ -5590,14 +5593,14 @@
     </row>
     <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A69" s="71" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="37" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
@@ -5608,11 +5611,11 @@
     <row r="70" spans="1:12" ht="30" customHeight="1">
       <c r="A70" s="72"/>
       <c r="B70" s="75" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="37" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
@@ -5623,11 +5626,11 @@
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
       <c r="A71" s="72"/>
       <c r="B71" s="75" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="37" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
@@ -5638,11 +5641,11 @@
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
       <c r="A72" s="73"/>
       <c r="B72" s="75" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="37" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="73" spans="1:12" ht="81.599999999999994" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B73" s="77" t="str">
         <f>J73&amp;K73&amp;L73</f>
@@ -5660,256 +5663,256 @@
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="38" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J73" s="48" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K73" s="48" t="str">
         <f>IF('DIP_Project Information'!D28="14 Days","fourteen (14) days",IF('DIP_Project Information'!D28="30 Days","thirty (30) days",IF('DIP_Project Information'!D28="45 Days","forty-five (45) days","[invalid payment term]")))</f>
         <v>forty-five (45) days</v>
       </c>
       <c r="L73" s="48" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.4" customHeight="1">
       <c r="A74" s="36" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C74" s="55"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
       <c r="A75" s="36" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B75" s="70" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C75" s="55"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
       <c r="A76" s="74" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B76" s="69" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C76" s="55"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
       <c r="A77" s="72"/>
       <c r="B77" s="68" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C77" s="55"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="72"/>
       <c r="B78" s="68" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C78" s="55"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
       <c r="A79" s="72"/>
       <c r="B79" s="68" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C79" s="55"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
       <c r="A80" s="72"/>
       <c r="B80" s="68" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C80" s="55"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
       <c r="A81" s="72"/>
       <c r="B81" s="69" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C81" s="55"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
       <c r="A82" s="72"/>
       <c r="B82" s="76" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C82" s="55"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
       <c r="A83" s="72"/>
       <c r="B83" s="69" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C83" s="55"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
       <c r="A84" s="72"/>
       <c r="B84" s="68" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C84" s="55"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="72"/>
       <c r="B85" s="68" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C85" s="55"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
       <c r="A86" s="72"/>
       <c r="B86" s="68" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C86" s="55"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
       <c r="A87" s="72"/>
       <c r="B87" s="68" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C87" s="55"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
       <c r="A88" s="72"/>
       <c r="B88" s="69" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C88" s="55"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="73"/>
       <c r="B89" s="69" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C89" s="55"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
       <c r="A90" s="74" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B90" s="69" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C90" s="55"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="73"/>
       <c r="B91" s="69" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C91" s="55"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B92" s="70" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C92" s="55"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
       <c r="A93" s="72"/>
       <c r="B93" s="34" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="72"/>
       <c r="B94" s="34" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="72"/>
       <c r="B95" s="34" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="72"/>
       <c r="B96" s="34" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="72"/>
       <c r="B97" s="34" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="73"/>
       <c r="B98" s="34" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="36" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B99" s="70" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C99" s="55"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B100" s="80" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C100" s="55"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B101" s="70" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C101" s="55"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B102" s="70" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C102" s="55"/>
     </row>
@@ -5950,7 +5953,7 @@
     <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
 
@@ -5961,12 +5964,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6017,27 +6029,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C126A1E-FBFC-448F-9E95-8BC28036865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E9A7A-EC80-4D0F-B8F7-D13803A88C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" tabRatio="687" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Technical Information" sheetId="3" r:id="rId3"/>
     <sheet name="DIP_Data Input" sheetId="4" r:id="rId4"/>
     <sheet name="User Code" sheetId="10" r:id="rId5"/>
-    <sheet name="DATA_PROPOSAL" sheetId="5" r:id="rId6"/>
-    <sheet name="DATA_OPEX" sheetId="6" r:id="rId7"/>
-    <sheet name="DATA_BOQ" sheetId="7" r:id="rId8"/>
-    <sheet name="DATA_TEMP" sheetId="8" r:id="rId9"/>
-    <sheet name="DATA_ELI" sheetId="9" r:id="rId10"/>
+    <sheet name="No of Quotation" sheetId="11" r:id="rId6"/>
+    <sheet name="DATA_PROPOSAL" sheetId="5" r:id="rId7"/>
+    <sheet name="DATA_OPEX" sheetId="6" r:id="rId8"/>
+    <sheet name="DATA_BOQ" sheetId="7" r:id="rId9"/>
+    <sheet name="DATA_TEMP" sheetId="8" r:id="rId10"/>
+    <sheet name="DATA_ELI" sheetId="9" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN">#REF!</definedName>
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="389">
   <si>
     <t>sub_CUSTOMER INFORMATION</t>
   </si>
@@ -1281,6 +1282,99 @@
   <si>
     <t xml:space="preserve"> after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Initial Company Name</t>
+  </si>
+  <si>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quotation No.</t>
+  </si>
+  <si>
+    <t>PT SD Guthrie International Sei Mangkei Refinery</t>
+  </si>
+  <si>
+    <t>SDGI</t>
+  </si>
+  <si>
+    <t>WWTP</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>001/09/CTP/WWTP/SDGI/2024</t>
+  </si>
+  <si>
+    <t>PT Perfetti Van Melle Indonesia</t>
+  </si>
+  <si>
+    <t>PVMI</t>
+  </si>
+  <si>
+    <t>001/11/CTP/WWTP/PVMI/2024</t>
+  </si>
+  <si>
+    <t>PT Bumi Menara Internusa</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>WRP-BOO</t>
+  </si>
+  <si>
+    <t>001/10/CTP/WRP-BOO/BMI/2024</t>
+  </si>
+  <si>
+    <t>PT Mulia Boga Raya</t>
+  </si>
+  <si>
+    <t>MBR</t>
+  </si>
+  <si>
+    <t>001/01/CTP/WWTP/MBR/2025</t>
+  </si>
+  <si>
+    <t>PT Leighton Contractors Indonesia</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>Cr6+</t>
+  </si>
+  <si>
+    <t>001/02/CTP/Cr6+/LCI/2025</t>
+  </si>
+  <si>
+    <t>PT Coba Jaya</t>
+  </si>
+  <si>
+    <t>PCJ</t>
+  </si>
+  <si>
+    <t>001/02/CTP/Cr6+/PCJ/2025</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1387,7 @@
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,6 +1503,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1596,7 +1701,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1767,6 +1872,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2966,18 +3086,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -2990,11 +3110,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3010,8 +3130,8 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3027,8 +3147,8 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3044,8 +3164,8 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3058,11 +3178,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3078,8 +3198,8 @@
       <c r="A8" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3092,8 +3212,8 @@
       <c r="A9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3106,8 +3226,8 @@
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3120,8 +3240,8 @@
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3137,8 +3257,8 @@
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3154,8 +3274,8 @@
       <c r="A13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="70"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3165,11 +3285,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="70"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3327,8 +3447,8 @@
       <c r="A24" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="70"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3338,11 +3458,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -3358,8 +3478,8 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3372,11 +3492,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3392,8 +3512,8 @@
       <c r="A28" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3406,8 +3526,8 @@
       <c r="A29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3420,8 +3540,8 @@
       <c r="A30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3434,8 +3554,8 @@
       <c r="A31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3451,8 +3571,8 @@
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3468,8 +3588,8 @@
       <c r="A33" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="70"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3606,8 +3726,8 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="70"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3617,11 +3737,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="70"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3634,8 +3754,8 @@
       <c r="A44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="70"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3648,8 +3768,8 @@
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3662,15 +3782,15 @@
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
     </row>
     <row r="48" spans="1:14" ht="13.2" customHeight="1">
       <c r="H48" s="1"/>
@@ -3728,6 +3848,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="62"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="70"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="70"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:B6"/>
   <sheetViews>
@@ -3786,12 +4065,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4175,18 +4454,18 @@
       <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="15.6">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="70"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
@@ -4210,39 +4489,39 @@
       <c r="A44" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="70"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="70"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="77" t="e">
+      <c r="B46" s="82" t="e">
         <f>B50/B49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="70"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="65"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="70"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="65"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
@@ -4338,8 +4617,8 @@
       <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="65"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="70"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6" t="s">
@@ -4351,25 +4630,25 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="65"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="70"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="70"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="65"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="70"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
@@ -4465,15 +4744,15 @@
       <c r="A74" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="77"/>
-      <c r="C74" s="65"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="70"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="65"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="70"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
@@ -4485,74 +4764,74 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="66" t="s">
+      <c r="A77" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="65"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="70"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="75"/>
-      <c r="C78" s="65"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="70"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="75"/>
-      <c r="C79" s="65"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="70"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="75"/>
-      <c r="C80" s="65"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="70"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B81" s="75"/>
-      <c r="C81" s="65"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="70"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B82" s="75"/>
-      <c r="C82" s="65"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="70"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="65"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="70"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="65"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="70"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B85" s="75"/>
-      <c r="C85" s="65"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="70"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="75"/>
-      <c r="C86" s="65"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4680,18 +4959,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
@@ -4715,36 +4994,36 @@
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
@@ -4849,8 +5128,8 @@
       <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
@@ -4862,25 +5141,25 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
@@ -4994,15 +5273,15 @@
       <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="70"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="70"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
@@ -5014,74 +5293,74 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="70"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="70"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="70"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="70"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="70"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="70"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="65"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="70"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="65"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="65"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="70"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5137,7 +5416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="66" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="66" workbookViewId="0">
       <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
@@ -5780,11 +6059,11 @@
       <c r="A68" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="80" t="str">
+      <c r="B68" s="85" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="38" t="s">
         <v>178</v>
       </c>
@@ -5795,13 +6074,13 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="65"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="37" t="s">
         <v>181</v>
       </c>
@@ -5812,11 +6091,11 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="85"/>
-      <c r="B70" s="88" t="s">
+      <c r="A70" s="90"/>
+      <c r="B70" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="65"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="37" t="s">
         <v>183</v>
       </c>
@@ -5827,11 +6106,11 @@
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A71" s="85"/>
-      <c r="B71" s="88" t="s">
+      <c r="A71" s="90"/>
+      <c r="B71" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="65"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="37" t="s">
         <v>185</v>
       </c>
@@ -5842,11 +6121,11 @@
       <c r="I71" s="37"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A72" s="86"/>
-      <c r="B72" s="88" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="65"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="37" t="s">
         <v>187</v>
       </c>
@@ -5860,11 +6139,11 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="90" t="str">
+      <c r="B73" s="95" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or [invalid payment term] after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
-      <c r="C73" s="65"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="38" t="s">
         <v>189</v>
       </c>
@@ -5890,147 +6169,147 @@
       <c r="A74" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="70"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
       <c r="A75" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="70"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="65"/>
+      <c r="C76" s="70"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A77" s="85"/>
-      <c r="B77" s="81" t="s">
+      <c r="A77" s="90"/>
+      <c r="B77" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="70"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="85"/>
-      <c r="B78" s="81" t="s">
+      <c r="A78" s="90"/>
+      <c r="B78" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="70"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A79" s="85"/>
-      <c r="B79" s="81" t="s">
+      <c r="A79" s="90"/>
+      <c r="B79" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="70"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A80" s="85"/>
-      <c r="B80" s="81" t="s">
+      <c r="A80" s="90"/>
+      <c r="B80" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="65"/>
+      <c r="C80" s="70"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A81" s="85"/>
-      <c r="B81" s="82" t="s">
+      <c r="A81" s="90"/>
+      <c r="B81" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="70"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A82" s="85"/>
-      <c r="B82" s="89" t="s">
+      <c r="A82" s="90"/>
+      <c r="B82" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="65"/>
+      <c r="C82" s="70"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A83" s="85"/>
-      <c r="B83" s="82" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="70"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A84" s="85"/>
-      <c r="B84" s="81" t="s">
+      <c r="A84" s="90"/>
+      <c r="B84" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C84" s="65"/>
+      <c r="C84" s="70"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="85"/>
-      <c r="B85" s="81" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="70"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A86" s="85"/>
-      <c r="B86" s="81" t="s">
+      <c r="A86" s="90"/>
+      <c r="B86" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="65"/>
+      <c r="C86" s="70"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
-      <c r="A87" s="85"/>
-      <c r="B87" s="81" t="s">
+      <c r="A87" s="90"/>
+      <c r="B87" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="70"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
-      <c r="A88" s="85"/>
-      <c r="B88" s="82" t="s">
+      <c r="A88" s="90"/>
+      <c r="B88" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="70"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="86"/>
-      <c r="B89" s="82" t="s">
+      <c r="A89" s="91"/>
+      <c r="B89" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="70"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="70"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="86"/>
-      <c r="B91" s="82" t="s">
+      <c r="A91" s="91"/>
+      <c r="B91" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="70"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="83" t="s">
+      <c r="B92" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="70"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A93" s="85"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="34" t="s">
         <v>216</v>
       </c>
@@ -6039,7 +6318,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="85"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="34" t="s">
         <v>218</v>
       </c>
@@ -6048,7 +6327,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="85"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="34" t="s">
         <v>220</v>
       </c>
@@ -6057,7 +6336,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="85"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="34" t="s">
         <v>222</v>
       </c>
@@ -6066,7 +6345,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="85"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="34" t="s">
         <v>224</v>
       </c>
@@ -6075,7 +6354,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="86"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="34" t="s">
         <v>226</v>
       </c>
@@ -6087,37 +6366,37 @@
       <c r="A99" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="70"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="93" t="s">
+      <c r="B100" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="65"/>
+      <c r="C100" s="70"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="83" t="s">
+      <c r="B101" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="65"/>
+      <c r="C101" s="70"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="65"/>
+      <c r="C102" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -6320,6 +6599,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC56CC-78DA-4128-861F-2870B8FE444B}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A1" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31.8" thickBot="1">
+      <c r="A2" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="66">
+        <v>45635</v>
+      </c>
+      <c r="G2" s="65">
+        <v>9</v>
+      </c>
+      <c r="H2" s="67">
+        <v>2024</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.8" thickBot="1">
+      <c r="A3" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="66">
+        <v>45605</v>
+      </c>
+      <c r="G3" s="65">
+        <v>11</v>
+      </c>
+      <c r="H3" s="67">
+        <v>2024</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.8" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="66">
+        <v>45574</v>
+      </c>
+      <c r="G4" s="65">
+        <v>10</v>
+      </c>
+      <c r="H4" s="67">
+        <v>2024</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A5" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="66">
+        <v>45666</v>
+      </c>
+      <c r="G5" s="65">
+        <v>1</v>
+      </c>
+      <c r="H5" s="67">
+        <v>2025</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A6" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="66">
+        <v>45697</v>
+      </c>
+      <c r="G6" s="65">
+        <v>2</v>
+      </c>
+      <c r="H6" s="67">
+        <v>2025</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A7" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="66">
+        <v>45697</v>
+      </c>
+      <c r="G7" s="65">
+        <v>2</v>
+      </c>
+      <c r="H7" s="67">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6337,7 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6354,7 +6863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6367,163 +6876,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="65"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="65"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:C13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E9A7A-EC80-4D0F-B8F7-D13803A88C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECD96B-657C-498B-80DB-A48EBC0EFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="435">
   <si>
     <t>sub_CUSTOMER INFORMATION</t>
   </si>
@@ -1367,13 +1367,151 @@
     <t>001/02/CTP/Cr6+/LCI/2025</t>
   </si>
   <si>
-    <t>PT Coba Jaya</t>
-  </si>
-  <si>
-    <t>PCJ</t>
-  </si>
-  <si>
-    <t>001/02/CTP/Cr6+/PCJ/2025</t>
+    <t>fd_Effluent Warranty</t>
+  </si>
+  <si>
+    <t>PERMENKES No. 2 Tahun 2023 (Parameter Air untuk Keperluan Higiene dan Sanitasi)</t>
+  </si>
+  <si>
+    <t>PERMENKES No. 2 Tahun 2023 (Parameter Wajib Air Minum)</t>
+  </si>
+  <si>
+    <t>PERMENLHK RI No. P.68 Tahun 2016 (Baku Mutu Air Limbah Domestik)</t>
+  </si>
+  <si>
+    <t>PP RI No. 22 Tahun 2021 (Baku Mutu Air Sungai Kelas 1 dan Sejenisnya)</t>
+  </si>
+  <si>
+    <t>PP RI No. 22 Tahun 2021 (Baku Mutu Air Sungai Kelas 2 dan Sejenisnya)</t>
+  </si>
+  <si>
+    <t>PP RI No. 22 Tahun 2021 (Baku Mutu Air Sungai Kelas 3 dan Sejenisnya)</t>
+  </si>
+  <si>
+    <t>PP RI No. 22 Tahun 2021 (Baku Mutu Air Sungai Kelas 4 dan Sejenisnya)</t>
+  </si>
+  <si>
+    <t>fd_Grade Customer Selection</t>
+  </si>
+  <si>
+    <t>fh_Grade and Brand Customer Preferences</t>
+  </si>
+  <si>
+    <t>fd_Pump Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Dosing Pump Selection</t>
+  </si>
+  <si>
+    <t>fd_Blower Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_APP Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Agitator Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Mixer Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_MPS Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Aerator Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Screening System Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Motor Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Diffuser Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_PLC Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_HMI Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Instrument Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Cable Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Cable Signal Brand Selection</t>
+  </si>
+  <si>
+    <t>fd_Chemical Tank Brand Selection</t>
+  </si>
+  <si>
+    <t>GRUNDFOS</t>
+  </si>
+  <si>
+    <t>fd_Type</t>
+  </si>
+  <si>
+    <t>End Suction Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>fd_Model</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>NKG</t>
+  </si>
+  <si>
+    <t>EBARA</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>FSSC</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>CDMF</t>
+  </si>
+  <si>
+    <t>Vertical Multistage Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>Horizontal Multistage Centrifugal Pump</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>Submersible Pump</t>
+  </si>
+  <si>
+    <t>WQ</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>LVRS</t>
+  </si>
+  <si>
+    <t>LEP</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>XSP</t>
   </si>
 </sst>
 </file>
@@ -1381,13 +1519,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0\ &quot;m2&quot;"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0\ &quot;m2&quot;"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1652,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1698,10 +1842,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1742,13 +1886,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1757,7 +1901,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1856,7 +2000,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1887,58 +2031,73 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,9 +2108,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1964,7 +2120,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,6 +2904,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3071,7 +3231,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:C42"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -3086,18 +3246,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -3110,11 +3270,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3130,8 +3290,8 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3147,8 +3307,8 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3164,8 +3324,8 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3178,11 +3338,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3198,8 +3358,8 @@
       <c r="A8" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="74"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3212,8 +3372,8 @@
       <c r="A9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="74"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3226,8 +3386,8 @@
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3240,8 +3400,8 @@
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3257,8 +3417,8 @@
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3274,8 +3434,8 @@
       <c r="A13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="74"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3285,11 +3445,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="74"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3447,8 +3607,8 @@
       <c r="A24" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3458,11 +3618,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -3478,8 +3638,8 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3492,11 +3652,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3512,8 +3672,8 @@
       <c r="A28" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="74"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3526,8 +3686,8 @@
       <c r="A29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="74"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3540,8 +3700,8 @@
       <c r="A30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="74"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3554,8 +3714,8 @@
       <c r="A31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3571,8 +3731,8 @@
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3588,8 +3748,8 @@
       <c r="A33" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="74"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3726,8 +3886,8 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3737,11 +3897,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="70"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="74"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3754,8 +3914,8 @@
       <c r="A44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="74"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3768,8 +3928,8 @@
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="74"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3782,15 +3942,15 @@
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="74"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="74"/>
     </row>
     <row r="48" spans="1:14" ht="13.2" customHeight="1">
       <c r="H48" s="1"/>
@@ -3803,6 +3963,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B13:C13"/>
@@ -3819,20 +3993,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:C47" xr:uid="{C62B14A6-8605-4A3A-B7E8-6D0D25B30037}">
@@ -3852,7 +4012,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3869,18 +4029,18 @@
       <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="74"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="52" t="s">
@@ -3937,11 +4097,11 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
@@ -3962,11 +4122,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
@@ -4047,11 +4207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="76" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="69" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4060,6 +4220,8 @@
     <col min="2" max="2" width="36.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="24" max="24" width="8.77734375" customWidth="1"/>
   </cols>
@@ -4068,9 +4230,9 @@
       <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4383,7 +4545,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
@@ -4393,7 +4555,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>270</v>
       </c>
@@ -4403,7 +4565,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>306</v>
       </c>
@@ -4413,7 +4575,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>60</v>
       </c>
@@ -4423,7 +4585,7 @@
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -4433,7 +4595,7 @@
       </c>
       <c r="D37" s="27"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -4443,7 +4605,7 @@
       </c>
       <c r="D38" s="27"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
@@ -4453,251 +4615,351 @@
       </c>
       <c r="D39" s="27"/>
     </row>
-    <row r="40" spans="1:4" ht="15.6">
-      <c r="A40" s="84" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="70"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="G42" t="s">
+        <v>413</v>
+      </c>
+      <c r="H42" t="s">
+        <v>425</v>
+      </c>
+      <c r="I42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="69"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="G43" t="s">
+        <v>413</v>
+      </c>
+      <c r="H43" t="s">
+        <v>425</v>
+      </c>
+      <c r="I43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" s="71"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="G44" t="s">
+        <v>413</v>
+      </c>
+      <c r="H44" t="s">
+        <v>415</v>
+      </c>
+      <c r="I44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="G45" t="s">
+        <v>420</v>
+      </c>
+      <c r="H45" t="s">
+        <v>425</v>
+      </c>
+      <c r="I45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="71"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="G46" t="s">
+        <v>420</v>
+      </c>
+      <c r="H46" t="s">
+        <v>415</v>
+      </c>
+      <c r="I46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="71"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="G47" t="s">
+        <v>423</v>
+      </c>
+      <c r="H47" t="s">
+        <v>425</v>
+      </c>
+      <c r="I47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="G48" t="s">
+        <v>423</v>
+      </c>
+      <c r="H48" t="s">
+        <v>426</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="B49" s="71"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="G49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H49" t="s">
+        <v>428</v>
+      </c>
+      <c r="I49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="71"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="G50" t="s">
+        <v>430</v>
+      </c>
+      <c r="H50" t="s">
+        <v>425</v>
+      </c>
+      <c r="I50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="71"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="G51" t="s">
+        <v>430</v>
+      </c>
+      <c r="H51" t="s">
+        <v>415</v>
+      </c>
+      <c r="I51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="G52" t="s">
+        <v>430</v>
+      </c>
+      <c r="H52" t="s">
+        <v>428</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="G53" t="s">
+        <v>430</v>
+      </c>
+      <c r="H53" t="s">
+        <v>428</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="71"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="71"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B59" s="71"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6">
+      <c r="A60" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="71" t="s">
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="70"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="B61" s="78"/>
+      <c r="C61" s="74"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="40" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
+    <row r="63" spans="1:9">
+      <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="20" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="70"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="70"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="82" t="e">
-        <f>B50/B49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C46" s="70"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="70"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="70"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="82"/>
-      <c r="C59" s="70"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="70"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="80"/>
-      <c r="C62" s="70"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="70"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="40" t="s">
-        <v>70</v>
-      </c>
+      <c r="B64" s="85"/>
+      <c r="C64" s="74"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="74"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B66" s="86" t="e">
+        <f>B70/B69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C66" s="74"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B67" s="87"/>
+      <c r="C67" s="74"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B68" s="88"/>
+      <c r="C68" s="74"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="40" t="s">
@@ -4706,7 +4968,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="40" t="s">
@@ -4715,7 +4977,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="40" t="s">
@@ -4724,144 +4986,239 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3"/>
-      <c r="C72" s="49" t="s">
-        <v>87</v>
+      <c r="C72" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="C73" s="49" t="s">
-        <v>89</v>
+      <c r="C73" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="82"/>
-      <c r="C74" s="70"/>
+        <v>83</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="70"/>
+      <c r="A75" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="21" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="49" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="70"/>
+        <v>88</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="49" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="70"/>
+        <v>90</v>
+      </c>
+      <c r="B79" s="86"/>
+      <c r="C79" s="74"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="78"/>
+      <c r="C81" s="74"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="85"/>
+      <c r="C82" s="74"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B83" s="85"/>
+      <c r="C83" s="74"/>
+      <c r="E83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="78"/>
+      <c r="C84" s="74"/>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="78"/>
+      <c r="C86" s="74"/>
+      <c r="E86" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="85"/>
+      <c r="C87" s="74"/>
+      <c r="E87" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" s="85"/>
+      <c r="C88" s="74"/>
+      <c r="E88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="70"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
+      <c r="B89" s="85"/>
+      <c r="C89" s="74"/>
+      <c r="E89" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="70"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="6" t="s">
+      <c r="B90" s="85"/>
+      <c r="C90" s="74"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="70"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="6" t="s">
+      <c r="B91" s="85"/>
+      <c r="C91" s="74"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="70"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="6" t="s">
+      <c r="B92" s="85"/>
+      <c r="C92" s="74"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B84" s="80"/>
-      <c r="C84" s="70"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="6" t="s">
+      <c r="B93" s="85"/>
+      <c r="C93" s="74"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="70"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="6" t="s">
+      <c r="B94" s="85"/>
+      <c r="C94" s="74"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="80"/>
-      <c r="C86" s="70"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <dataValidations count="24">
+  <dataValidations count="43">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"WWTP PROJECT,WRP PROJECT,WTP PROJECT,STP PROJECT,CLOSING LOOP PROJECT"</formula1>
     </dataValidation>
@@ -4913,29 +5270,87 @@
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B26:B29" xr:uid="{00000000-0002-0000-0100-000010000000}">
       <formula1>45658</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47 D37:D39" xr:uid="{00000000-0002-0000-0100-000011000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B67 D37:D40" xr:uid="{00000000-0002-0000-0100-000011000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D23" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>"14 days,30 days,45 days"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{0E563FC6-D334-4102-80DB-B12A49BE4535}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{0E563FC6-D334-4102-80DB-B12A49BE4535}">
       <formula1>"MESSOPHILIC,TERMOPHILIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{0AE3CB1E-D3BA-43AD-973B-95AC5034F0ED}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B65" xr:uid="{0AE3CB1E-D3BA-43AD-973B-95AC5034F0ED}">
       <formula1>"RICH FOG&amp;TSS,RICH SUGAR LOW FOG&amp;TSS,NON BGD ORGANIC,NON ORGANIC,DOMESTIC WASTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62" xr:uid="{3CAFC935-D919-4CAE-99B4-C39E42BBAA48}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{3CAFC935-D919-4CAE-99B4-C39E42BBAA48}">
       <formula1>"DISCHARGE ONLY,REUSE : G-3,REUSE : G-2,REUSE : G-1,REUSE : G-0"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B76" xr:uid="{722D38B0-FDF3-408F-A5A0-0137B25A2B6B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B85" xr:uid="{722D38B0-FDF3-408F-A5A0-0137B25A2B6B}">
       <formula1>"75%-85%,60%-75%,40%-50%,&lt;40%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B78:C86" xr:uid="{986438E4-27C9-4346-92EB-B2ED90C73F27}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:C95" xr:uid="{986438E4-27C9-4346-92EB-B2ED90C73F27}">
       <formula1>"INLET TANK,EQUALIZING,OWS,ANAFLOAT,INTERMEDIATE TANK,ANAPAK,AERATION,SECONDARY CLARIFIER,MMF,ACF,MPS,FINAL TANK,DAF,MBR,PRIMARY CLARIFIER,BWRO,CCRO,SWRO,ANAMEM,AOP,SMF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B83:C83" xr:uid="{9ACE7AA9-3561-4482-B5AE-1CC8193A6502}">
+      <formula1>"PERMENKES No. 2 Tahun 2023 (Parameter Wajib Air Minum), PERMENKES No. 2 Tahun 2023 (Parameter Air untuk Keperluan Higiene dan Sanitasi),"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{D5B1539D-C275-45EB-9183-7885F42584B5}">
+      <formula1>"GRUNDFOS,KSB,XYLEM,ITT GOULDS,EBARA,WILO,FLOWREX,CNP,LEO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{6D15CE87-D514-4C0B-81EB-0E4CE7F62C0E}">
+      <formula1>"GRADE A,GRADE B,GRADE C,GRADE E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{08B0867B-4945-4A65-BE3D-5208EFC4295B}">
+      <formula1>"PROMINENT,MILTON ROY,MLI,SEKO,FLOWREX,NEWDOSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{97CF9C98-806A-40FD-8822-3FC73739DB15}">
+      <formula1>"ATLAS COPCO,AERZEN,ROBUSCHI,KAESER,ZGK,EURUS,CHANGHE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46" xr:uid="{52BECC89-4D0B-4369-9F9A-553255C79538}">
+      <formula1>"BOEEP,FLOWREX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{E95110B2-E6A7-4E57-AFB6-751FA4B95D57}">
+      <formula1>"PENGUIN,CANATURE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47:B48 B51:B52" xr:uid="{537E1950-1AC0-4F58-88BF-273D4E49D878}">
+      <formula1>"FLOWREX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{85953944-4004-4CDE-BEBC-505E1555CDB8}">
+      <formula1>"TECHASE,BOEEP,FLOWREX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B53" xr:uid="{7550BC07-BF3B-4F31-B1E3-60BABD90CC24}">
+      <formula1>"ABB"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{F0A0AB00-97BB-49CD-9227-DC23E45ABA85}">
+      <formula1>"JAGGER,REHAU"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{0503AAA6-CA9D-40A3-8F21-39E4043C5C8D}">
+      <formula1>"SIEMENS,ALLEN-BRADLEY,SCHNEIDER,OMRON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56" xr:uid="{DEC920D3-5DEC-4C65-A781-E1E80973E12B}">
+      <formula1>"SIEMENS,ALLEN-BRADLEY,SCHNEIDER,OMRON,HAIWELL,MCGS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B57" xr:uid="{A792B851-F0D0-41CA-8C0E-6E7CC343A4CA}">
+      <formula1>"DIAC-X,ENDRESS+HAUSER,WIKA,ARMATHERM,EMERSON,YOKOGAWA,VEGA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B58" xr:uid="{65773699-45FC-42E7-9DA3-133CEF3C1BA2}">
+      <formula1>"SUPREME,JJLAP,ETERNA,LOCAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{D0BD5687-B728-4D47-8D29-FCF4E690F857}">
+      <formula1>"SUPREME,JJLAP,LOCAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D45" xr:uid="{D51A701E-7350-4097-BB5C-841E8043FF45}">
+      <formula1>"TURBO BLOWER,ROOTS BLOWER,SIDE CHANNEL BLOWER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D42" xr:uid="{99A5EF61-B540-454C-B71C-2967FB1181D2}">
+      <formula1>"VERTICAL MULTISTAGE CENTRIFUGAL PUMP,END SUCTION CENTRIFUGAL PUMP,SUBMERSIBLE PUMP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D43" xr:uid="{D1457EEC-A832-482F-B74F-3CFCBA2B89B5}">
+      <formula1>$I$42:$I$53</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4962,15 +5377,15 @@
       <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="74"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
@@ -4994,36 +5409,36 @@
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="74"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
@@ -5128,8 +5543,8 @@
       <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="74"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
@@ -5141,25 +5556,25 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="74"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="74"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
@@ -5273,15 +5688,15 @@
       <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="74"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="74"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
@@ -5293,77 +5708,84 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="74"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="70"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="74"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="70"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="74"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="70"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="74"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="74"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="70"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="74"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="70"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="74"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="70"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="74"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="74"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B49:C49"/>
@@ -5380,13 +5802,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -6059,11 +6474,11 @@
       <c r="A68" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="85" t="str">
+      <c r="B68" s="102" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
       </c>
-      <c r="C68" s="70"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="38" t="s">
         <v>178</v>
       </c>
@@ -6074,13 +6489,13 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="70"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="37" t="s">
         <v>181</v>
       </c>
@@ -6091,11 +6506,11 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="90"/>
-      <c r="B70" s="93" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="70"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="37" t="s">
         <v>183</v>
       </c>
@@ -6106,11 +6521,11 @@
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A71" s="90"/>
-      <c r="B71" s="93" t="s">
+      <c r="A71" s="95"/>
+      <c r="B71" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="70"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="37" t="s">
         <v>185</v>
       </c>
@@ -6121,11 +6536,11 @@
       <c r="I71" s="37"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A72" s="91"/>
-      <c r="B72" s="93" t="s">
+      <c r="A72" s="96"/>
+      <c r="B72" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="70"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="37" t="s">
         <v>187</v>
       </c>
@@ -6139,11 +6554,11 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="95" t="str">
+      <c r="B73" s="99" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or [invalid payment term] after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
-      <c r="C73" s="70"/>
+      <c r="C73" s="74"/>
       <c r="D73" s="38" t="s">
         <v>189</v>
       </c>
@@ -6169,147 +6584,147 @@
       <c r="A74" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="70"/>
+      <c r="C74" s="74"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
       <c r="A75" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="70"/>
+      <c r="C75" s="74"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="87" t="s">
+      <c r="B76" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="70"/>
+      <c r="C76" s="74"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A77" s="90"/>
-      <c r="B77" s="86" t="s">
+      <c r="A77" s="95"/>
+      <c r="B77" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="70"/>
+      <c r="C77" s="74"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="90"/>
-      <c r="B78" s="86" t="s">
+      <c r="A78" s="95"/>
+      <c r="B78" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="70"/>
+      <c r="C78" s="74"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A79" s="90"/>
-      <c r="B79" s="86" t="s">
+      <c r="A79" s="95"/>
+      <c r="B79" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="70"/>
+      <c r="C79" s="74"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A80" s="90"/>
-      <c r="B80" s="86" t="s">
+      <c r="A80" s="95"/>
+      <c r="B80" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="70"/>
+      <c r="C80" s="74"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A81" s="90"/>
-      <c r="B81" s="87" t="s">
+      <c r="A81" s="95"/>
+      <c r="B81" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="70"/>
+      <c r="C81" s="74"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A82" s="90"/>
-      <c r="B82" s="94" t="s">
+      <c r="A82" s="95"/>
+      <c r="B82" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="70"/>
+      <c r="C82" s="74"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87" t="s">
+      <c r="A83" s="95"/>
+      <c r="B83" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="70"/>
+      <c r="C83" s="74"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A84" s="90"/>
-      <c r="B84" s="86" t="s">
+      <c r="A84" s="95"/>
+      <c r="B84" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="C84" s="70"/>
+      <c r="C84" s="74"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="86" t="s">
+      <c r="A85" s="95"/>
+      <c r="B85" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="70"/>
+      <c r="C85" s="74"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A86" s="90"/>
-      <c r="B86" s="86" t="s">
+      <c r="A86" s="95"/>
+      <c r="B86" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="70"/>
+      <c r="C86" s="74"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
-      <c r="A87" s="90"/>
-      <c r="B87" s="86" t="s">
+      <c r="A87" s="95"/>
+      <c r="B87" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="70"/>
+      <c r="C87" s="74"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
-      <c r="A88" s="90"/>
-      <c r="B88" s="87" t="s">
+      <c r="A88" s="95"/>
+      <c r="B88" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="70"/>
+      <c r="C88" s="74"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="91"/>
-      <c r="B89" s="87" t="s">
+      <c r="A89" s="96"/>
+      <c r="B89" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="70"/>
+      <c r="C89" s="74"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A90" s="92" t="s">
+      <c r="A90" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="70"/>
+      <c r="C90" s="74"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="91"/>
-      <c r="B91" s="87" t="s">
+      <c r="A91" s="96"/>
+      <c r="B91" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="70"/>
+      <c r="C91" s="74"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="88" t="s">
+      <c r="B92" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="70"/>
+      <c r="C92" s="74"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A93" s="90"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="34" t="s">
         <v>216</v>
       </c>
@@ -6318,7 +6733,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="90"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="34" t="s">
         <v>218</v>
       </c>
@@ -6327,7 +6742,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="90"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="34" t="s">
         <v>220</v>
       </c>
@@ -6336,7 +6751,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="90"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="34" t="s">
         <v>222</v>
       </c>
@@ -6345,7 +6760,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="90"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="34" t="s">
         <v>224</v>
       </c>
@@ -6354,7 +6769,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="91"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="34" t="s">
         <v>226</v>
       </c>
@@ -6366,50 +6781,47 @@
       <c r="A99" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B99" s="88" t="s">
+      <c r="B99" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="70"/>
+      <c r="C99" s="74"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="98" t="s">
+      <c r="B100" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="70"/>
+      <c r="C100" s="74"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="70"/>
+      <c r="C101" s="74"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="70"/>
+      <c r="C102" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="B102:C102"/>
@@ -6426,13 +6838,16 @@
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B92:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -6443,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDAD76A-B5C9-4A8B-B955-E4D223127E27}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6600,10 +7015,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC56CC-78DA-4128-861F-2870B8FE444B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6791,35 +7206,6 @@
       </c>
       <c r="I6" s="65" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A7" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" s="66">
-        <v>45697</v>
-      </c>
-      <c r="G7" s="65">
-        <v>2</v>
-      </c>
-      <c r="H7" s="67">
-        <v>2025</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECD96B-657C-498B-80DB-A48EBC0EFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE2A19-268B-4DBB-938E-8EFE211C4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="687" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="687" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="DIP_Data Input" sheetId="4" r:id="rId4"/>
     <sheet name="User Code" sheetId="10" r:id="rId5"/>
     <sheet name="No of Quotation" sheetId="11" r:id="rId6"/>
-    <sheet name="DATA_PROPOSAL" sheetId="5" r:id="rId7"/>
-    <sheet name="DATA_OPEX" sheetId="6" r:id="rId8"/>
-    <sheet name="DATA_BOQ" sheetId="7" r:id="rId9"/>
-    <sheet name="DATA_TEMP" sheetId="8" r:id="rId10"/>
-    <sheet name="DATA_ELI" sheetId="9" r:id="rId11"/>
+    <sheet name="Effluent Warranty" sheetId="12" r:id="rId7"/>
+    <sheet name="DATA_PROPOSAL" sheetId="5" r:id="rId8"/>
+    <sheet name="DATA_OPEX" sheetId="6" r:id="rId9"/>
+    <sheet name="DATA_BOQ" sheetId="7" r:id="rId10"/>
+    <sheet name="DATA_TEMP" sheetId="8" r:id="rId11"/>
+    <sheet name="DATA_ELI" sheetId="9" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12.ABUTHMEN">#REF!</definedName>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="502">
   <si>
     <t>sub_CUSTOMER INFORMATION</t>
   </si>
@@ -1513,6 +1514,207 @@
   <si>
     <t>XSP</t>
   </si>
+  <si>
+    <t>Warranty_Type</t>
+  </si>
+  <si>
+    <t>Parameter_Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Row_Order</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Sisa Cl</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>E.Coli</t>
+  </si>
+  <si>
+    <t>Total Coliform</t>
+  </si>
+  <si>
+    <t>Odor</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>CFU/100 mL</t>
+  </si>
+  <si>
+    <t>6.5-8.5</t>
+  </si>
+  <si>
+    <t>&lt;300</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2-0.5</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>odorless</t>
+  </si>
+  <si>
+    <t>TDS*</t>
+  </si>
+  <si>
+    <t>Cr6+*</t>
+  </si>
+  <si>
+    <t>Fe*</t>
+  </si>
+  <si>
+    <t>Mn*</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>FOG</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>jumlah/100 mL</t>
+  </si>
+  <si>
+    <t>Pt-Co Unit</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phospate</t>
+  </si>
+  <si>
+    <t>Fluoride*</t>
+  </si>
+  <si>
+    <t>Sulphure as H2S*</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>Cyanide*</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>Free Chlorine</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>Oil and Grease</t>
+  </si>
+  <si>
+    <t>Total Detergent</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>MPN/100 mL</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
 </sst>
 </file>
 
@@ -1525,7 +1727,7 @@
     <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,6 +1861,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1698,7 +1905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1837,6 +2044,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1845,7 +2063,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2043,6 +2261,28 @@
     <xf numFmtId="3" fontId="20" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2129,6 +2369,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2137,7 +2380,254 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2906,8 +3396,18 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A618CFEC-44F6-4C8B-BDE3-EA2F79B81662}" name="Table1" displayName="Table1" ref="A1:E126" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E126" xr:uid="{A618CFEC-44F6-4C8B-BDE3-EA2F79B81662}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8FF9B65A-C827-4665-A0C4-F657B5567CE1}" name="Warranty_Type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{835507C8-9876-4B11-A685-71BD8080045C}" name="Parameter_Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2A9AD4F8-CBA0-44C7-AF2B-5CC8CABF75A5}" name="Value" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B56B2D63-8511-4C83-BD0F-C279A53E1FF6}" name="Unit" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{81D1AD90-8006-4C83-BF91-52435EB042C6}" name="Row_Order" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3246,18 +3746,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -3270,11 +3770,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3290,8 +3790,8 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3307,8 +3807,8 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3324,8 +3824,8 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3338,11 +3838,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3358,8 +3858,8 @@
       <c r="A8" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="82"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3372,8 +3872,8 @@
       <c r="A9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="82"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3386,8 +3886,8 @@
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="82"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3400,8 +3900,8 @@
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3417,8 +3917,8 @@
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3434,8 +3934,8 @@
       <c r="A13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3445,11 +3945,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="82"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3607,8 +4107,8 @@
       <c r="A24" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3618,11 +4118,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -3638,8 +4138,8 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3652,11 +4152,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3672,8 +4172,8 @@
       <c r="A28" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="82"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3686,8 +4186,8 @@
       <c r="A29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="82"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3700,8 +4200,8 @@
       <c r="A30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="82"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3714,8 +4214,8 @@
       <c r="A31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3731,8 +4231,8 @@
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3748,8 +4248,8 @@
       <c r="A33" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="82"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3886,8 +4386,8 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3897,11 +4397,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="74"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="82"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3914,8 +4414,8 @@
       <c r="A44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="82"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3928,8 +4428,8 @@
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="82"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3942,15 +4442,15 @@
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="82"/>
     </row>
     <row r="48" spans="1:14" ht="13.2" customHeight="1">
       <c r="H48" s="1"/>
@@ -4008,6 +4508,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4029,18 +4544,18 @@
       <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="52" t="s">
@@ -4097,11 +4612,11 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="82"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
@@ -4122,11 +4637,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
@@ -4166,7 +4681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:B6"/>
   <sheetViews>
@@ -4210,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="69" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A66" zoomScale="69" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4227,12 +4742,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -4888,18 +5403,18 @@
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="15.6">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="74"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="82"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6" t="s">
@@ -4923,39 +5438,39 @@
       <c r="A64" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="74"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="82"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="74"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="82"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="86" t="e">
+      <c r="B66" s="94" t="e">
         <f>B70/B69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C66" s="74"/>
+      <c r="C66" s="82"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="74"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="82"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="74"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="82"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
@@ -5051,8 +5566,8 @@
       <c r="A79" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="86"/>
-      <c r="C79" s="74"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="82"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
@@ -5064,35 +5579,35 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="74"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="82"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="85"/>
-      <c r="C82" s="74"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="82"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="74"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="82"/>
       <c r="E83" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="78"/>
-      <c r="C84" s="74"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="82"/>
       <c r="E84" t="s">
         <v>387</v>
       </c>
@@ -5110,11 +5625,11 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="77" t="s">
+      <c r="A86" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="78"/>
-      <c r="C86" s="74"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="82"/>
       <c r="E86" t="s">
         <v>390</v>
       </c>
@@ -5123,8 +5638,8 @@
       <c r="A87" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="74"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="82"/>
       <c r="E87" t="s">
         <v>391</v>
       </c>
@@ -5133,8 +5648,8 @@
       <c r="A88" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="74"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="82"/>
       <c r="E88" t="s">
         <v>392</v>
       </c>
@@ -5143,8 +5658,8 @@
       <c r="A89" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="74"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="82"/>
       <c r="E89" t="s">
         <v>393</v>
       </c>
@@ -5153,43 +5668,43 @@
       <c r="A90" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="74"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="82"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="74"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="82"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="85"/>
-      <c r="C92" s="74"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="82"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="74"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="82"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="85"/>
-      <c r="C94" s="74"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="82"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="85"/>
-      <c r="C95" s="74"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5374,18 +5889,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
@@ -5409,36 +5924,36 @@
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="82"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="82"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
@@ -5543,8 +6058,8 @@
       <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
@@ -5556,25 +6071,25 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="82"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="82"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
@@ -5688,15 +6203,15 @@
       <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="82"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="82"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
@@ -5708,74 +6223,74 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="74"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="82"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="74"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="82"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="82"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="82"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="82"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="82"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="74"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="82"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6474,11 +6989,11 @@
       <c r="A68" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="102" t="str">
+      <c r="B68" s="110" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
       </c>
-      <c r="C68" s="74"/>
+      <c r="C68" s="82"/>
       <c r="D68" s="38" t="s">
         <v>178</v>
       </c>
@@ -6489,13 +7004,13 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="100" t="s">
+      <c r="B69" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="74"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="37" t="s">
         <v>181</v>
       </c>
@@ -6506,11 +7021,11 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="95"/>
-      <c r="B70" s="91" t="s">
+      <c r="A70" s="103"/>
+      <c r="B70" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="74"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="37" t="s">
         <v>183</v>
       </c>
@@ -6521,11 +7036,11 @@
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A71" s="95"/>
-      <c r="B71" s="91" t="s">
+      <c r="A71" s="103"/>
+      <c r="B71" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="74"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="37" t="s">
         <v>185</v>
       </c>
@@ -6536,11 +7051,11 @@
       <c r="I71" s="37"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="91" t="s">
+      <c r="A72" s="104"/>
+      <c r="B72" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="74"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="37" t="s">
         <v>187</v>
       </c>
@@ -6554,11 +7069,11 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="99" t="str">
+      <c r="B73" s="107" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or [invalid payment term] after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
-      <c r="C73" s="74"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="38" t="s">
         <v>189</v>
       </c>
@@ -6584,147 +7099,147 @@
       <c r="A74" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="74"/>
+      <c r="C74" s="82"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
       <c r="A75" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="74"/>
+      <c r="C75" s="82"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
-      <c r="A76" s="97" t="s">
+      <c r="A76" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="74"/>
+      <c r="C76" s="82"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A77" s="95"/>
-      <c r="B77" s="93" t="s">
+      <c r="A77" s="103"/>
+      <c r="B77" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="74"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="95"/>
-      <c r="B78" s="93" t="s">
+      <c r="A78" s="103"/>
+      <c r="B78" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="74"/>
+      <c r="C78" s="82"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A79" s="95"/>
-      <c r="B79" s="93" t="s">
+      <c r="A79" s="103"/>
+      <c r="B79" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="74"/>
+      <c r="C79" s="82"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A80" s="95"/>
-      <c r="B80" s="93" t="s">
+      <c r="A80" s="103"/>
+      <c r="B80" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="74"/>
+      <c r="C80" s="82"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A81" s="95"/>
-      <c r="B81" s="89" t="s">
+      <c r="A81" s="103"/>
+      <c r="B81" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="74"/>
+      <c r="C81" s="82"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A82" s="95"/>
-      <c r="B82" s="98" t="s">
+      <c r="A82" s="103"/>
+      <c r="B82" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="74"/>
+      <c r="C82" s="82"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A83" s="95"/>
-      <c r="B83" s="89" t="s">
+      <c r="A83" s="103"/>
+      <c r="B83" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="74"/>
+      <c r="C83" s="82"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A84" s="95"/>
-      <c r="B84" s="93" t="s">
+      <c r="A84" s="103"/>
+      <c r="B84" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="C84" s="74"/>
+      <c r="C84" s="82"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="95"/>
-      <c r="B85" s="93" t="s">
+      <c r="A85" s="103"/>
+      <c r="B85" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="74"/>
+      <c r="C85" s="82"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A86" s="95"/>
-      <c r="B86" s="93" t="s">
+      <c r="A86" s="103"/>
+      <c r="B86" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="74"/>
+      <c r="C86" s="82"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
-      <c r="A87" s="95"/>
-      <c r="B87" s="93" t="s">
+      <c r="A87" s="103"/>
+      <c r="B87" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="74"/>
+      <c r="C87" s="82"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
-      <c r="A88" s="95"/>
-      <c r="B88" s="89" t="s">
+      <c r="A88" s="103"/>
+      <c r="B88" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="74"/>
+      <c r="C88" s="82"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="96"/>
-      <c r="B89" s="89" t="s">
+      <c r="A89" s="104"/>
+      <c r="B89" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="74"/>
+      <c r="C89" s="82"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A90" s="97" t="s">
+      <c r="A90" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="89" t="s">
+      <c r="B90" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="74"/>
+      <c r="C90" s="82"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="96"/>
-      <c r="B91" s="89" t="s">
+      <c r="A91" s="104"/>
+      <c r="B91" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="74"/>
+      <c r="C91" s="82"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="74"/>
+      <c r="C92" s="82"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A93" s="95"/>
+      <c r="A93" s="103"/>
       <c r="B93" s="34" t="s">
         <v>216</v>
       </c>
@@ -6733,7 +7248,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="95"/>
+      <c r="A94" s="103"/>
       <c r="B94" s="34" t="s">
         <v>218</v>
       </c>
@@ -6742,7 +7257,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="95"/>
+      <c r="A95" s="103"/>
       <c r="B95" s="34" t="s">
         <v>220</v>
       </c>
@@ -6751,7 +7266,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="95"/>
+      <c r="A96" s="103"/>
       <c r="B96" s="34" t="s">
         <v>222</v>
       </c>
@@ -6760,7 +7275,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="95"/>
+      <c r="A97" s="103"/>
       <c r="B97" s="34" t="s">
         <v>224</v>
       </c>
@@ -6769,7 +7284,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="96"/>
+      <c r="A98" s="104"/>
       <c r="B98" s="34" t="s">
         <v>226</v>
       </c>
@@ -6781,37 +7296,37 @@
       <c r="A99" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="74"/>
+      <c r="C99" s="82"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="74"/>
+      <c r="C100" s="82"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="74"/>
+      <c r="C101" s="82"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="92" t="s">
+      <c r="B102" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="74"/>
+      <c r="C102" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7018,7 +7533,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7215,6 +7730,2156 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F2126-D3AA-4FAD-B204-2AEC4B5DBC7F}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6">
+      <c r="A1" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="A4" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
+      <c r="A5" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="75">
+        <v>10</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="A6" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="75">
+        <v>20</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6">
+      <c r="A7" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="75">
+        <v>3</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="A8" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="A10" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="A11" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6">
+      <c r="A15" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6">
+      <c r="A17" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6">
+      <c r="A18" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="75">
+        <v>0</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E18" s="73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6">
+      <c r="A19" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6">
+      <c r="A20" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6">
+      <c r="A21" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E21" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6">
+      <c r="A22" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6">
+      <c r="A23" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="75">
+        <v>10</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6">
+      <c r="A24" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="75">
+        <v>20</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6">
+      <c r="A25" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="75">
+        <v>3</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E25" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6">
+      <c r="A26" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E26" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6">
+      <c r="A27" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E27" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6">
+      <c r="A28" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E28" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6">
+      <c r="A29" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="75">
+        <v>0</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E29" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6">
+      <c r="A30" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" s="75">
+        <v>0</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E30" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6">
+      <c r="A31" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6">
+      <c r="A32" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="80"/>
+      <c r="E32" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6">
+      <c r="A33" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" s="75">
+        <v>30</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6">
+      <c r="A34" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="75">
+        <v>100</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6">
+      <c r="A35" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="75">
+        <v>30</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6">
+      <c r="A36" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="75">
+        <v>5</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E36" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6">
+      <c r="A37" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="75">
+        <v>10</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E37" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6">
+      <c r="A38" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C38" s="75">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="E38" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6">
+      <c r="A39" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D39" s="80"/>
+      <c r="E39" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6">
+      <c r="A40" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="C40" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.6">
+      <c r="A41" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="75">
+        <v>40</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E41" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.6">
+      <c r="A42" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C42" s="75">
+        <v>15</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="E42" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.6">
+      <c r="A43" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C43" s="75">
+        <v>2</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E43" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.6">
+      <c r="A44" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C44" s="75">
+        <v>10</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E44" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.6">
+      <c r="A45" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="75">
+        <v>6</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E45" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6">
+      <c r="A46" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="C46" s="75">
+        <v>300</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.6">
+      <c r="A47" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="C47" s="75">
+        <v>300</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E47" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.6">
+      <c r="A48" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="75">
+        <v>10</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.6">
+      <c r="A49" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E49" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.6">
+      <c r="A50" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E50" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.6">
+      <c r="A51" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="C51" s="75">
+        <v>15</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E51" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6">
+      <c r="A52" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E52" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.6">
+      <c r="A53" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C53" s="75">
+        <v>1</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E53" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6">
+      <c r="A54" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E54" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.6">
+      <c r="A55" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E55" s="73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.6">
+      <c r="A56" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E56" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.6">
+      <c r="A57" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="75">
+        <v>1</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E57" s="73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.6">
+      <c r="A58" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E58" s="73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.6">
+      <c r="A59" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C59" s="75">
+        <v>100</v>
+      </c>
+      <c r="D59" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.6">
+      <c r="A60" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E60" s="73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.6">
+      <c r="A61" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B61" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D61" s="80"/>
+      <c r="E61" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.6">
+      <c r="A62" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E62" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.6">
+      <c r="A63" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="75">
+        <v>50</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E63" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.6">
+      <c r="A64" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B64" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" s="75">
+        <v>50</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.6">
+      <c r="A65" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="75">
+        <v>3</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E65" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.6">
+      <c r="A66" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="75">
+        <v>25</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.6">
+      <c r="A67" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B67" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="C67" s="75">
+        <v>4</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E67" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.6">
+      <c r="A68" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="C68" s="75">
+        <v>300</v>
+      </c>
+      <c r="D68" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E68" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.6">
+      <c r="A69" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="C69" s="75">
+        <v>300</v>
+      </c>
+      <c r="D69" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.6">
+      <c r="A70" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C70" s="75">
+        <v>10</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E70" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.6">
+      <c r="A71" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B71" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.6">
+      <c r="A72" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B72" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E72" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.6">
+      <c r="A73" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="75">
+        <v>15</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E73" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.6">
+      <c r="A74" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E74" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.6">
+      <c r="A75" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E75" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.6">
+      <c r="A76" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E76" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.6">
+      <c r="A77" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E77" s="73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.6">
+      <c r="A78" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E78" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.6">
+      <c r="A79" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="75">
+        <v>1</v>
+      </c>
+      <c r="D79" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" s="73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.6">
+      <c r="A80" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E80" s="73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.6">
+      <c r="A81" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C81" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D81" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E81" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.6">
+      <c r="A82" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C82" s="75">
+        <v>5000</v>
+      </c>
+      <c r="D82" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E82" s="73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.6">
+      <c r="A83" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C83" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="80"/>
+      <c r="E83" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.6">
+      <c r="A84" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B84" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C84" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E84" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.6">
+      <c r="A85" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C85" s="75">
+        <v>100</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E85" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.6">
+      <c r="A86" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C86" s="75">
+        <v>100</v>
+      </c>
+      <c r="D86" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="E86" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.6">
+      <c r="A87" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" s="75">
+        <v>6</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E87" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.6">
+      <c r="A88" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C88" s="75">
+        <v>40</v>
+      </c>
+      <c r="D88" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E88" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.6">
+      <c r="A89" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="C89" s="75">
+        <v>3</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E89" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.6">
+      <c r="A90" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="C90" s="75">
+        <v>300</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E90" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.6">
+      <c r="A91" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B91" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="75">
+        <v>300</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E91" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.6">
+      <c r="A92" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C92" s="75">
+        <v>20</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E92" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.6">
+      <c r="A93" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E93" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.6">
+      <c r="A94" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B94" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C94" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E94" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.6">
+      <c r="A95" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="C95" s="75">
+        <v>25</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.6">
+      <c r="A96" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C96" s="75">
+        <v>1</v>
+      </c>
+      <c r="D96" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E96" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.6">
+      <c r="A97" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B97" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E97" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.6">
+      <c r="A98" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="C98" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E98" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.6">
+      <c r="A99" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C99" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E99" s="73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.6">
+      <c r="A100" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="C100" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="D100" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E100" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.6">
+      <c r="A101" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B101" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="C101" s="75">
+        <v>1</v>
+      </c>
+      <c r="D101" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E101" s="73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.6">
+      <c r="A102" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="C102" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.6">
+      <c r="A103" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B103" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C103" s="75">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E103" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.6">
+      <c r="A104" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C104" s="75">
+        <v>10000</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E104" s="73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.6">
+      <c r="A105" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C105" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D105" s="80"/>
+      <c r="E105" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.6">
+      <c r="A106" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" s="75">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E106" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.6">
+      <c r="A107" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C107" s="75">
+        <v>400</v>
+      </c>
+      <c r="D107" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E107" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.6">
+      <c r="A108" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B108" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D108" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="E108" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.6">
+      <c r="A109" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B109" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" s="75">
+        <v>12</v>
+      </c>
+      <c r="D109" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E109" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.6">
+      <c r="A110" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B110" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" s="75">
+        <v>80</v>
+      </c>
+      <c r="D110" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E110" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.6">
+      <c r="A111" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B111" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="C111" s="75">
+        <v>1</v>
+      </c>
+      <c r="D111" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E111" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.6">
+      <c r="A112" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B112" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="C112" s="75">
+        <v>400</v>
+      </c>
+      <c r="D112" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E112" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.6">
+      <c r="A113" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B113" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="C113" s="75">
+        <v>600</v>
+      </c>
+      <c r="D113" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E113" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.6">
+      <c r="A114" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C114" s="75">
+        <v>20</v>
+      </c>
+      <c r="D114" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E114" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.6">
+      <c r="A115" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C115" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D115" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115" s="73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.6">
+      <c r="A116" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C116" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D116" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E116" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.6">
+      <c r="A117" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="C117" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D117" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E117" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.6">
+      <c r="A118" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C118" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D118" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" s="73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.6">
+      <c r="A119" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C119" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D119" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E119" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.6">
+      <c r="A120" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D120" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E120" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.6">
+      <c r="A121" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D121" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E121" s="73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.6">
+      <c r="A122" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="C122" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D122" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E122" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.6">
+      <c r="A123" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="C123" s="75">
+        <v>10</v>
+      </c>
+      <c r="D123" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E123" s="73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.6">
+      <c r="A124" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="C124" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D124" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E124" s="73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.6">
+      <c r="A125" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="75">
+        <v>2000</v>
+      </c>
+      <c r="D125" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E125" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.6">
+      <c r="A126" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B126" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="C126" s="75">
+        <v>10000</v>
+      </c>
+      <c r="D126" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E126" s="73">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7232,7 +9897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7247,19 +9912,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/SET_BDU.xlsx
+++ b/data/SET_BDU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIAC-V\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE2A19-268B-4DBB-938E-8EFE211C4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19393ABE-E9AE-404D-8E16-BB9123C562C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="687" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIP_Customer Information" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="503">
   <si>
     <t>sub_CUSTOMER INFORMATION</t>
   </si>
@@ -1452,15 +1452,9 @@
     <t>GRUNDFOS</t>
   </si>
   <si>
-    <t>fd_Type</t>
-  </si>
-  <si>
     <t>End Suction Centrifugal Pump</t>
   </si>
   <si>
-    <t>fd_Model</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -1714,6 +1708,15 @@
   </si>
   <si>
     <t>6-9</t>
+  </si>
+  <si>
+    <t>fd_Pump Type</t>
+  </si>
+  <si>
+    <t>fd_Pump Model</t>
+  </si>
+  <si>
+    <t>fd_Blower Type</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2066,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2283,6 +2286,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2369,9 +2375,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -3746,18 +3753,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -3770,11 +3777,11 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3790,8 +3797,8 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3807,8 +3814,8 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3824,8 +3831,8 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3838,11 +3845,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3858,8 +3865,8 @@
       <c r="A8" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="83"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3872,8 +3879,8 @@
       <c r="A9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="83"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3886,8 +3893,8 @@
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="83"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3900,8 +3907,8 @@
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3917,8 +3924,8 @@
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3934,8 +3941,8 @@
       <c r="A13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="83"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3945,11 +3952,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="82"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="83"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4107,8 +4114,8 @@
       <c r="A24" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4118,11 +4125,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -4138,8 +4145,8 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4152,11 +4159,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -4172,8 +4179,8 @@
       <c r="A28" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="83"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4186,8 +4193,8 @@
       <c r="A29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="83"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4200,8 +4207,8 @@
       <c r="A30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="83"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4214,8 +4221,8 @@
       <c r="A31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -4231,8 +4238,8 @@
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -4248,8 +4255,8 @@
       <c r="A33" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="83"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -4386,8 +4393,8 @@
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -4397,11 +4404,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="82"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="83"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -4414,8 +4421,8 @@
       <c r="A44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="82"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="83"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -4428,8 +4435,8 @@
       <c r="A45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="82"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="83"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -4442,15 +4449,15 @@
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="83"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="82"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="83"/>
     </row>
     <row r="48" spans="1:14" ht="13.2" customHeight="1">
       <c r="H48" s="1"/>
@@ -4544,18 +4551,18 @@
       <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="52" t="s">
@@ -4612,11 +4619,11 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
@@ -4637,11 +4644,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
@@ -4723,16 +4730,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="69" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="69" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="48.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -4742,12 +4749,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -5151,212 +5158,206 @@
         <v>396</v>
       </c>
       <c r="B42" s="71"/>
-      <c r="C42" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="6"/>
       <c r="G42" t="s">
         <v>413</v>
       </c>
       <c r="H42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="69"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D43" s="72"/>
+      <c r="A43" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="6"/>
       <c r="G43" t="s">
         <v>413</v>
       </c>
       <c r="H43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" s="72"/>
       <c r="D44" s="6"/>
       <c r="G44" t="s">
         <v>413</v>
       </c>
       <c r="H44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B45" s="71"/>
-      <c r="C45" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D45" s="71"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="G45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" s="71"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="6"/>
       <c r="G46" t="s">
+        <v>418</v>
+      </c>
+      <c r="H46" t="s">
+        <v>414</v>
+      </c>
+      <c r="I46" t="s">
         <v>420</v>
       </c>
-      <c r="H46" t="s">
-        <v>415</v>
-      </c>
-      <c r="I46" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="69" t="s">
-        <v>400</v>
+      <c r="A47" s="24" t="s">
+        <v>502</v>
       </c>
       <c r="B47" s="71"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="6"/>
       <c r="G47" t="s">
+        <v>421</v>
+      </c>
+      <c r="H47" t="s">
         <v>423</v>
       </c>
-      <c r="H47" t="s">
-        <v>425</v>
-      </c>
       <c r="I47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B48" s="71"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="G48" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="69" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B49" s="71"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="G49" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H49" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="G50" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="69" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="G51" t="s">
+        <v>428</v>
+      </c>
+      <c r="H51" t="s">
+        <v>414</v>
+      </c>
+      <c r="I51" t="s">
         <v>430</v>
-      </c>
-      <c r="H51" t="s">
-        <v>415</v>
-      </c>
-      <c r="I51" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="69" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="G52" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H52" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="6" t="s">
-        <v>405</v>
+      <c r="A53" s="69" t="s">
+        <v>403</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="G53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="6" t="s">
-        <v>406</v>
+      <c r="A54" s="69" t="s">
+        <v>404</v>
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="6"/>
@@ -5364,7 +5365,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="6"/>
@@ -5372,7 +5373,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="6"/>
@@ -5380,7 +5381,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B57" s="71"/>
       <c r="C57" s="6"/>
@@ -5388,7 +5389,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="6"/>
@@ -5396,103 +5397,101 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
-      <c r="A60" s="92" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" s="71"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B61" s="71"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6">
+      <c r="A62" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="85" t="s">
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="82"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="B63" s="87"/>
+      <c r="C63" s="83"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="93"/>
-      <c r="C64" s="82"/>
+        <v>69</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="82"/>
+        <v>71</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="94" t="e">
-        <f>B70/B69</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C66" s="82"/>
+        <v>73</v>
+      </c>
+      <c r="B66" s="94"/>
+      <c r="C66" s="83"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="82"/>
+        <v>74</v>
+      </c>
+      <c r="B67" s="94"/>
+      <c r="C67" s="83"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="82"/>
+        <v>75</v>
+      </c>
+      <c r="B68" s="95" t="e">
+        <f>B72/B71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C68" s="83"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B69" s="96"/>
+      <c r="C69" s="83"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="40" t="s">
-        <v>70</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B70" s="97"/>
+      <c r="C70" s="83"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="40" t="s">
@@ -5501,7 +5500,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="40" t="s">
@@ -5510,7 +5509,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="40" t="s">
@@ -5519,7 +5518,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="40" t="s">
@@ -5528,7 +5527,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="40" t="s">
@@ -5537,7 +5536,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="40" t="s">
@@ -5546,191 +5545,188 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="49" t="s">
-        <v>87</v>
+      <c r="C77" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="49" t="s">
-        <v>89</v>
+      <c r="C78" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="82"/>
+        <v>86</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="49" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="95"/>
+      <c r="C81" s="83"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="49" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="85" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="82"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="6" t="s">
+      <c r="B83" s="87"/>
+      <c r="C83" s="83"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="93"/>
-      <c r="C82" s="82"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="6" t="s">
+      <c r="B84" s="94"/>
+      <c r="C84" s="83"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B83" s="93"/>
-      <c r="C83" s="82"/>
-      <c r="E83" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="85" t="s">
+      <c r="B85" s="94"/>
+      <c r="C85" s="83"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="82"/>
-      <c r="E84" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="6" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="83"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="21" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E85" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="85" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="86"/>
-      <c r="C86" s="82"/>
-      <c r="E86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="83"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="82"/>
-      <c r="E87" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="6" t="s">
+      <c r="B89" s="94"/>
+      <c r="C89" s="83"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="82"/>
-      <c r="E88" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="6" t="s">
+      <c r="B90" s="94"/>
+      <c r="C90" s="83"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="82"/>
-      <c r="E89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="B91" s="94"/>
+      <c r="C91" s="83"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B90" s="93"/>
-      <c r="C90" s="82"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="6" t="s">
+      <c r="B92" s="94"/>
+      <c r="C92" s="83"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B91" s="93"/>
-      <c r="C91" s="82"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="6" t="s">
+      <c r="B93" s="94"/>
+      <c r="C93" s="83"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="93"/>
-      <c r="C92" s="82"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="6" t="s">
+      <c r="B94" s="94"/>
+      <c r="C94" s="83"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="82"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="6" t="s">
+      <c r="B95" s="94"/>
+      <c r="C95" s="83"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="82"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="6" t="s">
+      <c r="B96" s="94"/>
+      <c r="C96" s="83"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="93"/>
-      <c r="C95" s="82"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="A86:C86"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="43">
@@ -5785,82 +5781,80 @@
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B26:B29" xr:uid="{00000000-0002-0000-0100-000010000000}">
       <formula1>45658</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B67 D37:D40" xr:uid="{00000000-0002-0000-0100-000011000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B69 D37:D40" xr:uid="{00000000-0002-0000-0100-000011000000}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D23" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>"14 days,30 days,45 days"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{0E563FC6-D334-4102-80DB-B12A49BE4535}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B66" xr:uid="{0E563FC6-D334-4102-80DB-B12A49BE4535}">
       <formula1>"MESSOPHILIC,TERMOPHILIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B65" xr:uid="{0AE3CB1E-D3BA-43AD-973B-95AC5034F0ED}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B67" xr:uid="{0AE3CB1E-D3BA-43AD-973B-95AC5034F0ED}">
       <formula1>"RICH FOG&amp;TSS,RICH SUGAR LOW FOG&amp;TSS,NON BGD ORGANIC,NON ORGANIC,DOMESTIC WASTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{3CAFC935-D919-4CAE-99B4-C39E42BBAA48}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B84" xr:uid="{3CAFC935-D919-4CAE-99B4-C39E42BBAA48}">
       <formula1>"DISCHARGE ONLY,REUSE : G-3,REUSE : G-2,REUSE : G-1,REUSE : G-0"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B85" xr:uid="{722D38B0-FDF3-408F-A5A0-0137B25A2B6B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87" xr:uid="{722D38B0-FDF3-408F-A5A0-0137B25A2B6B}">
       <formula1>"75%-85%,60%-75%,40%-50%,&lt;40%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:C95" xr:uid="{986438E4-27C9-4346-92EB-B2ED90C73F27}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B89:C97" xr:uid="{986438E4-27C9-4346-92EB-B2ED90C73F27}">
       <formula1>"INLET TANK,EQUALIZING,OWS,ANAFLOAT,INTERMEDIATE TANK,ANAPAK,AERATION,SECONDARY CLARIFIER,MMF,ACF,MPS,FINAL TANK,DAF,MBR,PRIMARY CLARIFIER,BWRO,CCRO,SWRO,ANAMEM,AOP,SMF"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B83:C83" xr:uid="{9ACE7AA9-3561-4482-B5AE-1CC8193A6502}">
-      <formula1>"PERMENKES No. 2 Tahun 2023 (Parameter Wajib Air Minum), PERMENKES No. 2 Tahun 2023 (Parameter Air untuk Keperluan Higiene dan Sanitasi),"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B85:C85" xr:uid="{9ACE7AA9-3561-4482-B5AE-1CC8193A6502}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{D5B1539D-C275-45EB-9183-7885F42584B5}">
       <formula1>"GRUNDFOS,KSB,XYLEM,ITT GOULDS,EBARA,WILO,FLOWREX,CNP,LEO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{6D15CE87-D514-4C0B-81EB-0E4CE7F62C0E}">
       <formula1>"GRADE A,GRADE B,GRADE C,GRADE E"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{08B0867B-4945-4A65-BE3D-5208EFC4295B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{08B0867B-4945-4A65-BE3D-5208EFC4295B}">
       <formula1>"PROMINENT,MILTON ROY,MLI,SEKO,FLOWREX,NEWDOSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{97CF9C98-806A-40FD-8822-3FC73739DB15}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46" xr:uid="{97CF9C98-806A-40FD-8822-3FC73739DB15}">
       <formula1>"ATLAS COPCO,AERZEN,ROBUSCHI,KAESER,ZGK,EURUS,CHANGHE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46" xr:uid="{52BECC89-4D0B-4369-9F9A-553255C79538}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{52BECC89-4D0B-4369-9F9A-553255C79538}">
       <formula1>"BOEEP,FLOWREX"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{E95110B2-E6A7-4E57-AFB6-751FA4B95D57}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B51" xr:uid="{E95110B2-E6A7-4E57-AFB6-751FA4B95D57}">
       <formula1>"PENGUIN,CANATURE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47:B48 B51:B52" xr:uid="{537E1950-1AC0-4F58-88BF-273D4E49D878}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B49:B50 B53:B54" xr:uid="{537E1950-1AC0-4F58-88BF-273D4E49D878}">
       <formula1>"FLOWREX"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{85953944-4004-4CDE-BEBC-505E1555CDB8}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{85953944-4004-4CDE-BEBC-505E1555CDB8}">
       <formula1>"TECHASE,BOEEP,FLOWREX"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B53" xr:uid="{7550BC07-BF3B-4F31-B1E3-60BABD90CC24}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{7550BC07-BF3B-4F31-B1E3-60BABD90CC24}">
       <formula1>"ABB"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{F0A0AB00-97BB-49CD-9227-DC23E45ABA85}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56" xr:uid="{F0A0AB00-97BB-49CD-9227-DC23E45ABA85}">
       <formula1>"JAGGER,REHAU"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{0503AAA6-CA9D-40A3-8F21-39E4043C5C8D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B57" xr:uid="{0503AAA6-CA9D-40A3-8F21-39E4043C5C8D}">
       <formula1>"SIEMENS,ALLEN-BRADLEY,SCHNEIDER,OMRON"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56" xr:uid="{DEC920D3-5DEC-4C65-A781-E1E80973E12B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B58" xr:uid="{DEC920D3-5DEC-4C65-A781-E1E80973E12B}">
       <formula1>"SIEMENS,ALLEN-BRADLEY,SCHNEIDER,OMRON,HAIWELL,MCGS"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B57" xr:uid="{A792B851-F0D0-41CA-8C0E-6E7CC343A4CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{A792B851-F0D0-41CA-8C0E-6E7CC343A4CA}">
       <formula1>"DIAC-X,ENDRESS+HAUSER,WIKA,ARMATHERM,EMERSON,YOKOGAWA,VEGA"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B58" xr:uid="{65773699-45FC-42E7-9DA3-133CEF3C1BA2}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B60" xr:uid="{65773699-45FC-42E7-9DA3-133CEF3C1BA2}">
       <formula1>"SUPREME,JJLAP,ETERNA,LOCAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{D0BD5687-B728-4D47-8D29-FCF4E690F857}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B61" xr:uid="{D0BD5687-B728-4D47-8D29-FCF4E690F857}">
       <formula1>"SUPREME,JJLAP,LOCAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D45" xr:uid="{D51A701E-7350-4097-BB5C-841E8043FF45}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47" xr:uid="{D51A701E-7350-4097-BB5C-841E8043FF45}">
       <formula1>"TURBO BLOWER,ROOTS BLOWER,SIDE CHANNEL BLOWER"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D42" xr:uid="{99A5EF61-B540-454C-B71C-2967FB1181D2}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{99A5EF61-B540-454C-B71C-2967FB1181D2}">
       <formula1>"VERTICAL MULTISTAGE CENTRIFUGAL PUMP,END SUCTION CENTRIFUGAL PUMP,SUBMERSIBLE PUMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D43" xr:uid="{D1457EEC-A832-482F-B74F-3CFCBA2B89B5}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{D1457EEC-A832-482F-B74F-3CFCBA2B89B5}">
       <formula1>$I$42:$I$53</formula1>
     </dataValidation>
   </dataValidations>
@@ -5889,18 +5883,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="83"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
@@ -5924,36 +5918,36 @@
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="83"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="83"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="83"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
@@ -6058,8 +6052,8 @@
       <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="83"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
@@ -6071,25 +6065,25 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="83"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="83"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="83"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
@@ -6203,15 +6197,15 @@
       <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="82"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="83"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="82"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="83"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
@@ -6223,74 +6217,74 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="83"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="82"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="83"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="82"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="83"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="82"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="83"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="82"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="83"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="83"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="82"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="83"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="82"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="83"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="82"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="83"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="82"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6989,11 +6983,11 @@
       <c r="A68" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="110" t="str">
+      <c r="B68" s="111" t="str">
         <f>"td_Cost And Freight (CFR) " &amp; 'DIP_Customer Information'!B10 &amp; ", " &amp; 'DIP_Customer Information'!B9 &amp; ", " &amp; 'DIP_Customer Information'!B8</f>
         <v xml:space="preserve">td_Cost And Freight (CFR) , , </v>
       </c>
-      <c r="C68" s="82"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="38" t="s">
         <v>178</v>
       </c>
@@ -7004,13 +6998,13 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:12" ht="34.200000000000003" customHeight="1">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="82"/>
+      <c r="C69" s="83"/>
       <c r="D69" s="37" t="s">
         <v>181</v>
       </c>
@@ -7021,11 +7015,11 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="103"/>
-      <c r="B70" s="99" t="s">
+      <c r="A70" s="104"/>
+      <c r="B70" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="82"/>
+      <c r="C70" s="83"/>
       <c r="D70" s="37" t="s">
         <v>183</v>
       </c>
@@ -7036,11 +7030,11 @@
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A71" s="103"/>
-      <c r="B71" s="99" t="s">
+      <c r="A71" s="104"/>
+      <c r="B71" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="82"/>
+      <c r="C71" s="83"/>
       <c r="D71" s="37" t="s">
         <v>185</v>
       </c>
@@ -7051,11 +7045,11 @@
       <c r="I71" s="37"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A72" s="104"/>
-      <c r="B72" s="99" t="s">
+      <c r="A72" s="105"/>
+      <c r="B72" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="82"/>
+      <c r="C72" s="83"/>
       <c r="D72" s="37" t="s">
         <v>187</v>
       </c>
@@ -7069,11 +7063,11 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="107" t="str">
+      <c r="B73" s="108" t="str">
         <f>J73&amp;K73&amp;L73</f>
         <v>td_All invoices are due and payable at the specified payment date or [invalid payment term] after invoice date if no payment schedule has been specified in the Sales Oder Contract or in Seller's confirmation of order. In case Buyer defaults in payment, Buyer shall be subject to a default late payment penalty of 1.0% of the outstanding amounts due to Seller for every calendar week or part thereof.</v>
       </c>
-      <c r="C73" s="82"/>
+      <c r="C73" s="83"/>
       <c r="D73" s="38" t="s">
         <v>189</v>
       </c>
@@ -7099,147 +7093,147 @@
       <c r="A74" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="100" t="s">
+      <c r="B74" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="82"/>
+      <c r="C74" s="83"/>
     </row>
     <row r="75" spans="1:12" ht="14.4" customHeight="1">
       <c r="A75" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="100" t="s">
+      <c r="B75" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="82"/>
+      <c r="C75" s="83"/>
     </row>
     <row r="76" spans="1:12" ht="28.2" customHeight="1">
-      <c r="A76" s="105" t="s">
+      <c r="A76" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="97" t="s">
+      <c r="B76" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="82"/>
+      <c r="C76" s="83"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A77" s="103"/>
-      <c r="B77" s="101" t="s">
+      <c r="A77" s="104"/>
+      <c r="B77" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="82"/>
+      <c r="C77" s="83"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="103"/>
-      <c r="B78" s="101" t="s">
+      <c r="A78" s="104"/>
+      <c r="B78" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="82"/>
+      <c r="C78" s="83"/>
     </row>
     <row r="79" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A79" s="103"/>
-      <c r="B79" s="101" t="s">
+      <c r="A79" s="104"/>
+      <c r="B79" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="82"/>
+      <c r="C79" s="83"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A80" s="103"/>
-      <c r="B80" s="101" t="s">
+      <c r="A80" s="104"/>
+      <c r="B80" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="82"/>
+      <c r="C80" s="83"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A81" s="103"/>
-      <c r="B81" s="97" t="s">
+      <c r="A81" s="104"/>
+      <c r="B81" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="82"/>
+      <c r="C81" s="83"/>
     </row>
     <row r="82" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A82" s="103"/>
-      <c r="B82" s="106" t="s">
+      <c r="A82" s="104"/>
+      <c r="B82" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="82"/>
+      <c r="C82" s="83"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A83" s="103"/>
-      <c r="B83" s="97" t="s">
+      <c r="A83" s="104"/>
+      <c r="B83" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="82"/>
+      <c r="C83" s="83"/>
     </row>
     <row r="84" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A84" s="103"/>
-      <c r="B84" s="101" t="s">
+      <c r="A84" s="104"/>
+      <c r="B84" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="C84" s="82"/>
+      <c r="C84" s="83"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="103"/>
-      <c r="B85" s="101" t="s">
+      <c r="A85" s="104"/>
+      <c r="B85" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="82"/>
+      <c r="C85" s="83"/>
     </row>
     <row r="86" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A86" s="103"/>
-      <c r="B86" s="101" t="s">
+      <c r="A86" s="104"/>
+      <c r="B86" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="82"/>
+      <c r="C86" s="83"/>
     </row>
     <row r="87" spans="1:3" ht="31.2" customHeight="1">
-      <c r="A87" s="103"/>
-      <c r="B87" s="101" t="s">
+      <c r="A87" s="104"/>
+      <c r="B87" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="82"/>
+      <c r="C87" s="83"/>
     </row>
     <row r="88" spans="1:3" ht="48.6" customHeight="1">
-      <c r="A88" s="103"/>
-      <c r="B88" s="97" t="s">
+      <c r="A88" s="104"/>
+      <c r="B88" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="82"/>
+      <c r="C88" s="83"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="104"/>
-      <c r="B89" s="97" t="s">
+      <c r="A89" s="105"/>
+      <c r="B89" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="82"/>
+      <c r="C89" s="83"/>
     </row>
     <row r="90" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A90" s="105" t="s">
+      <c r="A90" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="97" t="s">
+      <c r="B90" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="82"/>
+      <c r="C90" s="83"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="104"/>
-      <c r="B91" s="97" t="s">
+      <c r="A91" s="105"/>
+      <c r="B91" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="82"/>
+      <c r="C91" s="83"/>
     </row>
     <row r="92" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A92" s="109" t="s">
+      <c r="A92" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="82"/>
+      <c r="C92" s="83"/>
     </row>
     <row r="93" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A93" s="103"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="34" t="s">
         <v>216</v>
       </c>
@@ -7248,7 +7242,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="103"/>
+      <c r="A94" s="104"/>
       <c r="B94" s="34" t="s">
         <v>218</v>
       </c>
@@ -7257,7 +7251,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="103"/>
+      <c r="A95" s="104"/>
       <c r="B95" s="34" t="s">
         <v>220</v>
       </c>
@@ -7266,7 +7260,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="103"/>
+      <c r="A96" s="104"/>
       <c r="B96" s="34" t="s">
         <v>222</v>
       </c>
@@ -7275,7 +7269,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="103"/>
+      <c r="A97" s="104"/>
       <c r="B97" s="34" t="s">
         <v>224</v>
       </c>
@@ -7284,7 +7278,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="104"/>
+      <c r="A98" s="105"/>
       <c r="B98" s="34" t="s">
         <v>226</v>
       </c>
@@ -7296,37 +7290,37 @@
       <c r="A99" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B99" s="100" t="s">
+      <c r="B99" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="82"/>
+      <c r="C99" s="83"/>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="98" t="s">
+      <c r="B100" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="82"/>
+      <c r="C100" s="83"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="100" t="s">
+      <c r="B101" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="82"/>
+      <c r="C101" s="83"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="100" t="s">
+      <c r="B102" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="82"/>
+      <c r="C102" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7733,7 +7727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F2126-D3AA-4FAD-B204-2AEC4B5DBC7F}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -7748,19 +7742,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="78" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="D1" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="E1" s="79" t="s">
         <v>437</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>438</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7768,10 +7762,10 @@
         <v>388</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="73">
@@ -7783,13 +7777,13 @@
         <v>388</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" s="73">
         <v>2</v>
@@ -7800,13 +7794,13 @@
         <v>388</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E4" s="73">
         <v>3</v>
@@ -7817,13 +7811,13 @@
         <v>388</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="75">
         <v>10</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5" s="73">
         <v>4</v>
@@ -7834,13 +7828,13 @@
         <v>388</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="75">
         <v>20</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E6" s="73">
         <v>5</v>
@@ -7851,13 +7845,13 @@
         <v>388</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C7" s="75">
         <v>3</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E7" s="73">
         <v>6</v>
@@ -7871,10 +7865,10 @@
         <v>384</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E8" s="73">
         <v>7</v>
@@ -7885,13 +7879,13 @@
         <v>388</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E9" s="73">
         <v>8</v>
@@ -7902,13 +7896,13 @@
         <v>388</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E10" s="73">
         <v>9</v>
@@ -7919,13 +7913,13 @@
         <v>388</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E11" s="73">
         <v>10</v>
@@ -7936,13 +7930,13 @@
         <v>388</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" s="73">
         <v>11</v>
@@ -7953,13 +7947,13 @@
         <v>388</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E13" s="73">
         <v>12</v>
@@ -7970,13 +7964,13 @@
         <v>388</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E14" s="73">
         <v>13</v>
@@ -7987,13 +7981,13 @@
         <v>388</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E15" s="73">
         <v>14</v>
@@ -8004,13 +7998,13 @@
         <v>388</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E16" s="73">
         <v>15</v>
@@ -8021,13 +8015,13 @@
         <v>388</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C17" s="75">
         <v>0</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E17" s="73">
         <v>16</v>
@@ -8038,13 +8032,13 @@
         <v>388</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C18" s="75">
         <v>0</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E18" s="73">
         <v>17</v>
@@ -8055,10 +8049,10 @@
         <v>388</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="73">
@@ -8070,10 +8064,10 @@
         <v>387</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="73">
@@ -8085,13 +8079,13 @@
         <v>387</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E21" s="73">
         <v>2</v>
@@ -8102,13 +8096,13 @@
         <v>387</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E22" s="73">
         <v>3</v>
@@ -8119,13 +8113,13 @@
         <v>387</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" s="75">
         <v>10</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E23" s="73">
         <v>4</v>
@@ -8136,13 +8130,13 @@
         <v>387</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C24" s="75">
         <v>20</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E24" s="73">
         <v>5</v>
@@ -8153,13 +8147,13 @@
         <v>387</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C25" s="75">
         <v>3</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E25" s="73">
         <v>6</v>
@@ -8170,13 +8164,13 @@
         <v>387</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E26" s="73">
         <v>7</v>
@@ -8187,13 +8181,13 @@
         <v>387</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E27" s="73">
         <v>8</v>
@@ -8204,13 +8198,13 @@
         <v>387</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E28" s="73">
         <v>9</v>
@@ -8221,13 +8215,13 @@
         <v>387</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C29" s="75">
         <v>0</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E29" s="73">
         <v>10</v>
@@ -8238,13 +8232,13 @@
         <v>387</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C30" s="75">
         <v>0</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E30" s="73">
         <v>11</v>
@@ -8255,10 +8249,10 @@
         <v>387</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="73">
@@ -8270,10 +8264,10 @@
         <v>389</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>501</v>
+        <v>438</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>499</v>
       </c>
       <c r="D32" s="80"/>
       <c r="E32" s="73">
@@ -8285,13 +8279,13 @@
         <v>389</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C33" s="75">
         <v>30</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E33" s="73">
         <v>2</v>
@@ -8302,13 +8296,13 @@
         <v>389</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C34" s="75">
         <v>100</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E34" s="73">
         <v>3</v>
@@ -8319,13 +8313,13 @@
         <v>389</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C35" s="75">
         <v>30</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E35" s="73">
         <v>4</v>
@@ -8336,13 +8330,13 @@
         <v>389</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C36" s="75">
         <v>5</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E36" s="73">
         <v>5</v>
@@ -8353,13 +8347,13 @@
         <v>389</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C37" s="75">
         <v>10</v>
       </c>
       <c r="D37" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E37" s="73">
         <v>6</v>
@@ -8370,13 +8364,13 @@
         <v>389</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C38" s="75">
         <v>3000</v>
       </c>
       <c r="D38" s="74" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E38" s="73">
         <v>7</v>
@@ -8387,10 +8381,10 @@
         <v>390</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" s="113" t="s">
-        <v>501</v>
+        <v>438</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>499</v>
       </c>
       <c r="D39" s="80"/>
       <c r="E39" s="73">
@@ -8402,13 +8396,13 @@
         <v>390</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" s="75">
         <v>1000</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E40" s="73">
         <v>2</v>
@@ -8419,13 +8413,13 @@
         <v>390</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C41" s="75">
         <v>40</v>
       </c>
       <c r="D41" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E41" s="73">
         <v>3</v>
@@ -8436,13 +8430,13 @@
         <v>390</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C42" s="75">
         <v>15</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E42" s="73">
         <v>4</v>
@@ -8453,13 +8447,13 @@
         <v>390</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C43" s="75">
         <v>2</v>
       </c>
       <c r="D43" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E43" s="73">
         <v>5</v>
@@ -8470,13 +8464,13 @@
         <v>390</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C44" s="75">
         <v>10</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E44" s="73">
         <v>6</v>
@@ -8487,13 +8481,13 @@
         <v>390</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C45" s="75">
         <v>6</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E45" s="73">
         <v>7</v>
@@ -8504,13 +8498,13 @@
         <v>390</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C46" s="75">
         <v>300</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E46" s="73">
         <v>8</v>
@@ -8521,13 +8515,13 @@
         <v>390</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C47" s="75">
         <v>300</v>
       </c>
       <c r="D47" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E47" s="73">
         <v>9</v>
@@ -8538,13 +8532,13 @@
         <v>390</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C48" s="75">
         <v>10</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E48" s="73">
         <v>10</v>
@@ -8555,13 +8549,13 @@
         <v>390</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E49" s="73">
         <v>11</v>
@@ -8572,13 +8566,13 @@
         <v>390</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D50" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E50" s="73">
         <v>12</v>
@@ -8589,13 +8583,13 @@
         <v>390</v>
       </c>
       <c r="B51" s="74" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C51" s="75">
         <v>15</v>
       </c>
       <c r="D51" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E51" s="73">
         <v>13</v>
@@ -8606,13 +8600,13 @@
         <v>390</v>
       </c>
       <c r="B52" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D52" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E52" s="73">
         <v>14</v>
@@ -8623,13 +8617,13 @@
         <v>390</v>
       </c>
       <c r="B53" s="74" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C53" s="75">
         <v>1</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E53" s="73">
         <v>15</v>
@@ -8640,13 +8634,13 @@
         <v>390</v>
       </c>
       <c r="B54" s="74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D54" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E54" s="73">
         <v>16</v>
@@ -8657,13 +8651,13 @@
         <v>390</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E55" s="73">
         <v>17</v>
@@ -8674,13 +8668,13 @@
         <v>390</v>
       </c>
       <c r="B56" s="74" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D56" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E56" s="73">
         <v>18</v>
@@ -8691,13 +8685,13 @@
         <v>390</v>
       </c>
       <c r="B57" s="74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C57" s="75">
         <v>1</v>
       </c>
       <c r="D57" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E57" s="73">
         <v>19</v>
@@ -8708,13 +8702,13 @@
         <v>390</v>
       </c>
       <c r="B58" s="74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D58" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E58" s="73">
         <v>20</v>
@@ -8725,13 +8719,13 @@
         <v>390</v>
       </c>
       <c r="B59" s="74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C59" s="75">
         <v>100</v>
       </c>
       <c r="D59" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E59" s="73">
         <v>21</v>
@@ -8742,13 +8736,13 @@
         <v>390</v>
       </c>
       <c r="B60" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C60" s="75">
         <v>1000</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E60" s="73">
         <v>22</v>
@@ -8759,10 +8753,10 @@
         <v>391</v>
       </c>
       <c r="B61" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>501</v>
+        <v>438</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>499</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="73">
@@ -8774,13 +8768,13 @@
         <v>391</v>
       </c>
       <c r="B62" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C62" s="75">
         <v>1000</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E62" s="73">
         <v>2</v>
@@ -8791,13 +8785,13 @@
         <v>391</v>
       </c>
       <c r="B63" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C63" s="75">
         <v>50</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E63" s="73">
         <v>3</v>
@@ -8808,13 +8802,13 @@
         <v>391</v>
       </c>
       <c r="B64" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C64" s="75">
         <v>50</v>
       </c>
       <c r="D64" s="74" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E64" s="73">
         <v>4</v>
@@ -8825,13 +8819,13 @@
         <v>391</v>
       </c>
       <c r="B65" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C65" s="75">
         <v>3</v>
       </c>
       <c r="D65" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E65" s="73">
         <v>5</v>
@@ -8842,13 +8836,13 @@
         <v>391</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C66" s="75">
         <v>25</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E66" s="73">
         <v>6</v>
@@ -8859,13 +8853,13 @@
         <v>391</v>
       </c>
       <c r="B67" s="74" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C67" s="75">
         <v>4</v>
       </c>
       <c r="D67" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E67" s="73">
         <v>7</v>
@@ -8876,13 +8870,13 @@
         <v>391</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C68" s="75">
         <v>300</v>
       </c>
       <c r="D68" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E68" s="73">
         <v>8</v>
@@ -8893,13 +8887,13 @@
         <v>391</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C69" s="75">
         <v>300</v>
       </c>
       <c r="D69" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E69" s="73">
         <v>9</v>
@@ -8910,13 +8904,13 @@
         <v>391</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C70" s="75">
         <v>10</v>
       </c>
       <c r="D70" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E70" s="73">
         <v>10</v>
@@ -8927,13 +8921,13 @@
         <v>391</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D71" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E71" s="73">
         <v>11</v>
@@ -8944,13 +8938,13 @@
         <v>391</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D72" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E72" s="73">
         <v>12</v>
@@ -8961,13 +8955,13 @@
         <v>391</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C73" s="75">
         <v>15</v>
       </c>
       <c r="D73" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E73" s="73">
         <v>13</v>
@@ -8978,13 +8972,13 @@
         <v>391</v>
       </c>
       <c r="B74" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D74" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E74" s="73">
         <v>14</v>
@@ -8995,13 +8989,13 @@
         <v>391</v>
       </c>
       <c r="B75" s="74" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D75" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E75" s="73">
         <v>15</v>
@@ -9012,13 +9006,13 @@
         <v>391</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D76" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E76" s="73">
         <v>16</v>
@@ -9029,13 +9023,13 @@
         <v>391</v>
       </c>
       <c r="B77" s="74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D77" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E77" s="73">
         <v>17</v>
@@ -9046,13 +9040,13 @@
         <v>391</v>
       </c>
       <c r="B78" s="74" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E78" s="73">
         <v>18</v>
@@ -9063,13 +9057,13 @@
         <v>391</v>
       </c>
       <c r="B79" s="74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C79" s="75">
         <v>1</v>
       </c>
       <c r="D79" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E79" s="73">
         <v>19</v>
@@ -9080,13 +9074,13 @@
         <v>391</v>
       </c>
       <c r="B80" s="74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D80" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E80" s="73">
         <v>20</v>
@@ -9097,13 +9091,13 @@
         <v>391</v>
       </c>
       <c r="B81" s="74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C81" s="75">
         <v>1000</v>
       </c>
       <c r="D81" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E81" s="73">
         <v>21</v>
@@ -9114,13 +9108,13 @@
         <v>391</v>
       </c>
       <c r="B82" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C82" s="75">
         <v>5000</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E82" s="73">
         <v>22</v>
@@ -9131,10 +9125,10 @@
         <v>392</v>
       </c>
       <c r="B83" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C83" s="113" t="s">
-        <v>501</v>
+        <v>438</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>499</v>
       </c>
       <c r="D83" s="80"/>
       <c r="E83" s="73">
@@ -9146,13 +9140,13 @@
         <v>392</v>
       </c>
       <c r="B84" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C84" s="75">
         <v>1000</v>
       </c>
       <c r="D84" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E84" s="73">
         <v>2</v>
@@ -9163,13 +9157,13 @@
         <v>392</v>
       </c>
       <c r="B85" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C85" s="75">
         <v>100</v>
       </c>
       <c r="D85" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E85" s="73">
         <v>3</v>
@@ -9180,13 +9174,13 @@
         <v>392</v>
       </c>
       <c r="B86" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C86" s="75">
         <v>100</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E86" s="73">
         <v>4</v>
@@ -9197,13 +9191,13 @@
         <v>392</v>
       </c>
       <c r="B87" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C87" s="75">
         <v>6</v>
       </c>
       <c r="D87" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E87" s="73">
         <v>5</v>
@@ -9214,13 +9208,13 @@
         <v>392</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C88" s="75">
         <v>40</v>
       </c>
       <c r="D88" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E88" s="73">
         <v>6</v>
@@ -9231,13 +9225,13 @@
         <v>392</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C89" s="75">
         <v>3</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E89" s="73">
         <v>7</v>
@@ -9248,13 +9242,13 @@
         <v>392</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C90" s="75">
         <v>300</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E90" s="73">
         <v>8</v>
@@ -9265,13 +9259,13 @@
         <v>392</v>
       </c>
       <c r="B91" s="74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C91" s="75">
         <v>300</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E91" s="73">
         <v>9</v>
@@ -9282,13 +9276,13 @@
         <v>392</v>
       </c>
       <c r="B92" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C92" s="75">
         <v>20</v>
       </c>
       <c r="D92" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E92" s="73">
         <v>10</v>
@@ -9299,13 +9293,13 @@
         <v>392</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C93" s="75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E93" s="73">
         <v>11</v>
@@ -9316,13 +9310,13 @@
         <v>392</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C94" s="75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E94" s="73">
         <v>12</v>
@@ -9333,13 +9327,13 @@
         <v>392</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C95" s="75">
         <v>25</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E95" s="73">
         <v>13</v>
@@ -9350,13 +9344,13 @@
         <v>392</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C96" s="75">
         <v>1</v>
       </c>
       <c r="D96" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E96" s="73">
         <v>14</v>
@@ -9367,13 +9361,13 @@
         <v>392</v>
       </c>
       <c r="B97" s="74" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C97" s="75" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D97" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E97" s="73">
         <v>15</v>
@@ -9384,13 +9378,13 @@
         <v>392</v>
       </c>
       <c r="B98" s="74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C98" s="75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D98" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E98" s="73">
         <v>16</v>
@@ -9401,13 +9395,13 @@
         <v>392</v>
       </c>
       <c r="B99" s="74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C99" s="75" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D99" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E99" s="73">
         <v>17</v>
@@ -9418,13 +9412,13 @@
         <v>392</v>
       </c>
       <c r="B100" s="74" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C100" s="75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D100" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E100" s="73">
         <v>18</v>
@@ -9435,13 +9429,13 @@
         <v>392</v>
       </c>
       <c r="B101" s="74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C101" s="75">
         <v>1</v>
       </c>
       <c r="D101" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E101" s="73">
         <v>19</v>
@@ -9452,13 +9446,13 @@
         <v>392</v>
       </c>
       <c r="B102" s="74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C102" s="75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D102" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E102" s="73">
         <v>20</v>
@@ -9469,13 +9463,13 @@
         <v>392</v>
       </c>
       <c r="B103" s="74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C103" s="75">
         <v>2000</v>
       </c>
       <c r="D103" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E103" s="73">
         <v>21</v>
@@ -9486,13 +9480,13 @@
         <v>392</v>
       </c>
       <c r="B104" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C104" s="75">
         <v>10000</v>
       </c>
       <c r="D104" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E104" s="73">
         <v>22</v>
@@ -9503,10 +9497,10 @@
         <v>393</v>
       </c>
       <c r="B105" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C105" s="113" t="s">
-        <v>501</v>
+        <v>438</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>499</v>
       </c>
       <c r="D105" s="80"/>
       <c r="E105" s="73">
@@ -9518,13 +9512,13 @@
         <v>393</v>
       </c>
       <c r="B106" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C106" s="75">
         <v>2000</v>
       </c>
       <c r="D106" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E106" s="73">
         <v>2</v>
@@ -9535,13 +9529,13 @@
         <v>393</v>
       </c>
       <c r="B107" s="74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C107" s="75">
         <v>400</v>
       </c>
       <c r="D107" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E107" s="73">
         <v>3</v>
@@ -9552,13 +9546,13 @@
         <v>393</v>
       </c>
       <c r="B108" s="74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C108" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D108" s="74" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E108" s="73">
         <v>4</v>
@@ -9569,13 +9563,13 @@
         <v>393</v>
       </c>
       <c r="B109" s="74" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C109" s="75">
         <v>12</v>
       </c>
       <c r="D109" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E109" s="73">
         <v>5</v>
@@ -9586,13 +9580,13 @@
         <v>393</v>
       </c>
       <c r="B110" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C110" s="75">
         <v>80</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E110" s="73">
         <v>6</v>
@@ -9603,13 +9597,13 @@
         <v>393</v>
       </c>
       <c r="B111" s="74" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C111" s="75">
         <v>1</v>
       </c>
       <c r="D111" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E111" s="73">
         <v>7</v>
@@ -9620,13 +9614,13 @@
         <v>393</v>
       </c>
       <c r="B112" s="74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C112" s="75">
         <v>400</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E112" s="73">
         <v>8</v>
@@ -9637,13 +9631,13 @@
         <v>393</v>
       </c>
       <c r="B113" s="74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C113" s="75">
         <v>600</v>
       </c>
       <c r="D113" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E113" s="73">
         <v>9</v>
@@ -9654,13 +9648,13 @@
         <v>393</v>
       </c>
       <c r="B114" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C114" s="75">
         <v>20</v>
       </c>
       <c r="D114" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E114" s="73">
         <v>10</v>
@@ -9671,13 +9665,13 @@
         <v>393</v>
       </c>
       <c r="B115" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C115" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D115" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E115" s="73">
         <v>11</v>
@@ -9688,13 +9682,13 @@
         <v>393</v>
       </c>
       <c r="B116" s="74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C116" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D116" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E116" s="73">
         <v>12</v>
@@ -9705,13 +9699,13 @@
         <v>393</v>
       </c>
       <c r="B117" s="74" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D117" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E117" s="73">
         <v>13</v>
@@ -9722,13 +9716,13 @@
         <v>393</v>
       </c>
       <c r="B118" s="74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C118" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D118" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E118" s="73">
         <v>14</v>
@@ -9739,13 +9733,13 @@
         <v>393</v>
       </c>
       <c r="B119" s="74" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C119" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D119" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E119" s="73">
         <v>15</v>
@@ -9756,13 +9750,13 @@
         <v>393</v>
       </c>
       <c r="B120" s="74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D120" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E120" s="73">
         <v>16</v>
@@ -9773,13 +9767,13 @@
         <v>393</v>
       </c>
       <c r="B121" s="74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C121" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D121" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E121" s="73">
         <v>17</v>
@@ -9790,13 +9784,13 @@
         <v>393</v>
       </c>
       <c r="B122" s="74" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D122" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E122" s="73">
         <v>18</v>
@@ -9807,13 +9801,13 @@
         <v>393</v>
       </c>
       <c r="B123" s="74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C123" s="75">
         <v>10</v>
       </c>
       <c r="D123" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E123" s="73">
         <v>19</v>
@@ -9824,13 +9818,13 @@
         <v>393</v>
       </c>
       <c r="B124" s="74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C124" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D124" s="74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E124" s="73">
         <v>20</v>
@@ -9841,13 +9835,13 @@
         <v>393</v>
       </c>
       <c r="B125" s="74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C125" s="75">
         <v>2000</v>
       </c>
       <c r="D125" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E125" s="73">
         <v>21</v>
@@ -9858,13 +9852,13 @@
         <v>393</v>
       </c>
       <c r="B126" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C126" s="75">
         <v>10000</v>
       </c>
       <c r="D126" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E126" s="73">
         <v>22</v>
